--- a/formuleas.xlsx
+++ b/formuleas.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D drive\frelance project\react js\react-curd-postgresql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C982E526-36A8-4798-ABDC-F5B98E15DE38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CAC8019-0392-42D0-8100-991D940A5A0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{9867F987-13C8-4BD1-BBB1-24D1B3791B55}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{9867F987-13C8-4BD1-BBB1-24D1B3791B55}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="cart design" sheetId="2" r:id="rId2"/>
+    <sheet name="Reported Issues" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="44">
   <si>
     <t>average price</t>
   </si>
@@ -101,6 +102,72 @@
   </si>
   <si>
     <t>Add /Remove</t>
+  </si>
+  <si>
+    <t>Remove row from the sale Invoice while edit sale.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">update Quantity while making invoice. </t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Done need to be tested</t>
+  </si>
+  <si>
+    <t>No.</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>if pressing enter on sale invoice item  system is not responding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">name field of the items visible should be adjusted </t>
+  </si>
+  <si>
+    <t xml:space="preserve">edit quantity in the sale invoice </t>
+  </si>
+  <si>
+    <t xml:space="preserve">add address in the pdf invoice printing for the customer. </t>
+  </si>
+  <si>
+    <t>brand image is not showing.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item giving error while entring from the web </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sale Invoice show be able to edit. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delete Sale Invoice. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edit / Detete Sale Invoice. </t>
+  </si>
+  <si>
+    <t>Edit / Delete Purchse Invoice.</t>
+  </si>
+  <si>
+    <t>Search in the stock Report Screen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sale Report should show the name of the customer. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sale Return should show Quantity instead of Invoice to return an item. </t>
+  </si>
+  <si>
+    <t>Delivery 1</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>Delivery 2</t>
   </si>
 </sst>
 </file>
@@ -124,7 +191,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -132,20 +199,240 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="7">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -156,6 +443,19 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E14C37FE-A3D1-4F67-A34E-587A11BB2DEB}" name="Table1" displayName="Table1" ref="A1:D16" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="5" tableBorderDxfId="6" totalsRowBorderDxfId="4">
+  <autoFilter ref="A1:D16" xr:uid="{E14C37FE-A3D1-4F67-A34E-587A11BB2DEB}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{5C468D6D-8BDA-4422-9612-CDAD337F2673}" name="No." dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{A5486217-26D0-4141-A067-CA955B9FA5E3}" name="Description" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{1B6E8360-709F-4184-A3B8-5E48B8DEEA1F}" name="Status" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{8DA8E0F8-7C3B-4F41-8FEF-EC656CC73327}" name="Column1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -615,7 +915,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25867658-F371-4E09-9387-8B04E72BF067}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -710,4 +1010,249 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6A7823F-41BD-4553-A91B-44623AB5ADBB}">
+  <dimension ref="A1:D20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.28515625" customWidth="1"/>
+    <col min="2" max="2" width="88.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>11</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>12</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>13</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>14</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>15</v>
+      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="9"/>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/formuleas.xlsx
+++ b/formuleas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D drive\frelance project\react js\react-curd-postgresql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CAC8019-0392-42D0-8100-991D940A5A0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78A38F72-E055-45A9-91CC-8316340CBB7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{9867F987-13C8-4BD1-BBB1-24D1B3791B55}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="48">
   <si>
     <t>average price</t>
   </si>
@@ -168,16 +168,34 @@
   </si>
   <si>
     <t>Delivery 2</t>
+  </si>
+  <si>
+    <t>Add Quantity in the sale report</t>
+  </si>
+  <si>
+    <t>Deliver 3</t>
+  </si>
+  <si>
+    <t>still to be deployed</t>
+  </si>
+  <si>
+    <t>Column2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -305,9 +323,6 @@
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -317,6 +332,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -327,24 +345,6 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
         <right/>
         <top style="thin">
           <color indexed="64"/>
@@ -410,6 +410,22 @@
       </border>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <border>
         <bottom style="thin">
           <color indexed="64"/>
@@ -424,12 +440,14 @@
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
   </dxfs>
@@ -446,13 +464,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E14C37FE-A3D1-4F67-A34E-587A11BB2DEB}" name="Table1" displayName="Table1" ref="A1:D16" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="5" tableBorderDxfId="6" totalsRowBorderDxfId="4">
-  <autoFilter ref="A1:D16" xr:uid="{E14C37FE-A3D1-4F67-A34E-587A11BB2DEB}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{5C468D6D-8BDA-4422-9612-CDAD337F2673}" name="No." dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{A5486217-26D0-4141-A067-CA955B9FA5E3}" name="Description" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{1B6E8360-709F-4184-A3B8-5E48B8DEEA1F}" name="Status" dataDxfId="1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E14C37FE-A3D1-4F67-A34E-587A11BB2DEB}" name="Table1" displayName="Table1" ref="A1:E17" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4" totalsRowBorderDxfId="3">
+  <autoFilter ref="A1:E17" xr:uid="{E14C37FE-A3D1-4F67-A34E-587A11BB2DEB}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{5C468D6D-8BDA-4422-9612-CDAD337F2673}" name="No." dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{A5486217-26D0-4141-A067-CA955B9FA5E3}" name="Description" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{1B6E8360-709F-4184-A3B8-5E48B8DEEA1F}" name="Status" dataDxfId="0"/>
     <tableColumn id="4" xr3:uid="{8DA8E0F8-7C3B-4F41-8FEF-EC656CC73327}" name="Column1"/>
+    <tableColumn id="5" xr3:uid="{6CA8E606-8482-47FC-B6E7-413FF183DADB}" name="Column2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -768,30 +787,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="H1" s="1" t="s">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="H1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="H2" s="1" t="s">
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="H2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C3">
@@ -1014,10 +1033,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6A7823F-41BD-4553-A91B-44623AB5ADBB}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1027,229 +1046,250 @@
     <col min="3" max="3" width="22.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
+      <c r="E1" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="6" t="s">
         <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="6" t="s">
         <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="6" t="s">
         <v>24</v>
       </c>
       <c r="D10" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="6" t="s">
         <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="6" t="s">
         <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
         <v>12</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="6" t="s">
         <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
         <v>13</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="6" t="s">
         <v>25</v>
       </c>
       <c r="D14" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
         <v>14</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="6" t="s">
         <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
         <v>15</v>
       </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" s="10" t="s">
+      <c r="B16" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>16</v>
+      </c>
+      <c r="B17" s="7" t="s">
         <v>37</v>
       </c>
+      <c r="C17" s="8"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B21" s="9" t="s">
+        <v>37</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>

--- a/formuleas.xlsx
+++ b/formuleas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D drive\frelance project\react js\react-curd-postgresql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78A38F72-E055-45A9-91CC-8316340CBB7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5949103E-9E03-4AB8-B554-A8D0AE6DC962}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{9867F987-13C8-4BD1-BBB1-24D1B3791B55}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="54">
   <si>
     <t>average price</t>
   </si>
@@ -176,10 +176,28 @@
     <t>Deliver 3</t>
   </si>
   <si>
-    <t>still to be deployed</t>
-  </si>
-  <si>
     <t>Column2</t>
+  </si>
+  <si>
+    <t>Delivery 4</t>
+  </si>
+  <si>
+    <t>need to be deployed</t>
+  </si>
+  <si>
+    <t>Enter id for the stock report</t>
+  </si>
+  <si>
+    <t>add customer / supplier name in the sale and purchase reports</t>
+  </si>
+  <si>
+    <t>search item in and add filter options</t>
+  </si>
+  <si>
+    <t xml:space="preserve">customer name &amp; date in the AR / AP screens and filter on invoice </t>
+  </si>
+  <si>
+    <t>Purchse report should have name of the supplier</t>
   </si>
 </sst>
 </file>
@@ -209,7 +227,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -317,11 +335,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -335,6 +364,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -464,8 +495,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E14C37FE-A3D1-4F67-A34E-587A11BB2DEB}" name="Table1" displayName="Table1" ref="A1:E17" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4" totalsRowBorderDxfId="3">
-  <autoFilter ref="A1:E17" xr:uid="{E14C37FE-A3D1-4F67-A34E-587A11BB2DEB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E14C37FE-A3D1-4F67-A34E-587A11BB2DEB}" name="Table1" displayName="Table1" ref="A1:E20" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4" totalsRowBorderDxfId="3">
+  <autoFilter ref="A1:E20" xr:uid="{E14C37FE-A3D1-4F67-A34E-587A11BB2DEB}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{5C468D6D-8BDA-4422-9612-CDAD337F2673}" name="No." dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{A5486217-26D0-4141-A067-CA955B9FA5E3}" name="Description" dataDxfId="1"/>
@@ -1033,10 +1064,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6A7823F-41BD-4553-A91B-44623AB5ADBB}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1044,6 +1075,7 @@
     <col min="1" max="1" width="6.28515625" customWidth="1"/>
     <col min="2" max="2" width="88.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1060,7 +1092,7 @@
         <v>42</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1270,22 +1302,79 @@
       <c r="D16" t="s">
         <v>45</v>
       </c>
-      <c r="E16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>16</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="8"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B21" s="9" t="s">
-        <v>37</v>
+      <c r="C17" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="11">
+        <v>17</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" s="12"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="11">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" s="12"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="11">
+        <v>19</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="9"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/formuleas.xlsx
+++ b/formuleas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D drive\frelance project\react js\react-curd-postgresql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5949103E-9E03-4AB8-B554-A8D0AE6DC962}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25416ABC-31A3-4173-8CAD-2883AE95088F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{9867F987-13C8-4BD1-BBB1-24D1B3791B55}"/>
+    <workbookView xWindow="-28920" yWindow="0" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{9867F987-13C8-4BD1-BBB1-24D1B3791B55}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="56">
   <si>
     <t>average price</t>
   </si>
@@ -149,9 +149,6 @@
     <t xml:space="preserve">Edit / Detete Sale Invoice. </t>
   </si>
   <si>
-    <t>Edit / Delete Purchse Invoice.</t>
-  </si>
-  <si>
     <t>Search in the stock Report Screen.</t>
   </si>
   <si>
@@ -194,10 +191,19 @@
     <t>search item in and add filter options</t>
   </si>
   <si>
-    <t xml:space="preserve">customer name &amp; date in the AR / AP screens and filter on invoice </t>
-  </si>
-  <si>
-    <t>Purchse report should have name of the supplier</t>
+    <t>Edit / Delete Purcahse Invoice.</t>
+  </si>
+  <si>
+    <t>Issues fixed in Return stock</t>
+  </si>
+  <si>
+    <t>Delivery 5</t>
+  </si>
+  <si>
+    <t>Purchse report / Edit purchase should have name of the supplier</t>
+  </si>
+  <si>
+    <t>Fixed the Edit purchase issue with the DB update</t>
   </si>
 </sst>
 </file>
@@ -350,7 +356,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -360,12 +366,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -495,8 +500,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E14C37FE-A3D1-4F67-A34E-587A11BB2DEB}" name="Table1" displayName="Table1" ref="A1:E20" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4" totalsRowBorderDxfId="3">
-  <autoFilter ref="A1:E20" xr:uid="{E14C37FE-A3D1-4F67-A34E-587A11BB2DEB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E14C37FE-A3D1-4F67-A34E-587A11BB2DEB}" name="Table1" displayName="Table1" ref="A1:E22" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4" totalsRowBorderDxfId="3">
+  <autoFilter ref="A1:E22" xr:uid="{E14C37FE-A3D1-4F67-A34E-587A11BB2DEB}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{5C468D6D-8BDA-4422-9612-CDAD337F2673}" name="No." dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{A5486217-26D0-4141-A067-CA955B9FA5E3}" name="Description" dataDxfId="1"/>
@@ -818,30 +823,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="H1" s="10" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="H1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="H2" s="10" t="s">
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="H2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C3">
@@ -1067,7 +1072,7 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1075,6 +1080,7 @@
     <col min="1" max="1" width="6.28515625" customWidth="1"/>
     <col min="2" max="2" width="88.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1089,10 +1095,10 @@
         <v>17</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1106,7 +1112,7 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1120,7 +1126,7 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1134,7 +1140,7 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1148,7 +1154,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1162,7 +1168,7 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1176,7 +1182,7 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1190,7 +1196,7 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1204,7 +1210,7 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1218,7 +1224,7 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1232,7 +1238,7 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1246,7 +1252,7 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -1254,13 +1260,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1268,13 +1274,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -1282,13 +1288,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -1296,11 +1302,11 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -1308,73 +1314,95 @@
         <v>16</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>47</v>
-      </c>
-      <c r="E17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="9">
+        <v>17</v>
+      </c>
+      <c r="B18" s="7" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="11">
-        <v>17</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>49</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>47</v>
-      </c>
-      <c r="E18" s="12"/>
+        <v>46</v>
+      </c>
+      <c r="E18" s="10"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="11">
+      <c r="A19" s="9">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>25</v>
       </c>
       <c r="D19" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="10"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="9">
+        <v>19</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" t="s">
         <v>47</v>
       </c>
-      <c r="E19" s="12"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="11">
-        <v>19</v>
-      </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="9"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+      <c r="A21" s="9">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="10" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>52</v>
-      </c>
+      <c r="E21" s="10"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="9">
+        <v>21</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E22" s="10"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/formuleas.xlsx
+++ b/formuleas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D drive\frelance project\react js\react-curd-postgresql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25416ABC-31A3-4173-8CAD-2883AE95088F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E605267B-8B3B-44F3-AD95-92837D5C1AF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="0" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{9867F987-13C8-4BD1-BBB1-24D1B3791B55}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{9867F987-13C8-4BD1-BBB1-24D1B3791B55}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="60">
   <si>
     <t>average price</t>
   </si>
@@ -170,24 +170,15 @@
     <t>Add Quantity in the sale report</t>
   </si>
   <si>
-    <t>Deliver 3</t>
-  </si>
-  <si>
     <t>Column2</t>
   </si>
   <si>
     <t>Delivery 4</t>
   </si>
   <si>
-    <t>need to be deployed</t>
-  </si>
-  <si>
     <t>Enter id for the stock report</t>
   </si>
   <si>
-    <t>add customer / supplier name in the sale and purchase reports</t>
-  </si>
-  <si>
     <t>search item in and add filter options</t>
   </si>
   <si>
@@ -204,6 +195,27 @@
   </si>
   <si>
     <t>Fixed the Edit purchase issue with the DB update</t>
+  </si>
+  <si>
+    <t xml:space="preserve">show only online item having quantity greater than 0 </t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>Delivery 3</t>
+  </si>
+  <si>
+    <t>timeout on huge purchase is causing issue</t>
+  </si>
+  <si>
+    <t>Issues fixed in Return stock (complete logic change)</t>
+  </si>
+  <si>
+    <t>Delivery 6</t>
+  </si>
+  <si>
+    <t>only gui cahnges</t>
   </si>
 </sst>
 </file>
@@ -356,7 +368,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -371,6 +383,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -500,14 +513,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E14C37FE-A3D1-4F67-A34E-587A11BB2DEB}" name="Table1" displayName="Table1" ref="A1:E22" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4" totalsRowBorderDxfId="3">
-  <autoFilter ref="A1:E22" xr:uid="{E14C37FE-A3D1-4F67-A34E-587A11BB2DEB}"/>
-  <tableColumns count="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E14C37FE-A3D1-4F67-A34E-587A11BB2DEB}" name="Table1" displayName="Table1" ref="A1:F23" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4" totalsRowBorderDxfId="3">
+  <autoFilter ref="A1:F23" xr:uid="{E14C37FE-A3D1-4F67-A34E-587A11BB2DEB}"/>
+  <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{5C468D6D-8BDA-4422-9612-CDAD337F2673}" name="No." dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{A5486217-26D0-4141-A067-CA955B9FA5E3}" name="Description" dataDxfId="1"/>
     <tableColumn id="3" xr3:uid="{1B6E8360-709F-4184-A3B8-5E48B8DEEA1F}" name="Status" dataDxfId="0"/>
     <tableColumn id="4" xr3:uid="{8DA8E0F8-7C3B-4F41-8FEF-EC656CC73327}" name="Column1"/>
     <tableColumn id="5" xr3:uid="{6CA8E606-8482-47FC-B6E7-413FF183DADB}" name="Column2"/>
+    <tableColumn id="6" xr3:uid="{5659DFF9-B4A6-430A-8A3C-607B637A1C25}" name="date"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1069,22 +1083,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6A7823F-41BD-4553-A91B-44623AB5ADBB}">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" customWidth="1"/>
+    <col min="1" max="1" width="6.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="88.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>26</v>
       </c>
@@ -1098,10 +1112,13 @@
         <v>41</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1115,7 +1132,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1129,7 +1146,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1143,7 +1160,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -1157,7 +1174,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -1171,7 +1188,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -1185,7 +1202,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -1199,7 +1216,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -1213,7 +1230,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -1227,7 +1244,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -1241,7 +1258,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -1255,7 +1272,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -1269,7 +1286,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -1283,7 +1300,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -1297,7 +1314,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -1306,103 +1323,126 @@
       </c>
       <c r="C16" s="6"/>
       <c r="D16" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>16</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="9">
         <v>17</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E18" s="10"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="9">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E19" s="10"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="9">
         <v>19</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>25</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="E20" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="9">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>25</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E21" s="10"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="9">
         <v>21</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>25</v>
       </c>
       <c r="D22" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" s="10"/>
+      <c r="F22" s="12">
+        <v>44594</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="9">
+        <v>20</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" s="8"/>
+      <c r="D23" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F23" s="12">
+        <v>44600</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
         <v>53</v>
       </c>
-      <c r="E22" s="10"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>49</v>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/formuleas.xlsx
+++ b/formuleas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D drive\frelance project\react js\react-curd-postgresql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E605267B-8B3B-44F3-AD95-92837D5C1AF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{423785EA-0006-4E05-A873-CEC1C3505BF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{9867F987-13C8-4BD1-BBB1-24D1B3791B55}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="71">
   <si>
     <t>average price</t>
   </si>
@@ -216,6 +216,39 @@
   </si>
   <si>
     <t>only gui cahnges</t>
+  </si>
+  <si>
+    <t>in return if the the value goes to zero remove it from the sale details</t>
+  </si>
+  <si>
+    <t>edit the name in the user profile</t>
+  </si>
+  <si>
+    <t>change the customer name in the sale invoice</t>
+  </si>
+  <si>
+    <t>Bill number 189 Almakkah store fatomand ka hai mistakenly bilal medical store enter ho gya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">add name in the AR /AP instead of customer id </t>
+  </si>
+  <si>
+    <t>refresh after the submit in the return sale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">refresh after the submit in  the AR / AP </t>
+  </si>
+  <si>
+    <t>is working fine</t>
+  </si>
+  <si>
+    <t>Delivery 7</t>
+  </si>
+  <si>
+    <t>print name on every page of the sale invoice report</t>
+  </si>
+  <si>
+    <t>Both GUI / MW</t>
   </si>
 </sst>
 </file>
@@ -380,10 +413,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -513,8 +546,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E14C37FE-A3D1-4F67-A34E-587A11BB2DEB}" name="Table1" displayName="Table1" ref="A1:F23" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4" totalsRowBorderDxfId="3">
-  <autoFilter ref="A1:F23" xr:uid="{E14C37FE-A3D1-4F67-A34E-587A11BB2DEB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E14C37FE-A3D1-4F67-A34E-587A11BB2DEB}" name="Table1" displayName="Table1" ref="A1:F27" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4" totalsRowBorderDxfId="3">
+  <autoFilter ref="A1:F27" xr:uid="{E14C37FE-A3D1-4F67-A34E-587A11BB2DEB}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{5C468D6D-8BDA-4422-9612-CDAD337F2673}" name="No." dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{A5486217-26D0-4141-A067-CA955B9FA5E3}" name="Description" dataDxfId="1"/>
@@ -837,30 +870,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="H1" s="11" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="H1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="H2" s="11" t="s">
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="H2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C3">
@@ -1083,10 +1116,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6A7823F-41BD-4553-A91B-44623AB5ADBB}">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:F23"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1096,6 +1129,7 @@
     <col min="3" max="3" width="22.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1413,7 +1447,7 @@
         <v>50</v>
       </c>
       <c r="E22" s="10"/>
-      <c r="F22" s="12">
+      <c r="F22" s="11">
         <v>44594</v>
       </c>
     </row>
@@ -1431,18 +1465,120 @@
       <c r="E23" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="F23" s="12">
+      <c r="F23" s="11">
         <v>44600</v>
       </c>
     </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="9">
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" s="8"/>
+      <c r="D24" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="F24" s="11">
+        <v>44608</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="9">
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" s="8"/>
+      <c r="D25" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="F25" s="11">
+        <v>44608</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="9">
+        <v>23</v>
+      </c>
+      <c r="B26" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" s="8"/>
+      <c r="D26" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="F26" s="11">
+        <v>44608</v>
+      </c>
+    </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="9">
+        <v>24</v>
+      </c>
       <c r="B27" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" s="8"/>
+      <c r="D27" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="F27" s="11">
+        <v>44608</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
         <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>61</v>
+      </c>
+      <c r="C39" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/formuleas.xlsx
+++ b/formuleas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D drive\frelance project\react js\react-curd-postgresql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{423785EA-0006-4E05-A873-CEC1C3505BF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B18E8C23-7415-4374-8CD8-E30DA104224C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{9867F987-13C8-4BD1-BBB1-24D1B3791B55}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="76">
   <si>
     <t>average price</t>
   </si>
@@ -221,15 +221,9 @@
     <t>in return if the the value goes to zero remove it from the sale details</t>
   </si>
   <si>
-    <t>edit the name in the user profile</t>
-  </si>
-  <si>
     <t>change the customer name in the sale invoice</t>
   </si>
   <si>
-    <t>Bill number 189 Almakkah store fatomand ka hai mistakenly bilal medical store enter ho gya</t>
-  </si>
-  <si>
     <t xml:space="preserve">add name in the AR /AP instead of customer id </t>
   </si>
   <si>
@@ -239,9 +233,6 @@
     <t xml:space="preserve">refresh after the submit in  the AR / AP </t>
   </si>
   <si>
-    <t>is working fine</t>
-  </si>
-  <si>
     <t>Delivery 7</t>
   </si>
   <si>
@@ -249,6 +240,30 @@
   </si>
   <si>
     <t>Both GUI / MW</t>
+  </si>
+  <si>
+    <t>Edit / Delete expense sheet</t>
+  </si>
+  <si>
+    <t>if logged out subscriber should be redirected to login page</t>
+  </si>
+  <si>
+    <t>Export to excel functionality in the Stock report.</t>
+  </si>
+  <si>
+    <t>Delivery 8</t>
+  </si>
+  <si>
+    <t>check how to add jwt password expiry retry</t>
+  </si>
+  <si>
+    <t>add sum of all items on the stock report</t>
+  </si>
+  <si>
+    <t>add sum in the AP /AR screen</t>
+  </si>
+  <si>
+    <t>remove 0 entries from the AP/AR screen from details section</t>
   </si>
 </sst>
 </file>
@@ -401,7 +416,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -414,9 +429,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -546,8 +563,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E14C37FE-A3D1-4F67-A34E-587A11BB2DEB}" name="Table1" displayName="Table1" ref="A1:F27" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4" totalsRowBorderDxfId="3">
-  <autoFilter ref="A1:F27" xr:uid="{E14C37FE-A3D1-4F67-A34E-587A11BB2DEB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E14C37FE-A3D1-4F67-A34E-587A11BB2DEB}" name="Table1" displayName="Table1" ref="A1:F32" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4" totalsRowBorderDxfId="3">
+  <autoFilter ref="A1:F32" xr:uid="{E14C37FE-A3D1-4F67-A34E-587A11BB2DEB}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{5C468D6D-8BDA-4422-9612-CDAD337F2673}" name="No." dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{A5486217-26D0-4141-A067-CA955B9FA5E3}" name="Description" dataDxfId="1"/>
@@ -870,30 +887,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="H1" s="12" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="H1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="H2" s="12" t="s">
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="H2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C3">
@@ -1116,10 +1133,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6A7823F-41BD-4553-A91B-44623AB5ADBB}">
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1452,133 +1469,217 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="9">
+      <c r="A23" s="5">
         <v>20</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="10" t="s">
+      <c r="C23" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="E23" s="10" t="s">
+      <c r="E23" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="F23" s="11">
+      <c r="F23" s="12">
         <v>44600</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="9">
+      <c r="A24" s="5">
         <v>21</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C24" s="8"/>
-      <c r="D24" s="10" t="s">
+      <c r="E24" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F24" s="12">
+        <v>44608</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
+        <v>22</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F25" s="12">
+        <v>44608</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
+        <v>23</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F26" s="12">
+        <v>44608</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
+        <v>24</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F27" s="12">
+        <v>44608</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="9">
+        <v>25</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C28" s="8"/>
+      <c r="D28" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E28" s="10"/>
+      <c r="F28" s="14"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="9">
+        <v>26</v>
+      </c>
+      <c r="B29" t="s">
+        <v>66</v>
+      </c>
+      <c r="C29" s="8"/>
+      <c r="D29" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="9">
+        <v>27</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C30" s="8"/>
+      <c r="D30" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="9">
+        <v>28</v>
+      </c>
+      <c r="B31" t="s">
+        <v>74</v>
+      </c>
+      <c r="C31" s="8"/>
+      <c r="D31" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="9">
+        <v>29</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C32" s="8"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="10"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="10"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
         <v>68</v>
       </c>
-      <c r="E24" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="F24" s="11">
-        <v>44608</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="9">
-        <v>22</v>
-      </c>
-      <c r="B25" t="s">
-        <v>64</v>
-      </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="F25" s="11">
-        <v>44608</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="9">
-        <v>23</v>
-      </c>
-      <c r="B26" t="s">
-        <v>66</v>
-      </c>
-      <c r="C26" s="8"/>
-      <c r="D26" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="F26" s="11">
-        <v>44608</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="9">
-        <v>24</v>
-      </c>
-      <c r="B27" t="s">
-        <v>60</v>
-      </c>
-      <c r="C27" s="8"/>
-      <c r="D27" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="E27" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="F27" s="11">
-        <v>44608</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>61</v>
       </c>
-      <c r="C39" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>63</v>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/formuleas.xlsx
+++ b/formuleas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D drive\frelance project\react js\react-curd-postgresql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B18E8C23-7415-4374-8CD8-E30DA104224C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CBCD7B4-B44F-44A8-8288-CDCDF6E8707D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{9867F987-13C8-4BD1-BBB1-24D1B3791B55}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="82">
   <si>
     <t>average price</t>
   </si>
@@ -264,6 +264,24 @@
   </si>
   <si>
     <t>remove 0 entries from the AP/AR screen from details section</t>
+  </si>
+  <si>
+    <t>Only GUI</t>
+  </si>
+  <si>
+    <t>check item name is not getting updated</t>
+  </si>
+  <si>
+    <t>show customer last price when selecting the item</t>
+  </si>
+  <si>
+    <t>Sale / Purchase history in stock report</t>
+  </si>
+  <si>
+    <t>in sale report if sale is less than cost then highlight the row</t>
+  </si>
+  <si>
+    <t>show profit in the sale invoice detail</t>
   </si>
 </sst>
 </file>
@@ -293,7 +311,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -359,22 +377,7 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -401,39 +404,24 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -563,8 +551,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E14C37FE-A3D1-4F67-A34E-587A11BB2DEB}" name="Table1" displayName="Table1" ref="A1:F32" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4" totalsRowBorderDxfId="3">
-  <autoFilter ref="A1:F32" xr:uid="{E14C37FE-A3D1-4F67-A34E-587A11BB2DEB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E14C37FE-A3D1-4F67-A34E-587A11BB2DEB}" name="Table1" displayName="Table1" ref="A1:F33" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4" totalsRowBorderDxfId="3">
+  <autoFilter ref="A1:F33" xr:uid="{E14C37FE-A3D1-4F67-A34E-587A11BB2DEB}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{5C468D6D-8BDA-4422-9612-CDAD337F2673}" name="No." dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{A5486217-26D0-4141-A067-CA955B9FA5E3}" name="Description" dataDxfId="1"/>
@@ -887,30 +875,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="H1" s="13" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="H1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="H2" s="13" t="s">
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="H2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C3">
@@ -1133,10 +1121,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6A7823F-41BD-4553-A91B-44623AB5ADBB}">
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1173,484 +1161,557 @@
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="4" t="s">
         <v>40</v>
       </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="4" t="s">
         <v>40</v>
       </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="4" t="s">
         <v>40</v>
       </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="4" t="s">
         <v>40</v>
       </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="4" t="s">
         <v>40</v>
       </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="4" t="s">
         <v>40</v>
       </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="4" t="s">
         <v>40</v>
       </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="4" t="s">
         <v>40</v>
       </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="4" t="s">
         <v>40</v>
       </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="C11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>42</v>
       </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="C12" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>42</v>
       </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>12</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="C13" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>42</v>
       </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>13</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="C14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>42</v>
       </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>14</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="C15" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>42</v>
       </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>15</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="6"/>
-      <c r="D16" t="s">
+      <c r="C16" s="4"/>
+      <c r="D16" s="4" t="s">
         <v>55</v>
       </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>16</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="C17" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>45</v>
       </c>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="9">
+      <c r="A18" s="4">
         <v>17</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="C18" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E18" s="10"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="9">
+      <c r="A19" s="4">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="C19" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E19" s="10"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="9">
+      <c r="A20" s="4">
         <v>19</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" s="10" t="s">
+      <c r="C20" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>50</v>
       </c>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="9">
+      <c r="A21" s="4">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C21" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" s="10" t="s">
+      <c r="C21" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E21" s="10"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="9">
+      <c r="A22" s="4">
         <v>21</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C22" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" s="10" t="s">
+      <c r="C22" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E22" s="10"/>
-      <c r="F22" s="11">
+      <c r="E22" s="4"/>
+      <c r="F22" s="7">
         <v>44594</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="5">
+      <c r="A23" s="4">
         <v>20</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" s="5" t="s">
+      <c r="C23" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="F23" s="12">
+      <c r="F23" s="7">
         <v>44600</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="5">
+      <c r="A24" s="4">
         <v>21</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C24" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" s="5" t="s">
+      <c r="C24" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E24" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="F24" s="12">
+      <c r="F24" s="7">
         <v>44608</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="5">
+      <c r="A25" s="4">
         <v>22</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C25" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" s="5" t="s">
+      <c r="C25" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E25" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="F25" s="12">
+      <c r="F25" s="7">
         <v>44608</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="5">
+      <c r="A26" s="4">
         <v>23</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C26" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D26" s="5" t="s">
+      <c r="C26" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="E26" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="F26" s="12">
+      <c r="F26" s="7">
         <v>44608</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="5">
+      <c r="A27" s="4">
         <v>24</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C27" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D27" s="5" t="s">
+      <c r="C27" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="E27" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="F27" s="12">
+      <c r="F27" s="7">
         <v>44608</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="9">
-        <v>25</v>
-      </c>
-      <c r="B28" s="7" t="s">
+      <c r="A28" s="5">
+        <v>25</v>
+      </c>
+      <c r="B28" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C28" s="8"/>
-      <c r="D28" s="10" t="s">
+      <c r="C28" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="E28" s="10"/>
-      <c r="F28" s="14"/>
+      <c r="E28" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F28" s="7">
+        <v>44637</v>
+      </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="9">
+      <c r="A29" s="5">
         <v>26</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C29" s="8"/>
-      <c r="D29" s="10" t="s">
+      <c r="C29" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
+      <c r="E29" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F29" s="7">
+        <v>44637</v>
+      </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="9">
+      <c r="A30" s="5">
         <v>27</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C30" s="8"/>
-      <c r="D30" s="10" t="s">
+      <c r="C30" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
+      <c r="E30" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F30" s="7">
+        <v>44637</v>
+      </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="9">
+      <c r="A31" s="5">
         <v>28</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C31" s="8"/>
-      <c r="D31" s="10" t="s">
+      <c r="C31" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
+      <c r="E31" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F31" s="7">
+        <v>44637</v>
+      </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="9">
+      <c r="A32" s="5">
         <v>29</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C32" s="8"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
+      <c r="C32" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F32" s="7">
+        <v>44637</v>
+      </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="10"/>
-      <c r="B33" s="10"/>
+      <c r="A33" s="5">
+        <v>30</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>79</v>
+      </c>
       <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="10"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
@@ -1680,6 +1741,26 @@
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>72</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/formuleas.xlsx
+++ b/formuleas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D drive\frelance project\react js\react-curd-postgresql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CBCD7B4-B44F-44A8-8288-CDCDF6E8707D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82EA54E6-4FB7-402E-80DE-B160B75EA48B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{9867F987-13C8-4BD1-BBB1-24D1B3791B55}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="86">
   <si>
     <t>average price</t>
   </si>
@@ -282,6 +282,18 @@
   </si>
   <si>
     <t>show profit in the sale invoice detail</t>
+  </si>
+  <si>
+    <t>add summary like stock report on sale report</t>
+  </si>
+  <si>
+    <t>print purchase invoice</t>
+  </si>
+  <si>
+    <t>Delivery 9</t>
+  </si>
+  <si>
+    <t>Delivery 10</t>
   </si>
 </sst>
 </file>
@@ -408,7 +420,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -417,11 +429,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -551,8 +564,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E14C37FE-A3D1-4F67-A34E-587A11BB2DEB}" name="Table1" displayName="Table1" ref="A1:F33" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4" totalsRowBorderDxfId="3">
-  <autoFilter ref="A1:F33" xr:uid="{E14C37FE-A3D1-4F67-A34E-587A11BB2DEB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E14C37FE-A3D1-4F67-A34E-587A11BB2DEB}" name="Table1" displayName="Table1" ref="A1:F36" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4" totalsRowBorderDxfId="3">
+  <autoFilter ref="A1:F36" xr:uid="{E14C37FE-A3D1-4F67-A34E-587A11BB2DEB}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{5C468D6D-8BDA-4422-9612-CDAD337F2673}" name="No." dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{A5486217-26D0-4141-A067-CA955B9FA5E3}" name="Description" dataDxfId="1"/>
@@ -875,30 +888,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="H1" s="8" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="H1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="H2" s="8" t="s">
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="H2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C3">
@@ -1121,10 +1134,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6A7823F-41BD-4553-A91B-44623AB5ADBB}">
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34:F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1697,70 +1710,142 @@
       <c r="A33" s="5">
         <v>30</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="C33" s="10"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F33" s="10">
+        <v>44639</v>
+      </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="6"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
+      <c r="A34" s="5">
+        <v>31</v>
+      </c>
+      <c r="B34" t="s">
+        <v>81</v>
+      </c>
+      <c r="C34" s="9"/>
+      <c r="D34" s="6" t="s">
+        <v>85</v>
+      </c>
       <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
+      <c r="F34" s="10">
+        <v>44653</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="5">
+        <v>32</v>
+      </c>
+      <c r="B35" t="s">
+        <v>80</v>
+      </c>
+      <c r="C35" s="9"/>
+      <c r="D35" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E35" s="6"/>
+      <c r="F35" s="10">
+        <v>44653</v>
+      </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
-        <v>68</v>
-      </c>
+      <c r="A36" s="5">
+        <v>33</v>
+      </c>
+      <c r="B36" s="8"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="10"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
-        <v>53</v>
-      </c>
+      <c r="A37" s="6"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="10"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
-        <v>56</v>
-      </c>
+      <c r="A38" s="6"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="10"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
-        <v>61</v>
-      </c>
+      <c r="A39" s="6"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="10"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
-        <v>72</v>
-      </c>
+      <c r="A40" s="6"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="10"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>81</v>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/formuleas.xlsx
+++ b/formuleas.xlsx
@@ -8,15 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D drive\frelance project\react js\react-curd-postgresql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82EA54E6-4FB7-402E-80DE-B160B75EA48B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EBB583B-4072-4661-AF9A-A49CF5DD8BA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{9867F987-13C8-4BD1-BBB1-24D1B3791B55}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{9867F987-13C8-4BD1-BBB1-24D1B3791B55}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="cart design" sheetId="2" r:id="rId2"/>
     <sheet name="Reported Issues" sheetId="3" r:id="rId3"/>
+    <sheet name="Purchase" sheetId="4" r:id="rId4"/>
+    <sheet name="Sale" sheetId="5" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Sale!$A$3:$G$149</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="317">
   <si>
     <t>average price</t>
   </si>
@@ -294,13 +299,706 @@
   </si>
   <si>
     <t>Delivery 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">show profit in the sale invoice </t>
+  </si>
+  <si>
+    <t>Delivery 11</t>
+  </si>
+  <si>
+    <t>Purchase History</t>
+  </si>
+  <si>
+    <t>Invoice Id</t>
+  </si>
+  <si>
+    <t>Supllier Name</t>
+  </si>
+  <si>
+    <t>Item Name</t>
+  </si>
+  <si>
+    <t>Inv. Deatil Id</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Creation Date Time</t>
+  </si>
+  <si>
+    <t>dawood</t>
+  </si>
+  <si>
+    <t>ponds face wash white beauty 100g</t>
+  </si>
+  <si>
+    <t>2022-03-09T14:18:25.168Z</t>
+  </si>
+  <si>
+    <t>2022-01-19T16:21:12.934Z</t>
+  </si>
+  <si>
+    <t>2022-02-25T11:51:16.293Z</t>
+  </si>
+  <si>
+    <t>2022-04-01T17:54:32.892Z</t>
+  </si>
+  <si>
+    <t>Sale History</t>
+  </si>
+  <si>
+    <t>Customer Name</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>lush cosmetics</t>
+  </si>
+  <si>
+    <t>2022-01-03T17:35:48.808Z</t>
+  </si>
+  <si>
+    <t>bilal madical store</t>
+  </si>
+  <si>
+    <t>2022-01-03T12:26:15.471Z</t>
+  </si>
+  <si>
+    <t>gujranwala pharmacy</t>
+  </si>
+  <si>
+    <t>2022-01-11T14:42:06.129Z</t>
+  </si>
+  <si>
+    <t>2022-01-11T14:42:07.232Z</t>
+  </si>
+  <si>
+    <t>ameen sons pharmacy</t>
+  </si>
+  <si>
+    <t>2022-01-13T11:20:22.313Z</t>
+  </si>
+  <si>
+    <t>amritsar shopping center</t>
+  </si>
+  <si>
+    <t>2022-01-13T14:12:13.337Z</t>
+  </si>
+  <si>
+    <t>oxis pharmacy</t>
+  </si>
+  <si>
+    <t>2022-02-03T13:22:01.080Z</t>
+  </si>
+  <si>
+    <t>2022-01-16T14:42:27.427Z</t>
+  </si>
+  <si>
+    <t>fazal din pharmacy</t>
+  </si>
+  <si>
+    <t>2022-01-16T15:17:37.449Z</t>
+  </si>
+  <si>
+    <t>2022-01-17T12:00:04.755Z</t>
+  </si>
+  <si>
+    <t>khan cosmetics</t>
+  </si>
+  <si>
+    <t>2022-02-01T14:42:23.566Z</t>
+  </si>
+  <si>
+    <t>makkah super store</t>
+  </si>
+  <si>
+    <t>2022-01-31T13:27:23.283Z</t>
+  </si>
+  <si>
+    <t>rehan oxis pharmacy</t>
+  </si>
+  <si>
+    <t>2022-01-17T12:55:10.598Z</t>
+  </si>
+  <si>
+    <t>2022-01-17T13:19:29.344Z</t>
+  </si>
+  <si>
+    <t>ijaz karyana</t>
+  </si>
+  <si>
+    <t>2022-01-17T13:25:58.786Z</t>
+  </si>
+  <si>
+    <t>2022-01-20T11:03:48.868Z</t>
+  </si>
+  <si>
+    <t>2022-01-20T14:16:53.167Z</t>
+  </si>
+  <si>
+    <t>2022-01-20T17:24:04.540Z</t>
+  </si>
+  <si>
+    <t>al rabi store</t>
+  </si>
+  <si>
+    <t>2022-01-23T14:16:50.483Z</t>
+  </si>
+  <si>
+    <t>paradise shopping center</t>
+  </si>
+  <si>
+    <t>2022-01-30T13:07:55.032Z</t>
+  </si>
+  <si>
+    <t>2022-03-10T15:24:01.513Z</t>
+  </si>
+  <si>
+    <t>khokhar pharmacy</t>
+  </si>
+  <si>
+    <t>2022-01-27T13:39:19.903Z</t>
+  </si>
+  <si>
+    <t>umer cosmetics</t>
+  </si>
+  <si>
+    <t>2022-02-05T12:36:53.104Z</t>
+  </si>
+  <si>
+    <t>2022-01-24T14:53:50.052Z</t>
+  </si>
+  <si>
+    <t>zeeshan gift center</t>
+  </si>
+  <si>
+    <t>2022-01-25T15:02:00.670Z</t>
+  </si>
+  <si>
+    <t>2022-01-31T14:52:01.744Z</t>
+  </si>
+  <si>
+    <t>mubeen</t>
+  </si>
+  <si>
+    <t>2022-02-02T15:08:23.441Z</t>
+  </si>
+  <si>
+    <t>2022-02-03T16:27:51.706Z</t>
+  </si>
+  <si>
+    <t>a to z cosmetics</t>
+  </si>
+  <si>
+    <t>2022-02-06T14:16:29.399Z</t>
+  </si>
+  <si>
+    <t>luqman general store</t>
+  </si>
+  <si>
+    <t>2022-03-03T15:31:29.733Z</t>
+  </si>
+  <si>
+    <t>rana super store</t>
+  </si>
+  <si>
+    <t>2022-03-05T16:09:06.916Z</t>
+  </si>
+  <si>
+    <t>city mart</t>
+  </si>
+  <si>
+    <t>2022-03-09T14:32:28.787Z</t>
+  </si>
+  <si>
+    <t>2022-01-27T14:10:35.549Z</t>
+  </si>
+  <si>
+    <t>sabar di hatti</t>
+  </si>
+  <si>
+    <t>2022-02-01T14:46:29.702Z</t>
+  </si>
+  <si>
+    <t>zeeshan shopping center</t>
+  </si>
+  <si>
+    <t>2022-01-27T14:59:24.188Z</t>
+  </si>
+  <si>
+    <t>Tayyab Store</t>
+  </si>
+  <si>
+    <t>2022-01-28T10:35:42.384Z</t>
+  </si>
+  <si>
+    <t>umair</t>
+  </si>
+  <si>
+    <t>2022-02-02T15:12:16.729Z</t>
+  </si>
+  <si>
+    <t>royal variety</t>
+  </si>
+  <si>
+    <t>2022-01-29T13:55:55.680Z</t>
+  </si>
+  <si>
+    <t>2022-01-30T13:29:51.032Z</t>
+  </si>
+  <si>
+    <t>needz store</t>
+  </si>
+  <si>
+    <t>2022-02-02T15:27:04.760Z</t>
+  </si>
+  <si>
+    <t>h dawood</t>
+  </si>
+  <si>
+    <t>2022-02-09T11:48:04.485Z</t>
+  </si>
+  <si>
+    <t>2022-03-30T12:12:13.639Z</t>
+  </si>
+  <si>
+    <t>shop extra</t>
+  </si>
+  <si>
+    <t>2022-03-24T17:47:04.937Z</t>
+  </si>
+  <si>
+    <t>2022-02-09T11:59:09.113Z</t>
+  </si>
+  <si>
+    <t>2022-02-09T13:29:24.365Z</t>
+  </si>
+  <si>
+    <t>al haram cosmetics</t>
+  </si>
+  <si>
+    <t>2022-03-26T15:29:46.933Z</t>
+  </si>
+  <si>
+    <t>2022-02-10T12:01:49.099Z</t>
+  </si>
+  <si>
+    <t>sky pharmacy</t>
+  </si>
+  <si>
+    <t>2022-02-10T14:08:22.047Z</t>
+  </si>
+  <si>
+    <t>saleem shopping center</t>
+  </si>
+  <si>
+    <t>2022-02-10T14:18:01.259Z</t>
+  </si>
+  <si>
+    <t>amjad alrabi</t>
+  </si>
+  <si>
+    <t>2022-03-05T16:13:02.243Z</t>
+  </si>
+  <si>
+    <t>lucky shopping center</t>
+  </si>
+  <si>
+    <t>2022-02-10T14:46:24.392Z</t>
+  </si>
+  <si>
+    <t>2022-03-24T15:05:09.275Z</t>
+  </si>
+  <si>
+    <t>2022-03-24T18:02:19.635Z</t>
+  </si>
+  <si>
+    <t>hs store</t>
+  </si>
+  <si>
+    <t>2022-02-12T14:29:48.832Z</t>
+  </si>
+  <si>
+    <t>siddique son pharmacy</t>
+  </si>
+  <si>
+    <t>2022-02-12T15:15:04.178Z</t>
+  </si>
+  <si>
+    <t>2022-03-02T17:15:01.903Z</t>
+  </si>
+  <si>
+    <t>al makkah cosmetics</t>
+  </si>
+  <si>
+    <t>2022-02-12T16:31:33.793Z</t>
+  </si>
+  <si>
+    <t>2022-03-02T17:24:17.320Z</t>
+  </si>
+  <si>
+    <t>Ubaid Cosmetics</t>
+  </si>
+  <si>
+    <t>2022-03-08T14:25:52.877Z</t>
+  </si>
+  <si>
+    <t>2022-03-14T14:50:02.556Z</t>
+  </si>
+  <si>
+    <t>azam cosmetics</t>
+  </si>
+  <si>
+    <t>2022-03-16T14:13:05.863Z</t>
+  </si>
+  <si>
+    <t>2022-02-15T15:26:00.388Z</t>
+  </si>
+  <si>
+    <t>al muqeet cosmetics</t>
+  </si>
+  <si>
+    <t>2022-02-15T15:51:14.617Z</t>
+  </si>
+  <si>
+    <t>chishty shopping center</t>
+  </si>
+  <si>
+    <t>2022-02-15T15:53:50.412Z</t>
+  </si>
+  <si>
+    <t>2022-02-16T14:31:28.480Z</t>
+  </si>
+  <si>
+    <t>2022-02-16T14:33:42.434Z</t>
+  </si>
+  <si>
+    <t>2022-02-16T15:39:39.227Z</t>
+  </si>
+  <si>
+    <t>mehar gift center</t>
+  </si>
+  <si>
+    <t>2022-03-15T15:23:32.247Z</t>
+  </si>
+  <si>
+    <t>2022-03-20T12:30:16.696Z</t>
+  </si>
+  <si>
+    <t>2022-03-26T15:45:56.838Z</t>
+  </si>
+  <si>
+    <t>al haram pharmacy</t>
+  </si>
+  <si>
+    <t>2022-02-17T13:48:12.991Z</t>
+  </si>
+  <si>
+    <t>Stop &amp; Shop</t>
+  </si>
+  <si>
+    <t>2022-02-17T13:52:45.768Z</t>
+  </si>
+  <si>
+    <t>2022-02-17T14:00:26.829Z</t>
+  </si>
+  <si>
+    <t>2022-02-17T15:06:22.176Z</t>
+  </si>
+  <si>
+    <t>2022-02-19T12:34:14.356Z</t>
+  </si>
+  <si>
+    <t>persto shoes</t>
+  </si>
+  <si>
+    <t>2022-02-19T12:43:19.845Z</t>
+  </si>
+  <si>
+    <t>2022-02-19T14:33:34.007Z</t>
+  </si>
+  <si>
+    <t>naaz shopping center</t>
+  </si>
+  <si>
+    <t>2022-02-19T15:42:24.618Z</t>
+  </si>
+  <si>
+    <t>Shop &amp; Save</t>
+  </si>
+  <si>
+    <t>2022-02-20T12:42:14.885Z</t>
+  </si>
+  <si>
+    <t>2022-02-20T12:50:00.473Z</t>
+  </si>
+  <si>
+    <t>anas</t>
+  </si>
+  <si>
+    <t>2022-03-31T16:32:14.986Z</t>
+  </si>
+  <si>
+    <t>2022-03-31T18:13:35.196Z</t>
+  </si>
+  <si>
+    <t>2022-03-10T15:54:55.549Z</t>
+  </si>
+  <si>
+    <t>ptofessor genral store</t>
+  </si>
+  <si>
+    <t>2022-03-22T17:12:08.345Z</t>
+  </si>
+  <si>
+    <t>ashraf pharmacy</t>
+  </si>
+  <si>
+    <t>2022-03-15T16:03:52.552Z</t>
+  </si>
+  <si>
+    <t>nazeer mano</t>
+  </si>
+  <si>
+    <t>2022-02-21T11:51:29.394Z</t>
+  </si>
+  <si>
+    <t>2022-02-21T15:15:13.715Z</t>
+  </si>
+  <si>
+    <t>hareem cosmetics</t>
+  </si>
+  <si>
+    <t>2022-02-21T14:23:02.888Z</t>
+  </si>
+  <si>
+    <t>2022-02-22T13:56:04.743Z</t>
+  </si>
+  <si>
+    <t>Al Rabi Gift Center</t>
+  </si>
+  <si>
+    <t>2022-03-14T15:53:17.948Z</t>
+  </si>
+  <si>
+    <t>2022-03-16T14:43:39.782Z</t>
+  </si>
+  <si>
+    <t>2022-03-19T15:14:48.223Z</t>
+  </si>
+  <si>
+    <t>yousaf &amp; sons pharmacy</t>
+  </si>
+  <si>
+    <t>2022-02-24T09:36:08.455Z</t>
+  </si>
+  <si>
+    <t>desent shopping center</t>
+  </si>
+  <si>
+    <t>2022-02-24T09:56:01.651Z</t>
+  </si>
+  <si>
+    <t>fine cosmetics</t>
+  </si>
+  <si>
+    <t>2022-02-24T10:12:56.171Z</t>
+  </si>
+  <si>
+    <t>2022-02-24T13:11:57.441Z</t>
+  </si>
+  <si>
+    <t>kashi anssari</t>
+  </si>
+  <si>
+    <t>2022-03-23T15:49:22.133Z</t>
+  </si>
+  <si>
+    <t>haider cosmeties</t>
+  </si>
+  <si>
+    <t>2022-03-21T15:29:39.146Z</t>
+  </si>
+  <si>
+    <t>abdul shakoor</t>
+  </si>
+  <si>
+    <t>2022-03-24T18:10:12.976Z</t>
+  </si>
+  <si>
+    <t>2022-02-24T14:10:14.186Z</t>
+  </si>
+  <si>
+    <t>2022-02-28T15:01:25.578Z</t>
+  </si>
+  <si>
+    <t>hadi cosmetics</t>
+  </si>
+  <si>
+    <t>2022-03-05T15:29:28.451Z</t>
+  </si>
+  <si>
+    <t>2022-03-03T15:03:40.356Z</t>
+  </si>
+  <si>
+    <t>2022-02-28T15:57:43.437Z</t>
+  </si>
+  <si>
+    <t>2022-02-26T12:55:44.236Z</t>
+  </si>
+  <si>
+    <t>2022-02-27T14:09:12.284Z</t>
+  </si>
+  <si>
+    <t>2022-03-03T15:13:22.874Z</t>
+  </si>
+  <si>
+    <t>2022-03-01T15:27:49.383Z</t>
+  </si>
+  <si>
+    <t>2022-03-05T15:38:26.667Z</t>
+  </si>
+  <si>
+    <t>sabri gift center</t>
+  </si>
+  <si>
+    <t>2022-03-07T14:38:57.775Z</t>
+  </si>
+  <si>
+    <t>descent cosmetics</t>
+  </si>
+  <si>
+    <t>2022-03-08T14:51:59.006Z</t>
+  </si>
+  <si>
+    <t>2022-03-10T14:00:10.802Z</t>
+  </si>
+  <si>
+    <t>2022-03-14T14:11:00.337Z</t>
+  </si>
+  <si>
+    <t>2022-03-06T14:41:05.978Z</t>
+  </si>
+  <si>
+    <t>2022-03-15T17:55:59.879Z</t>
+  </si>
+  <si>
+    <t>2022-03-06T14:47:59.330Z</t>
+  </si>
+  <si>
+    <t>2022-03-20T13:02:05.813Z</t>
+  </si>
+  <si>
+    <t>2022-03-05T15:55:10.036Z</t>
+  </si>
+  <si>
+    <t>2022-02-24T15:13:46.204Z</t>
+  </si>
+  <si>
+    <t>pak store</t>
+  </si>
+  <si>
+    <t>2022-02-26T13:35:52.174Z</t>
+  </si>
+  <si>
+    <t>2022-03-06T15:19:52.244Z</t>
+  </si>
+  <si>
+    <t>2022-03-07T14:42:41.184Z</t>
+  </si>
+  <si>
+    <t>2022-03-20T12:17:21.333Z</t>
+  </si>
+  <si>
+    <t>2022-02-24T13:34:16.598Z</t>
+  </si>
+  <si>
+    <t>2022-03-16T16:03:29.834Z</t>
+  </si>
+  <si>
+    <t>2022-03-14T14:28:43.974Z</t>
+  </si>
+  <si>
+    <t>2022-03-31T18:48:25.240Z</t>
+  </si>
+  <si>
+    <t>umer gift center</t>
+  </si>
+  <si>
+    <t>2022-02-24T13:45:42.288Z</t>
+  </si>
+  <si>
+    <t>rehman cosmetics</t>
+  </si>
+  <si>
+    <t>2022-03-01T15:37:03.283Z</t>
+  </si>
+  <si>
+    <t>2022-03-03T15:16:52.678Z</t>
+  </si>
+  <si>
+    <t>2022-02-24T15:21:45.304Z</t>
+  </si>
+  <si>
+    <t>2022-02-26T13:47:13.994Z</t>
+  </si>
+  <si>
+    <t>2022-02-28T16:09:52.999Z</t>
+  </si>
+  <si>
+    <t>2022-03-06T15:22:48.006Z</t>
+  </si>
+  <si>
+    <t>adil gift center</t>
+  </si>
+  <si>
+    <t>2022-03-15T15:05:46.709Z</t>
+  </si>
+  <si>
+    <t>2022-03-16T17:24:16.499Z</t>
+  </si>
+  <si>
+    <t>2022-03-24T17:38:35.714Z</t>
+  </si>
+  <si>
+    <t>2022-03-15T15:11:19.779Z</t>
+  </si>
+  <si>
+    <t>2022-03-18T12:41:22.538Z</t>
+  </si>
+  <si>
+    <t>al madina shopping center</t>
+  </si>
+  <si>
+    <t>2022-03-07T16:00:31.142Z</t>
+  </si>
+  <si>
+    <t>2022-03-20T13:22:55.830Z</t>
+  </si>
+  <si>
+    <t>2022-04-04T12:51:47.990Z</t>
+  </si>
+  <si>
+    <t>2022-04-04T12:58:34.612Z</t>
+  </si>
+  <si>
+    <t>2022-04-04T17:28:43.834Z</t>
+  </si>
+  <si>
+    <t>2022-04-04T17:52:27.115Z</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -314,16 +1012,72 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF212529"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13.5"/>
+      <color rgb="FF212529"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF212529"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD1D1F8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFD78C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC49494"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC2C0C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -416,11 +1170,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF969393"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF969393"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF969393"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF969393"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -434,6 +1203,30 @@
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1136,8 +1929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6A7823F-41BD-4553-A91B-44623AB5ADBB}">
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34:F35"/>
+    <sheetView topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36:F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1760,11 +2553,17 @@
       <c r="A36" s="5">
         <v>33</v>
       </c>
-      <c r="B36" s="8"/>
+      <c r="B36" s="8" t="s">
+        <v>86</v>
+      </c>
       <c r="C36" s="9"/>
-      <c r="D36" s="6"/>
+      <c r="D36" s="6" t="s">
+        <v>87</v>
+      </c>
       <c r="E36" s="6"/>
-      <c r="F36" s="10"/>
+      <c r="F36" s="10">
+        <v>44656</v>
+      </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="6"/>
@@ -1855,4 +2654,3288 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21F9A1B9-4096-4A56-A7D1-84D3725C711D}">
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.140625" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="38.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="12"/>
+    </row>
+    <row r="3" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="14">
+        <v>80</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" s="14">
+        <v>279</v>
+      </c>
+      <c r="E4" s="14">
+        <v>196</v>
+      </c>
+      <c r="F4" s="14">
+        <v>720</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="15">
+        <v>15</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="D5" s="15">
+        <v>58</v>
+      </c>
+      <c r="E5" s="15">
+        <v>197</v>
+      </c>
+      <c r="F5" s="15">
+        <v>479</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="14">
+        <v>70</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6" s="14">
+        <v>217</v>
+      </c>
+      <c r="E6" s="14">
+        <v>200</v>
+      </c>
+      <c r="F6" s="14">
+        <v>240</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="15">
+        <v>101</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="D7" s="15">
+        <v>365</v>
+      </c>
+      <c r="E7" s="15">
+        <v>196</v>
+      </c>
+      <c r="F7" s="15">
+        <v>480</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <f>SUM(F4:F7)</f>
+        <v>1919</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD240DA6-70DF-435C-899B-83C5BF1DF75C}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:G149"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.5703125" customWidth="1"/>
+    <col min="2" max="2" width="27" customWidth="1"/>
+    <col min="3" max="3" width="37.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" customWidth="1"/>
+    <col min="5" max="5" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" customWidth="1"/>
+    <col min="7" max="7" width="40.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F2">
+        <f>SUBTOTAL(9,F4:F148)</f>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="18">
+        <v>10</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18">
+        <v>210</v>
+      </c>
+      <c r="F4" s="18">
+        <v>24</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="19">
+        <v>7</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19">
+        <v>210</v>
+      </c>
+      <c r="F5" s="19">
+        <v>6</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="18">
+        <v>17</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18">
+        <v>210</v>
+      </c>
+      <c r="F6" s="18">
+        <v>1</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="19">
+        <v>17</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19">
+        <v>210</v>
+      </c>
+      <c r="F7" s="19">
+        <v>1</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="18">
+        <v>22</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18">
+        <v>210</v>
+      </c>
+      <c r="F8" s="18">
+        <v>1</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="19">
+        <v>23</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19">
+        <v>200</v>
+      </c>
+      <c r="F9" s="19">
+        <v>24</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="18">
+        <v>134</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18">
+        <v>210</v>
+      </c>
+      <c r="F10" s="18">
+        <v>6</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="19">
+        <v>28</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19">
+        <v>210</v>
+      </c>
+      <c r="F11" s="19">
+        <v>12</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="18">
+        <v>29</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18">
+        <v>210</v>
+      </c>
+      <c r="F12" s="18">
+        <v>6</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="19">
+        <v>34</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19">
+        <v>210</v>
+      </c>
+      <c r="F13" s="19">
+        <v>6</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="18">
+        <v>122</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18">
+        <v>210</v>
+      </c>
+      <c r="F14" s="18">
+        <v>2</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="19">
+        <v>112</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19">
+        <v>210</v>
+      </c>
+      <c r="F15" s="19">
+        <v>6</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="18">
+        <v>38</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18">
+        <v>210</v>
+      </c>
+      <c r="F16" s="18">
+        <v>3</v>
+      </c>
+      <c r="G16" s="18" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="19">
+        <v>40</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19">
+        <v>210</v>
+      </c>
+      <c r="F17" s="19">
+        <v>6</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="18">
+        <v>41</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18">
+        <v>210</v>
+      </c>
+      <c r="F18" s="18">
+        <v>6</v>
+      </c>
+      <c r="G18" s="18" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="19">
+        <v>52</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19">
+        <v>210</v>
+      </c>
+      <c r="F19" s="19">
+        <v>3</v>
+      </c>
+      <c r="G19" s="19" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="18">
+        <v>53</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18">
+        <v>210</v>
+      </c>
+      <c r="F20" s="18">
+        <v>2</v>
+      </c>
+      <c r="G20" s="18" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="19">
+        <v>58</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19">
+        <v>210</v>
+      </c>
+      <c r="F21" s="19">
+        <v>1</v>
+      </c>
+      <c r="G21" s="19" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="18">
+        <v>60</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18">
+        <v>210</v>
+      </c>
+      <c r="F22" s="18">
+        <v>12</v>
+      </c>
+      <c r="G22" s="18" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="19">
+        <v>106</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19">
+        <v>210</v>
+      </c>
+      <c r="F23" s="19">
+        <v>12</v>
+      </c>
+      <c r="G23" s="19" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="18">
+        <v>402</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18">
+        <v>210</v>
+      </c>
+      <c r="F24" s="18">
+        <v>3</v>
+      </c>
+      <c r="G24" s="18" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="19">
+        <v>94</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19">
+        <v>210</v>
+      </c>
+      <c r="F25" s="19">
+        <v>2</v>
+      </c>
+      <c r="G25" s="19" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="18">
+        <v>141</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18">
+        <v>210</v>
+      </c>
+      <c r="F26" s="18">
+        <v>6</v>
+      </c>
+      <c r="G26" s="18" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="19">
+        <v>69</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19">
+        <v>210</v>
+      </c>
+      <c r="F27" s="19">
+        <v>6</v>
+      </c>
+      <c r="G27" s="19" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="18">
+        <v>77</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18">
+        <v>215</v>
+      </c>
+      <c r="F28" s="18">
+        <v>3</v>
+      </c>
+      <c r="G28" s="18" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="19">
+        <v>116</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19">
+        <v>210</v>
+      </c>
+      <c r="F29" s="19">
+        <v>2</v>
+      </c>
+      <c r="G29" s="19" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="18">
+        <v>127</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18">
+        <v>210</v>
+      </c>
+      <c r="F30" s="18">
+        <v>6</v>
+      </c>
+      <c r="G30" s="18" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="19">
+        <v>133</v>
+      </c>
+      <c r="B31" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19">
+        <v>200</v>
+      </c>
+      <c r="F31" s="19">
+        <v>24</v>
+      </c>
+      <c r="G31" s="19" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="18">
+        <v>149</v>
+      </c>
+      <c r="B32" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18">
+        <v>210</v>
+      </c>
+      <c r="F32" s="18">
+        <v>2</v>
+      </c>
+      <c r="G32" s="18" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="19">
+        <v>341</v>
+      </c>
+      <c r="B33" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19">
+        <v>210</v>
+      </c>
+      <c r="F33" s="19">
+        <v>3</v>
+      </c>
+      <c r="G33" s="19" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="18">
+        <v>352</v>
+      </c>
+      <c r="B34" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="C34" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18">
+        <v>210</v>
+      </c>
+      <c r="F34" s="18">
+        <v>1</v>
+      </c>
+      <c r="G34" s="18" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="19">
+        <v>391</v>
+      </c>
+      <c r="B35" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19">
+        <v>210</v>
+      </c>
+      <c r="F35" s="19">
+        <v>6</v>
+      </c>
+      <c r="G35" s="19" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="18">
+        <v>96</v>
+      </c>
+      <c r="B36" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="C36" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18">
+        <v>210</v>
+      </c>
+      <c r="F36" s="18">
+        <v>-4</v>
+      </c>
+      <c r="G36" s="18" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="19">
+        <v>123</v>
+      </c>
+      <c r="B37" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="C37" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19">
+        <v>210</v>
+      </c>
+      <c r="F37" s="19">
+        <v>6</v>
+      </c>
+      <c r="G37" s="19" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="18">
+        <v>97</v>
+      </c>
+      <c r="B38" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="C38" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="D38" s="18"/>
+      <c r="E38" s="18">
+        <v>200</v>
+      </c>
+      <c r="F38" s="18">
+        <v>48</v>
+      </c>
+      <c r="G38" s="18" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="19">
+        <v>100</v>
+      </c>
+      <c r="B39" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="C39" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19">
+        <v>210</v>
+      </c>
+      <c r="F39" s="19">
+        <v>6</v>
+      </c>
+      <c r="G39" s="19" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="18">
+        <v>129</v>
+      </c>
+      <c r="B40" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="C40" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="D40" s="18"/>
+      <c r="E40" s="18">
+        <v>203</v>
+      </c>
+      <c r="F40" s="18">
+        <v>96</v>
+      </c>
+      <c r="G40" s="18" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="19">
+        <v>101</v>
+      </c>
+      <c r="B41" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="C41" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="D41" s="19"/>
+      <c r="E41" s="19">
+        <v>205</v>
+      </c>
+      <c r="F41" s="19">
+        <v>2</v>
+      </c>
+      <c r="G41" s="19" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="18">
+        <v>108</v>
+      </c>
+      <c r="B42" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="C42" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="D42" s="18"/>
+      <c r="E42" s="18">
+        <v>210</v>
+      </c>
+      <c r="F42" s="18">
+        <v>6</v>
+      </c>
+      <c r="G42" s="18" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="19">
+        <v>131</v>
+      </c>
+      <c r="B43" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="C43" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="D43" s="19"/>
+      <c r="E43" s="19">
+        <v>210</v>
+      </c>
+      <c r="F43" s="19">
+        <v>12</v>
+      </c>
+      <c r="G43" s="19" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="18">
+        <v>153</v>
+      </c>
+      <c r="B44" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="C44" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="D44" s="18"/>
+      <c r="E44" s="18">
+        <v>210</v>
+      </c>
+      <c r="F44" s="18">
+        <v>3</v>
+      </c>
+      <c r="G44" s="18" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="19">
+        <v>551</v>
+      </c>
+      <c r="B45" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="C45" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="D45" s="19"/>
+      <c r="E45" s="19">
+        <v>215</v>
+      </c>
+      <c r="F45" s="19">
+        <v>12</v>
+      </c>
+      <c r="G45" s="19" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="18">
+        <v>527</v>
+      </c>
+      <c r="B46" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="C46" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="D46" s="18"/>
+      <c r="E46" s="18">
+        <v>215</v>
+      </c>
+      <c r="F46" s="18">
+        <v>3</v>
+      </c>
+      <c r="G46" s="18" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="19">
+        <v>157</v>
+      </c>
+      <c r="B47" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="C47" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="D47" s="19"/>
+      <c r="E47" s="19">
+        <v>210</v>
+      </c>
+      <c r="F47" s="19">
+        <v>2</v>
+      </c>
+      <c r="G47" s="19" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="18">
+        <v>161</v>
+      </c>
+      <c r="B48" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="C48" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="D48" s="18"/>
+      <c r="E48" s="18">
+        <v>210</v>
+      </c>
+      <c r="F48" s="18">
+        <v>6</v>
+      </c>
+      <c r="G48" s="18" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="19">
+        <v>534</v>
+      </c>
+      <c r="B49" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="C49" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="D49" s="19"/>
+      <c r="E49" s="19">
+        <v>210</v>
+      </c>
+      <c r="F49" s="19">
+        <v>12</v>
+      </c>
+      <c r="G49" s="19" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="18">
+        <v>167</v>
+      </c>
+      <c r="B50" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="C50" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="D50" s="18"/>
+      <c r="E50" s="18">
+        <v>210</v>
+      </c>
+      <c r="F50" s="18">
+        <v>3</v>
+      </c>
+      <c r="G50" s="18" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="19">
+        <v>171</v>
+      </c>
+      <c r="B51" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="C51" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="D51" s="19"/>
+      <c r="E51" s="19">
+        <v>210</v>
+      </c>
+      <c r="F51" s="19">
+        <v>6</v>
+      </c>
+      <c r="G51" s="19" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="18">
+        <v>172</v>
+      </c>
+      <c r="B52" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="C52" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="D52" s="18"/>
+      <c r="E52" s="18">
+        <v>210</v>
+      </c>
+      <c r="F52" s="18">
+        <v>2</v>
+      </c>
+      <c r="G52" s="18" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="19">
+        <v>356</v>
+      </c>
+      <c r="B53" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="C53" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="D53" s="19"/>
+      <c r="E53" s="19">
+        <v>210</v>
+      </c>
+      <c r="F53" s="19">
+        <v>1</v>
+      </c>
+      <c r="G53" s="19" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="18">
+        <v>174</v>
+      </c>
+      <c r="B54" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="C54" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="D54" s="18"/>
+      <c r="E54" s="18">
+        <v>210</v>
+      </c>
+      <c r="F54" s="18">
+        <v>2</v>
+      </c>
+      <c r="G54" s="18" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="19">
+        <v>521</v>
+      </c>
+      <c r="B55" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="C55" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="D55" s="19"/>
+      <c r="E55" s="19">
+        <v>215</v>
+      </c>
+      <c r="F55" s="19">
+        <v>6</v>
+      </c>
+      <c r="G55" s="19" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="18">
+        <v>528</v>
+      </c>
+      <c r="B56" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="C56" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="D56" s="18"/>
+      <c r="E56" s="18">
+        <v>215</v>
+      </c>
+      <c r="F56" s="18">
+        <v>6</v>
+      </c>
+      <c r="G56" s="18" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="19">
+        <v>178</v>
+      </c>
+      <c r="B57" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="C57" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="D57" s="19"/>
+      <c r="E57" s="19">
+        <v>210</v>
+      </c>
+      <c r="F57" s="19">
+        <v>6</v>
+      </c>
+      <c r="G57" s="19" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="18">
+        <v>179</v>
+      </c>
+      <c r="B58" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="C58" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="D58" s="18"/>
+      <c r="E58" s="18">
+        <v>210</v>
+      </c>
+      <c r="F58" s="18">
+        <v>1</v>
+      </c>
+      <c r="G58" s="18" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="19">
+        <v>332</v>
+      </c>
+      <c r="B59" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="C59" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="D59" s="19"/>
+      <c r="E59" s="19">
+        <v>210</v>
+      </c>
+      <c r="F59" s="19">
+        <v>12</v>
+      </c>
+      <c r="G59" s="19" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="18">
+        <v>180</v>
+      </c>
+      <c r="B60" s="18" t="s">
+        <v>197</v>
+      </c>
+      <c r="C60" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="D60" s="18"/>
+      <c r="E60" s="18">
+        <v>210</v>
+      </c>
+      <c r="F60" s="18">
+        <v>2</v>
+      </c>
+      <c r="G60" s="18" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="19">
+        <v>333</v>
+      </c>
+      <c r="B61" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="C61" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="D61" s="19"/>
+      <c r="E61" s="19">
+        <v>215</v>
+      </c>
+      <c r="F61" s="19">
+        <v>3</v>
+      </c>
+      <c r="G61" s="19" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="18">
+        <v>381</v>
+      </c>
+      <c r="B62" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="C62" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="D62" s="18"/>
+      <c r="E62" s="18">
+        <v>210</v>
+      </c>
+      <c r="F62" s="18">
+        <v>6</v>
+      </c>
+      <c r="G62" s="18" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="19">
+        <v>411</v>
+      </c>
+      <c r="B63" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="C63" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="D63" s="19"/>
+      <c r="E63" s="19">
+        <v>205</v>
+      </c>
+      <c r="F63" s="19">
+        <v>216</v>
+      </c>
+      <c r="G63" s="19" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="18">
+        <v>465</v>
+      </c>
+      <c r="B64" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="C64" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="D64" s="18"/>
+      <c r="E64" s="18">
+        <v>215</v>
+      </c>
+      <c r="F64" s="18">
+        <v>6</v>
+      </c>
+      <c r="G64" s="18" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="19">
+        <v>193</v>
+      </c>
+      <c r="B65" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="C65" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="D65" s="19"/>
+      <c r="E65" s="19">
+        <v>210</v>
+      </c>
+      <c r="F65" s="19">
+        <v>3</v>
+      </c>
+      <c r="G65" s="19" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="18">
+        <v>196</v>
+      </c>
+      <c r="B66" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="C66" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="D66" s="18"/>
+      <c r="E66" s="18">
+        <v>210</v>
+      </c>
+      <c r="F66" s="18">
+        <v>2</v>
+      </c>
+      <c r="G66" s="18" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="19">
+        <v>197</v>
+      </c>
+      <c r="B67" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="C67" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="D67" s="19"/>
+      <c r="E67" s="19">
+        <v>210</v>
+      </c>
+      <c r="F67" s="19">
+        <v>6</v>
+      </c>
+      <c r="G67" s="19" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="18">
+        <v>201</v>
+      </c>
+      <c r="B68" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="C68" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="D68" s="18"/>
+      <c r="E68" s="18">
+        <v>203</v>
+      </c>
+      <c r="F68" s="18">
+        <v>96</v>
+      </c>
+      <c r="G68" s="18" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="19">
+        <v>203</v>
+      </c>
+      <c r="B69" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="C69" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="D69" s="19"/>
+      <c r="E69" s="19">
+        <v>210</v>
+      </c>
+      <c r="F69" s="19">
+        <v>2</v>
+      </c>
+      <c r="G69" s="19" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="18">
+        <v>208</v>
+      </c>
+      <c r="B70" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="C70" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="D70" s="18"/>
+      <c r="E70" s="18">
+        <v>210</v>
+      </c>
+      <c r="F70" s="18">
+        <v>6</v>
+      </c>
+      <c r="G70" s="18" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="19">
+        <v>423</v>
+      </c>
+      <c r="B71" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="C71" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="D71" s="19"/>
+      <c r="E71" s="19">
+        <v>215</v>
+      </c>
+      <c r="F71" s="19">
+        <v>6</v>
+      </c>
+      <c r="G71" s="19" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="18">
+        <v>485</v>
+      </c>
+      <c r="B72" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="C72" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="D72" s="18"/>
+      <c r="E72" s="18">
+        <v>215</v>
+      </c>
+      <c r="F72" s="18">
+        <v>6</v>
+      </c>
+      <c r="G72" s="18" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="19">
+        <v>535</v>
+      </c>
+      <c r="B73" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="C73" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="D73" s="19"/>
+      <c r="E73" s="19">
+        <v>210</v>
+      </c>
+      <c r="F73" s="19">
+        <v>9</v>
+      </c>
+      <c r="G73" s="19" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="18">
+        <v>211</v>
+      </c>
+      <c r="B74" s="18" t="s">
+        <v>217</v>
+      </c>
+      <c r="C74" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="D74" s="18"/>
+      <c r="E74" s="18">
+        <v>210</v>
+      </c>
+      <c r="F74" s="18">
+        <v>6</v>
+      </c>
+      <c r="G74" s="18" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="19">
+        <v>213</v>
+      </c>
+      <c r="B75" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="C75" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="D75" s="19"/>
+      <c r="E75" s="19">
+        <v>210</v>
+      </c>
+      <c r="F75" s="19">
+        <v>12</v>
+      </c>
+      <c r="G75" s="19" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="18">
+        <v>214</v>
+      </c>
+      <c r="B76" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="C76" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="D76" s="18"/>
+      <c r="E76" s="18">
+        <v>210</v>
+      </c>
+      <c r="F76" s="18">
+        <v>3</v>
+      </c>
+      <c r="G76" s="18" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="19">
+        <v>216</v>
+      </c>
+      <c r="B77" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="C77" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="D77" s="19"/>
+      <c r="E77" s="19">
+        <v>210</v>
+      </c>
+      <c r="F77" s="19">
+        <v>2</v>
+      </c>
+      <c r="G77" s="19" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="18">
+        <v>220</v>
+      </c>
+      <c r="B78" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="C78" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="D78" s="18"/>
+      <c r="E78" s="18">
+        <v>210</v>
+      </c>
+      <c r="F78" s="18">
+        <v>2</v>
+      </c>
+      <c r="G78" s="18" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="19">
+        <v>221</v>
+      </c>
+      <c r="B79" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="C79" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="D79" s="19"/>
+      <c r="E79" s="19">
+        <v>210</v>
+      </c>
+      <c r="F79" s="19">
+        <v>1</v>
+      </c>
+      <c r="G79" s="19" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="18">
+        <v>225</v>
+      </c>
+      <c r="B80" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="C80" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="D80" s="18"/>
+      <c r="E80" s="18">
+        <v>210</v>
+      </c>
+      <c r="F80" s="18">
+        <v>12</v>
+      </c>
+      <c r="G80" s="18" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="19">
+        <v>226</v>
+      </c>
+      <c r="B81" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="C81" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="D81" s="19"/>
+      <c r="E81" s="19">
+        <v>210</v>
+      </c>
+      <c r="F81" s="19">
+        <v>12</v>
+      </c>
+      <c r="G81" s="19" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="18">
+        <v>229</v>
+      </c>
+      <c r="B82" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="C82" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="D82" s="18"/>
+      <c r="E82" s="18">
+        <v>210</v>
+      </c>
+      <c r="F82" s="18">
+        <v>24</v>
+      </c>
+      <c r="G82" s="18" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="19">
+        <v>230</v>
+      </c>
+      <c r="B83" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="C83" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="D83" s="19"/>
+      <c r="E83" s="19">
+        <v>210</v>
+      </c>
+      <c r="F83" s="19">
+        <v>6</v>
+      </c>
+      <c r="G83" s="19" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="18">
+        <v>559</v>
+      </c>
+      <c r="B84" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="C84" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="D84" s="18"/>
+      <c r="E84" s="18">
+        <v>205</v>
+      </c>
+      <c r="F84" s="18">
+        <v>12</v>
+      </c>
+      <c r="G84" s="18" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="19">
+        <v>562</v>
+      </c>
+      <c r="B85" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="C85" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="D85" s="19"/>
+      <c r="E85" s="19">
+        <v>215</v>
+      </c>
+      <c r="F85" s="19">
+        <v>2</v>
+      </c>
+      <c r="G85" s="19" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="18">
+        <v>406</v>
+      </c>
+      <c r="B86" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="C86" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="D86" s="18"/>
+      <c r="E86" s="18">
+        <v>210</v>
+      </c>
+      <c r="F86" s="18">
+        <v>3</v>
+      </c>
+      <c r="G86" s="18" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="19">
+        <v>509</v>
+      </c>
+      <c r="B87" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="C87" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="D87" s="19"/>
+      <c r="E87" s="19">
+        <v>212</v>
+      </c>
+      <c r="F87" s="19">
+        <v>12</v>
+      </c>
+      <c r="G87" s="19" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="18">
+        <v>425</v>
+      </c>
+      <c r="B88" s="18" t="s">
+        <v>238</v>
+      </c>
+      <c r="C88" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="D88" s="18"/>
+      <c r="E88" s="18">
+        <v>210</v>
+      </c>
+      <c r="F88" s="18">
+        <v>1</v>
+      </c>
+      <c r="G88" s="18" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="19">
+        <v>236</v>
+      </c>
+      <c r="B89" s="19" t="s">
+        <v>240</v>
+      </c>
+      <c r="C89" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="D89" s="19"/>
+      <c r="E89" s="19">
+        <v>210</v>
+      </c>
+      <c r="F89" s="19">
+        <v>6</v>
+      </c>
+      <c r="G89" s="19" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="18">
+        <v>241</v>
+      </c>
+      <c r="B90" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="C90" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="D90" s="18"/>
+      <c r="E90" s="18">
+        <v>210</v>
+      </c>
+      <c r="F90" s="18">
+        <v>3</v>
+      </c>
+      <c r="G90" s="18" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="19">
+        <v>240</v>
+      </c>
+      <c r="B91" s="19" t="s">
+        <v>243</v>
+      </c>
+      <c r="C91" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="D91" s="19"/>
+      <c r="E91" s="19">
+        <v>210</v>
+      </c>
+      <c r="F91" s="19">
+        <v>2</v>
+      </c>
+      <c r="G91" s="19" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="18">
+        <v>244</v>
+      </c>
+      <c r="B92" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="C92" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="D92" s="18"/>
+      <c r="E92" s="18">
+        <v>210</v>
+      </c>
+      <c r="F92" s="18">
+        <v>6</v>
+      </c>
+      <c r="G92" s="18" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="19">
+        <v>414</v>
+      </c>
+      <c r="B93" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="C93" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="D93" s="19"/>
+      <c r="E93" s="19">
+        <v>210</v>
+      </c>
+      <c r="F93" s="19">
+        <v>2</v>
+      </c>
+      <c r="G93" s="19" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="18">
+        <v>467</v>
+      </c>
+      <c r="B94" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="C94" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="D94" s="18"/>
+      <c r="E94" s="18">
+        <v>210</v>
+      </c>
+      <c r="F94" s="18">
+        <v>6</v>
+      </c>
+      <c r="G94" s="18" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="19">
+        <v>475</v>
+      </c>
+      <c r="B95" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="C95" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="D95" s="19"/>
+      <c r="E95" s="19">
+        <v>215</v>
+      </c>
+      <c r="F95" s="19">
+        <v>1</v>
+      </c>
+      <c r="G95" s="19" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="18">
+        <v>281</v>
+      </c>
+      <c r="B96" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="C96" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="D96" s="18"/>
+      <c r="E96" s="18">
+        <v>210</v>
+      </c>
+      <c r="F96" s="18">
+        <v>1</v>
+      </c>
+      <c r="G96" s="18" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="19">
+        <v>283</v>
+      </c>
+      <c r="B97" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="C97" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="D97" s="19"/>
+      <c r="E97" s="19">
+        <v>210</v>
+      </c>
+      <c r="F97" s="19">
+        <v>2</v>
+      </c>
+      <c r="G97" s="19" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="18">
+        <v>284</v>
+      </c>
+      <c r="B98" s="18" t="s">
+        <v>254</v>
+      </c>
+      <c r="C98" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="D98" s="18"/>
+      <c r="E98" s="18">
+        <v>210</v>
+      </c>
+      <c r="F98" s="18">
+        <v>6</v>
+      </c>
+      <c r="G98" s="18" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="19">
+        <v>285</v>
+      </c>
+      <c r="B99" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="C99" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="D99" s="19"/>
+      <c r="E99" s="19">
+        <v>210</v>
+      </c>
+      <c r="F99" s="19">
+        <v>3</v>
+      </c>
+      <c r="G99" s="19" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="18">
+        <v>518</v>
+      </c>
+      <c r="B100" s="18" t="s">
+        <v>257</v>
+      </c>
+      <c r="C100" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="D100" s="18"/>
+      <c r="E100" s="18">
+        <v>215</v>
+      </c>
+      <c r="F100" s="18">
+        <v>3</v>
+      </c>
+      <c r="G100" s="18" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="19">
+        <v>498</v>
+      </c>
+      <c r="B101" s="19" t="s">
+        <v>259</v>
+      </c>
+      <c r="C101" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="D101" s="19"/>
+      <c r="E101" s="19">
+        <v>215</v>
+      </c>
+      <c r="F101" s="19">
+        <v>2</v>
+      </c>
+      <c r="G101" s="19" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="18">
+        <v>531</v>
+      </c>
+      <c r="B102" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="C102" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="D102" s="18"/>
+      <c r="E102" s="18">
+        <v>205</v>
+      </c>
+      <c r="F102" s="18">
+        <v>288</v>
+      </c>
+      <c r="G102" s="18" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="19">
+        <v>291</v>
+      </c>
+      <c r="B103" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="C103" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="D103" s="19"/>
+      <c r="E103" s="19">
+        <v>210</v>
+      </c>
+      <c r="F103" s="19">
+        <v>1</v>
+      </c>
+      <c r="G103" s="19" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="18">
+        <v>318</v>
+      </c>
+      <c r="B104" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="C104" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="D104" s="18"/>
+      <c r="E104" s="18">
+        <v>210</v>
+      </c>
+      <c r="F104" s="18">
+        <v>6</v>
+      </c>
+      <c r="G104" s="18" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="19">
+        <v>346</v>
+      </c>
+      <c r="B105" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="C105" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="D105" s="19"/>
+      <c r="E105" s="19">
+        <v>215</v>
+      </c>
+      <c r="F105" s="19">
+        <v>3</v>
+      </c>
+      <c r="G105" s="19" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="18">
+        <v>337</v>
+      </c>
+      <c r="B106" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="C106" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="D106" s="18"/>
+      <c r="E106" s="18">
+        <v>215</v>
+      </c>
+      <c r="F106" s="18">
+        <v>3</v>
+      </c>
+      <c r="G106" s="18" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="19">
+        <v>319</v>
+      </c>
+      <c r="B107" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="C107" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="D107" s="19"/>
+      <c r="E107" s="19">
+        <v>210</v>
+      </c>
+      <c r="F107" s="19">
+        <v>4</v>
+      </c>
+      <c r="G107" s="19" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="18">
+        <v>296</v>
+      </c>
+      <c r="B108" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="C108" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="D108" s="18"/>
+      <c r="E108" s="18">
+        <v>205</v>
+      </c>
+      <c r="F108" s="18">
+        <v>24</v>
+      </c>
+      <c r="G108" s="18" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="19">
+        <v>311</v>
+      </c>
+      <c r="B109" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="C109" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="D109" s="19"/>
+      <c r="E109" s="19">
+        <v>210</v>
+      </c>
+      <c r="F109" s="19">
+        <v>6</v>
+      </c>
+      <c r="G109" s="19" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="18">
+        <v>338</v>
+      </c>
+      <c r="B110" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="C110" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="D110" s="18"/>
+      <c r="E110" s="18">
+        <v>215</v>
+      </c>
+      <c r="F110" s="18">
+        <v>3</v>
+      </c>
+      <c r="G110" s="18" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="19">
+        <v>325</v>
+      </c>
+      <c r="B111" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="C111" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="D111" s="19"/>
+      <c r="E111" s="19">
+        <v>210</v>
+      </c>
+      <c r="F111" s="19">
+        <v>3</v>
+      </c>
+      <c r="G111" s="19" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="18">
+        <v>347</v>
+      </c>
+      <c r="B112" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="C112" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="D112" s="18"/>
+      <c r="E112" s="18">
+        <v>210</v>
+      </c>
+      <c r="F112" s="18">
+        <v>12</v>
+      </c>
+      <c r="G112" s="18" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="19">
+        <v>373</v>
+      </c>
+      <c r="B113" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="C113" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="D113" s="19"/>
+      <c r="E113" s="19">
+        <v>215</v>
+      </c>
+      <c r="F113" s="19">
+        <v>2</v>
+      </c>
+      <c r="G113" s="19" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="18">
+        <v>386</v>
+      </c>
+      <c r="B114" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="C114" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="D114" s="18"/>
+      <c r="E114" s="18">
+        <v>210</v>
+      </c>
+      <c r="F114" s="18">
+        <v>6</v>
+      </c>
+      <c r="G114" s="18" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="19">
+        <v>397</v>
+      </c>
+      <c r="B115" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="C115" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="D115" s="19"/>
+      <c r="E115" s="19">
+        <v>210</v>
+      </c>
+      <c r="F115" s="19">
+        <v>6</v>
+      </c>
+      <c r="G115" s="19" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="18">
+        <v>408</v>
+      </c>
+      <c r="B116" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="C116" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="D116" s="18"/>
+      <c r="E116" s="18">
+        <v>205</v>
+      </c>
+      <c r="F116" s="18">
+        <v>24</v>
+      </c>
+      <c r="G116" s="18" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="19">
+        <v>361</v>
+      </c>
+      <c r="B117" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="C117" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="D117" s="19"/>
+      <c r="E117" s="19">
+        <v>210</v>
+      </c>
+      <c r="F117" s="19">
+        <v>24</v>
+      </c>
+      <c r="G117" s="19" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="18">
+        <v>428</v>
+      </c>
+      <c r="B118" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="C118" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="D118" s="18"/>
+      <c r="E118" s="18">
+        <v>210</v>
+      </c>
+      <c r="F118" s="18">
+        <v>6</v>
+      </c>
+      <c r="G118" s="18" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="19">
+        <v>362</v>
+      </c>
+      <c r="B119" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="C119" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="D119" s="19"/>
+      <c r="E119" s="19">
+        <v>210</v>
+      </c>
+      <c r="F119" s="19">
+        <v>24</v>
+      </c>
+      <c r="G119" s="19" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="18">
+        <v>491</v>
+      </c>
+      <c r="B120" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="C120" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="D120" s="18"/>
+      <c r="E120" s="18">
+        <v>210</v>
+      </c>
+      <c r="F120" s="18">
+        <v>6</v>
+      </c>
+      <c r="G120" s="18" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="19">
+        <v>349</v>
+      </c>
+      <c r="B121" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="C121" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="D121" s="19"/>
+      <c r="E121" s="19">
+        <v>215</v>
+      </c>
+      <c r="F121" s="19">
+        <v>2</v>
+      </c>
+      <c r="G121" s="19" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="18">
+        <v>293</v>
+      </c>
+      <c r="B122" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="C122" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="D122" s="18"/>
+      <c r="E122" s="18">
+        <v>215</v>
+      </c>
+      <c r="F122" s="18">
+        <v>2</v>
+      </c>
+      <c r="G122" s="18" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="19">
+        <v>298</v>
+      </c>
+      <c r="B123" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="C123" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="D123" s="19"/>
+      <c r="E123" s="19">
+        <v>210</v>
+      </c>
+      <c r="F123" s="19">
+        <v>24</v>
+      </c>
+      <c r="G123" s="19" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="18">
+        <v>363</v>
+      </c>
+      <c r="B124" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="C124" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="D124" s="18"/>
+      <c r="E124" s="18">
+        <v>210</v>
+      </c>
+      <c r="F124" s="18">
+        <v>6</v>
+      </c>
+      <c r="G124" s="18" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="19">
+        <v>375</v>
+      </c>
+      <c r="B125" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="C125" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="D125" s="19"/>
+      <c r="E125" s="19">
+        <v>210</v>
+      </c>
+      <c r="F125" s="19">
+        <v>3</v>
+      </c>
+      <c r="G125" s="19" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="18">
+        <v>480</v>
+      </c>
+      <c r="B126" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="C126" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="D126" s="18"/>
+      <c r="E126" s="18">
+        <v>210</v>
+      </c>
+      <c r="F126" s="18">
+        <v>3</v>
+      </c>
+      <c r="G126" s="18" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="19">
+        <v>289</v>
+      </c>
+      <c r="B127" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="C127" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="D127" s="19"/>
+      <c r="E127" s="19">
+        <v>210</v>
+      </c>
+      <c r="F127" s="19">
+        <v>6</v>
+      </c>
+      <c r="G127" s="19" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="18">
+        <v>470</v>
+      </c>
+      <c r="B128" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="C128" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="D128" s="18"/>
+      <c r="E128" s="18">
+        <v>210</v>
+      </c>
+      <c r="F128" s="18">
+        <v>6</v>
+      </c>
+      <c r="G128" s="18" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="19">
+        <v>409</v>
+      </c>
+      <c r="B129" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="C129" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="D129" s="19"/>
+      <c r="E129" s="19">
+        <v>210</v>
+      </c>
+      <c r="F129" s="19">
+        <v>24</v>
+      </c>
+      <c r="G129" s="19" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="18">
+        <v>563</v>
+      </c>
+      <c r="B130" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="C130" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="D130" s="18"/>
+      <c r="E130" s="18">
+        <v>215</v>
+      </c>
+      <c r="F130" s="18">
+        <v>6</v>
+      </c>
+      <c r="G130" s="18" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="19">
+        <v>290</v>
+      </c>
+      <c r="B131" s="19" t="s">
+        <v>295</v>
+      </c>
+      <c r="C131" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="D131" s="19"/>
+      <c r="E131" s="19">
+        <v>210</v>
+      </c>
+      <c r="F131" s="19">
+        <v>2</v>
+      </c>
+      <c r="G131" s="19" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="18">
+        <v>327</v>
+      </c>
+      <c r="B132" s="18" t="s">
+        <v>297</v>
+      </c>
+      <c r="C132" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="D132" s="18"/>
+      <c r="E132" s="18">
+        <v>205</v>
+      </c>
+      <c r="F132" s="18">
+        <v>1</v>
+      </c>
+      <c r="G132" s="18" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="19">
+        <v>339</v>
+      </c>
+      <c r="B133" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="C133" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="D133" s="19"/>
+      <c r="E133" s="19">
+        <v>215</v>
+      </c>
+      <c r="F133" s="19">
+        <v>6</v>
+      </c>
+      <c r="G133" s="19" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="18">
+        <v>294</v>
+      </c>
+      <c r="B134" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="C134" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="D134" s="18"/>
+      <c r="E134" s="18">
+        <v>210</v>
+      </c>
+      <c r="F134" s="18">
+        <v>2</v>
+      </c>
+      <c r="G134" s="18" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="19">
+        <v>300</v>
+      </c>
+      <c r="B135" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="C135" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="D135" s="19"/>
+      <c r="E135" s="19">
+        <v>210</v>
+      </c>
+      <c r="F135" s="19">
+        <v>3</v>
+      </c>
+      <c r="G135" s="19" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="18">
+        <v>321</v>
+      </c>
+      <c r="B136" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="C136" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="D136" s="18"/>
+      <c r="E136" s="18">
+        <v>210</v>
+      </c>
+      <c r="F136" s="18">
+        <v>6</v>
+      </c>
+      <c r="G136" s="18" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="19">
+        <v>364</v>
+      </c>
+      <c r="B137" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="C137" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="D137" s="19"/>
+      <c r="E137" s="19">
+        <v>210</v>
+      </c>
+      <c r="F137" s="19">
+        <v>6</v>
+      </c>
+      <c r="G137" s="19" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="18">
+        <v>421</v>
+      </c>
+      <c r="B138" s="18" t="s">
+        <v>304</v>
+      </c>
+      <c r="C138" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="D138" s="18"/>
+      <c r="E138" s="18">
+        <v>215</v>
+      </c>
+      <c r="F138" s="18">
+        <v>2</v>
+      </c>
+      <c r="G138" s="18" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="19">
+        <v>471</v>
+      </c>
+      <c r="B139" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="C139" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="D139" s="19"/>
+      <c r="E139" s="19">
+        <v>200</v>
+      </c>
+      <c r="F139" s="19">
+        <v>24</v>
+      </c>
+      <c r="G139" s="19" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="18">
+        <v>526</v>
+      </c>
+      <c r="B140" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="C140" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="D140" s="18"/>
+      <c r="E140" s="18">
+        <v>215</v>
+      </c>
+      <c r="F140" s="18">
+        <v>3</v>
+      </c>
+      <c r="G140" s="18" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="19">
+        <v>422</v>
+      </c>
+      <c r="B141" s="19" t="s">
+        <v>243</v>
+      </c>
+      <c r="C141" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="D141" s="19"/>
+      <c r="E141" s="19">
+        <v>215</v>
+      </c>
+      <c r="F141" s="19">
+        <v>3</v>
+      </c>
+      <c r="G141" s="19" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A142" s="18">
+        <v>472</v>
+      </c>
+      <c r="B142" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="C142" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="D142" s="18"/>
+      <c r="E142" s="18">
+        <v>215</v>
+      </c>
+      <c r="F142" s="18">
+        <v>3</v>
+      </c>
+      <c r="G142" s="18" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" ht="35.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="19">
+        <v>377</v>
+      </c>
+      <c r="B143" s="19" t="s">
+        <v>310</v>
+      </c>
+      <c r="C143" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="D143" s="19"/>
+      <c r="E143" s="19">
+        <v>215</v>
+      </c>
+      <c r="F143" s="19">
+        <v>6</v>
+      </c>
+      <c r="G143" s="19" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="18">
+        <v>495</v>
+      </c>
+      <c r="B144" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="C144" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="D144" s="18"/>
+      <c r="E144" s="18">
+        <v>210</v>
+      </c>
+      <c r="F144" s="18">
+        <v>3</v>
+      </c>
+      <c r="G144" s="18" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A145" s="19">
+        <v>573</v>
+      </c>
+      <c r="B145" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="C145" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="D145" s="19"/>
+      <c r="E145" s="19">
+        <v>215</v>
+      </c>
+      <c r="F145" s="19">
+        <v>6</v>
+      </c>
+      <c r="G145" s="19" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A146" s="18">
+        <v>568</v>
+      </c>
+      <c r="B146" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="C146" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="D146" s="18"/>
+      <c r="E146" s="18">
+        <v>200</v>
+      </c>
+      <c r="F146" s="18">
+        <v>36</v>
+      </c>
+      <c r="G146" s="18" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A147" s="19">
+        <v>578</v>
+      </c>
+      <c r="B147" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="C147" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="D147" s="19"/>
+      <c r="E147" s="19">
+        <v>215</v>
+      </c>
+      <c r="F147" s="19">
+        <v>6</v>
+      </c>
+      <c r="G147" s="19" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A148" s="18">
+        <v>580</v>
+      </c>
+      <c r="B148" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="C148" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="D148" s="18"/>
+      <c r="E148" s="18">
+        <v>215</v>
+      </c>
+      <c r="F148" s="18">
+        <v>6</v>
+      </c>
+      <c r="G148" s="18" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F149">
+        <f>SUM(F4:F148)</f>
+        <v>1638</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A3:G149" xr:uid="{DD240DA6-70DF-435C-899B-83C5BF1DF75C}">
+    <filterColumn colId="6">
+      <filters>
+        <filter val="2022-04-04T12:51:47.990Z"/>
+        <filter val="2022-04-04T12:58:34.612Z"/>
+        <filter val="2022-04-04T17:28:43.834Z"/>
+        <filter val="2022-04-04T17:52:27.115Z"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/formuleas.xlsx
+++ b/formuleas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D drive\frelance project\react js\react-curd-postgresql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EBB583B-4072-4661-AF9A-A49CF5DD8BA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40F352C5-FAF5-410B-BABD-1467CA876ED3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{9867F987-13C8-4BD1-BBB1-24D1B3791B55}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{9867F987-13C8-4BD1-BBB1-24D1B3791B55}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="322">
   <si>
     <t>average price</t>
   </si>
@@ -992,6 +992,21 @@
   </si>
   <si>
     <t>2022-04-04T17:52:27.115Z</t>
+  </si>
+  <si>
+    <t>Sale Invoice summary should show all the items in the given date i.e. if 10 invoice is 1 item each then summary should show 1 entry of 10 items</t>
+  </si>
+  <si>
+    <t>product optimization limit</t>
+  </si>
+  <si>
+    <t>Edit Sale &amp; Edit purchase is update for the stock update bug</t>
+  </si>
+  <si>
+    <t>Delivery 12</t>
+  </si>
+  <si>
+    <t>Name Added in sale Return</t>
   </si>
 </sst>
 </file>
@@ -1201,9 +1216,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1216,9 +1228,6 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1227,6 +1236,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1357,8 +1372,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E14C37FE-A3D1-4F67-A34E-587A11BB2DEB}" name="Table1" displayName="Table1" ref="A1:F36" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4" totalsRowBorderDxfId="3">
-  <autoFilter ref="A1:F36" xr:uid="{E14C37FE-A3D1-4F67-A34E-587A11BB2DEB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E14C37FE-A3D1-4F67-A34E-587A11BB2DEB}" name="Table1" displayName="Table1" ref="A1:F38" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4" totalsRowBorderDxfId="3">
+  <autoFilter ref="A1:F38" xr:uid="{E14C37FE-A3D1-4F67-A34E-587A11BB2DEB}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{5C468D6D-8BDA-4422-9612-CDAD337F2673}" name="No." dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{A5486217-26D0-4141-A067-CA955B9FA5E3}" name="Description" dataDxfId="1"/>
@@ -1681,30 +1696,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="H1" s="11" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="H1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="H2" s="11" t="s">
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="H2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C3">
@@ -1927,16 +1942,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6A7823F-41BD-4553-A91B-44623AB5ADBB}">
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36:F36"/>
+    <sheetView tabSelected="1" topLeftCell="C33" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="88.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="130.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1"/>
@@ -2566,20 +2581,40 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="6"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="10"/>
+      <c r="A37" s="5">
+        <v>34</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="C37" s="9"/>
+      <c r="D37" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F37" s="10">
+        <v>44658</v>
+      </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="6"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="10"/>
+      <c r="A38" s="5">
+        <v>35</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="C38" s="9"/>
+      <c r="D38" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F38" s="10">
+        <v>44658</v>
+      </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
@@ -2645,6 +2680,16 @@
     <row r="51" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>83</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>318</v>
       </c>
     </row>
   </sheetData>
@@ -2660,7 +2705,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21F9A1B9-4096-4A56-A7D1-84D3725C711D}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
@@ -2676,127 +2721,127 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="12"/>
+      <c r="A2" s="11"/>
     </row>
     <row r="3" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="12" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="14">
+      <c r="A4" s="13">
         <v>80</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="C4" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="D4" s="14">
+      <c r="C4" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" s="13">
         <v>279</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="13">
         <v>196</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="13">
         <v>720</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="13" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="15">
+      <c r="A5" s="14">
         <v>15</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="C5" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="D5" s="15">
+      <c r="C5" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="D5" s="14">
         <v>58</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="14">
         <v>197</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="14">
         <v>479</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="14" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="14">
+      <c r="A6" s="13">
         <v>70</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="C6" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="D6" s="14">
+      <c r="C6" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6" s="13">
         <v>217</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="13">
         <v>200</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6" s="13">
         <v>240</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="G6" s="13" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="15">
+      <c r="A7" s="14">
         <v>101</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="C7" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="D7" s="15">
+      <c r="C7" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="D7" s="14">
         <v>365</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="14">
         <v>196</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="14">
         <v>480</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="G7" s="14" t="s">
         <v>101</v>
       </c>
     </row>
@@ -2836,11 +2881,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F2">
@@ -2849,3070 +2894,3070 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="15" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="18">
+      <c r="A4" s="16">
         <v>10</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="C4" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18">
-        <v>210</v>
-      </c>
-      <c r="F4" s="18">
+      <c r="C4" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16">
+        <v>210</v>
+      </c>
+      <c r="F4" s="16">
         <v>24</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="16" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="19">
+      <c r="A5" s="17">
         <v>7</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="C5" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19">
-        <v>210</v>
-      </c>
-      <c r="F5" s="19">
+      <c r="C5" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17">
+        <v>210</v>
+      </c>
+      <c r="F5" s="17">
         <v>6</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="G5" s="17" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="18">
+      <c r="A6" s="16">
         <v>17</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="C6" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18">
-        <v>210</v>
-      </c>
-      <c r="F6" s="18">
+      <c r="C6" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16">
+        <v>210</v>
+      </c>
+      <c r="F6" s="16">
         <v>1</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="G6" s="16" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="19">
+      <c r="A7" s="17">
         <v>17</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="C7" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19">
-        <v>210</v>
-      </c>
-      <c r="F7" s="19">
+      <c r="C7" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17">
+        <v>210</v>
+      </c>
+      <c r="F7" s="17">
         <v>1</v>
       </c>
-      <c r="G7" s="19" t="s">
+      <c r="G7" s="17" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="18">
+      <c r="A8" s="16">
         <v>22</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="C8" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18">
-        <v>210</v>
-      </c>
-      <c r="F8" s="18">
+      <c r="C8" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16">
+        <v>210</v>
+      </c>
+      <c r="F8" s="16">
         <v>1</v>
       </c>
-      <c r="G8" s="18" t="s">
+      <c r="G8" s="16" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="19">
+      <c r="A9" s="17">
         <v>23</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="C9" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19">
+      <c r="C9" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17">
         <v>200</v>
       </c>
-      <c r="F9" s="19">
+      <c r="F9" s="17">
         <v>24</v>
       </c>
-      <c r="G9" s="19" t="s">
+      <c r="G9" s="17" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="18">
+      <c r="A10" s="16">
         <v>134</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="C10" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18">
-        <v>210</v>
-      </c>
-      <c r="F10" s="18">
+      <c r="C10" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16">
+        <v>210</v>
+      </c>
+      <c r="F10" s="16">
         <v>6</v>
       </c>
-      <c r="G10" s="18" t="s">
+      <c r="G10" s="16" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="19">
+      <c r="A11" s="17">
         <v>28</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="C11" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19">
-        <v>210</v>
-      </c>
-      <c r="F11" s="19">
+      <c r="C11" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17">
+        <v>210</v>
+      </c>
+      <c r="F11" s="17">
         <v>12</v>
       </c>
-      <c r="G11" s="19" t="s">
+      <c r="G11" s="17" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="18">
+      <c r="A12" s="16">
         <v>29</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="C12" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18">
-        <v>210</v>
-      </c>
-      <c r="F12" s="18">
+      <c r="C12" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16">
+        <v>210</v>
+      </c>
+      <c r="F12" s="16">
         <v>6</v>
       </c>
-      <c r="G12" s="18" t="s">
+      <c r="G12" s="16" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="19">
+      <c r="A13" s="17">
         <v>34</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="C13" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19">
-        <v>210</v>
-      </c>
-      <c r="F13" s="19">
+      <c r="C13" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17">
+        <v>210</v>
+      </c>
+      <c r="F13" s="17">
         <v>6</v>
       </c>
-      <c r="G13" s="19" t="s">
+      <c r="G13" s="17" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="18">
+      <c r="A14" s="16">
         <v>122</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="C14" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18">
-        <v>210</v>
-      </c>
-      <c r="F14" s="18">
+      <c r="C14" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16">
+        <v>210</v>
+      </c>
+      <c r="F14" s="16">
         <v>2</v>
       </c>
-      <c r="G14" s="18" t="s">
+      <c r="G14" s="16" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="19">
+      <c r="A15" s="17">
         <v>112</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="C15" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19">
-        <v>210</v>
-      </c>
-      <c r="F15" s="19">
+      <c r="C15" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17">
+        <v>210</v>
+      </c>
+      <c r="F15" s="17">
         <v>6</v>
       </c>
-      <c r="G15" s="19" t="s">
+      <c r="G15" s="17" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="18">
+      <c r="A16" s="16">
         <v>38</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="C16" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18">
-        <v>210</v>
-      </c>
-      <c r="F16" s="18">
+      <c r="C16" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16">
+        <v>210</v>
+      </c>
+      <c r="F16" s="16">
         <v>3</v>
       </c>
-      <c r="G16" s="18" t="s">
+      <c r="G16" s="16" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="19">
+      <c r="A17" s="17">
         <v>40</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="C17" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19">
-        <v>210</v>
-      </c>
-      <c r="F17" s="19">
+      <c r="C17" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17">
+        <v>210</v>
+      </c>
+      <c r="F17" s="17">
         <v>6</v>
       </c>
-      <c r="G17" s="19" t="s">
+      <c r="G17" s="17" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="18">
+      <c r="A18" s="16">
         <v>41</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="C18" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18">
-        <v>210</v>
-      </c>
-      <c r="F18" s="18">
+      <c r="C18" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16">
+        <v>210</v>
+      </c>
+      <c r="F18" s="16">
         <v>6</v>
       </c>
-      <c r="G18" s="18" t="s">
+      <c r="G18" s="16" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="19">
+      <c r="A19" s="17">
         <v>52</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="C19" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19">
-        <v>210</v>
-      </c>
-      <c r="F19" s="19">
+      <c r="C19" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17">
+        <v>210</v>
+      </c>
+      <c r="F19" s="17">
         <v>3</v>
       </c>
-      <c r="G19" s="19" t="s">
+      <c r="G19" s="17" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="18">
+      <c r="A20" s="16">
         <v>53</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="C20" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18">
-        <v>210</v>
-      </c>
-      <c r="F20" s="18">
+      <c r="C20" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16">
+        <v>210</v>
+      </c>
+      <c r="F20" s="16">
         <v>2</v>
       </c>
-      <c r="G20" s="18" t="s">
+      <c r="G20" s="16" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="19">
+      <c r="A21" s="17">
         <v>58</v>
       </c>
-      <c r="B21" s="19" t="s">
+      <c r="B21" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="C21" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19">
-        <v>210</v>
-      </c>
-      <c r="F21" s="19">
+      <c r="C21" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17">
+        <v>210</v>
+      </c>
+      <c r="F21" s="17">
         <v>1</v>
       </c>
-      <c r="G21" s="19" t="s">
+      <c r="G21" s="17" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="18">
+      <c r="A22" s="16">
         <v>60</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="C22" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18">
-        <v>210</v>
-      </c>
-      <c r="F22" s="18">
+      <c r="C22" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16">
+        <v>210</v>
+      </c>
+      <c r="F22" s="16">
         <v>12</v>
       </c>
-      <c r="G22" s="18" t="s">
+      <c r="G22" s="16" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="19">
+      <c r="A23" s="17">
         <v>106</v>
       </c>
-      <c r="B23" s="19" t="s">
+      <c r="B23" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="C23" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19">
-        <v>210</v>
-      </c>
-      <c r="F23" s="19">
+      <c r="C23" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17">
+        <v>210</v>
+      </c>
+      <c r="F23" s="17">
         <v>12</v>
       </c>
-      <c r="G23" s="19" t="s">
+      <c r="G23" s="17" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="18">
+      <c r="A24" s="16">
         <v>402</v>
       </c>
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="C24" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18">
-        <v>210</v>
-      </c>
-      <c r="F24" s="18">
+      <c r="C24" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16">
+        <v>210</v>
+      </c>
+      <c r="F24" s="16">
         <v>3</v>
       </c>
-      <c r="G24" s="18" t="s">
+      <c r="G24" s="16" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="19">
+      <c r="A25" s="17">
         <v>94</v>
       </c>
-      <c r="B25" s="19" t="s">
+      <c r="B25" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="C25" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19">
-        <v>210</v>
-      </c>
-      <c r="F25" s="19">
+      <c r="C25" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17">
+        <v>210</v>
+      </c>
+      <c r="F25" s="17">
         <v>2</v>
       </c>
-      <c r="G25" s="19" t="s">
+      <c r="G25" s="17" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="18">
+      <c r="A26" s="16">
         <v>141</v>
       </c>
-      <c r="B26" s="18" t="s">
+      <c r="B26" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="C26" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18">
-        <v>210</v>
-      </c>
-      <c r="F26" s="18">
+      <c r="C26" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16">
+        <v>210</v>
+      </c>
+      <c r="F26" s="16">
         <v>6</v>
       </c>
-      <c r="G26" s="18" t="s">
+      <c r="G26" s="16" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="19">
+      <c r="A27" s="17">
         <v>69</v>
       </c>
-      <c r="B27" s="19" t="s">
+      <c r="B27" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="C27" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19">
-        <v>210</v>
-      </c>
-      <c r="F27" s="19">
+      <c r="C27" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17">
+        <v>210</v>
+      </c>
+      <c r="F27" s="17">
         <v>6</v>
       </c>
-      <c r="G27" s="19" t="s">
+      <c r="G27" s="17" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="18">
+      <c r="A28" s="16">
         <v>77</v>
       </c>
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="C28" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18">
+      <c r="C28" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16">
         <v>215</v>
       </c>
-      <c r="F28" s="18">
+      <c r="F28" s="16">
         <v>3</v>
       </c>
-      <c r="G28" s="18" t="s">
+      <c r="G28" s="16" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="19">
+      <c r="A29" s="17">
         <v>116</v>
       </c>
-      <c r="B29" s="19" t="s">
+      <c r="B29" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="C29" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19">
-        <v>210</v>
-      </c>
-      <c r="F29" s="19">
+      <c r="C29" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17">
+        <v>210</v>
+      </c>
+      <c r="F29" s="17">
         <v>2</v>
       </c>
-      <c r="G29" s="19" t="s">
+      <c r="G29" s="17" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="18">
+      <c r="A30" s="16">
         <v>127</v>
       </c>
-      <c r="B30" s="18" t="s">
+      <c r="B30" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="C30" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18">
-        <v>210</v>
-      </c>
-      <c r="F30" s="18">
+      <c r="C30" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16">
+        <v>210</v>
+      </c>
+      <c r="F30" s="16">
         <v>6</v>
       </c>
-      <c r="G30" s="18" t="s">
+      <c r="G30" s="16" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="19">
+      <c r="A31" s="17">
         <v>133</v>
       </c>
-      <c r="B31" s="19" t="s">
+      <c r="B31" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="C31" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19">
+      <c r="C31" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17">
         <v>200</v>
       </c>
-      <c r="F31" s="19">
+      <c r="F31" s="17">
         <v>24</v>
       </c>
-      <c r="G31" s="19" t="s">
+      <c r="G31" s="17" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="18">
+      <c r="A32" s="16">
         <v>149</v>
       </c>
-      <c r="B32" s="18" t="s">
+      <c r="B32" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="C32" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18">
-        <v>210</v>
-      </c>
-      <c r="F32" s="18">
+      <c r="C32" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16">
+        <v>210</v>
+      </c>
+      <c r="F32" s="16">
         <v>2</v>
       </c>
-      <c r="G32" s="18" t="s">
+      <c r="G32" s="16" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="19">
+      <c r="A33" s="17">
         <v>341</v>
       </c>
-      <c r="B33" s="19" t="s">
+      <c r="B33" s="17" t="s">
         <v>152</v>
       </c>
-      <c r="C33" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="D33" s="19"/>
-      <c r="E33" s="19">
-        <v>210</v>
-      </c>
-      <c r="F33" s="19">
+      <c r="C33" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17">
+        <v>210</v>
+      </c>
+      <c r="F33" s="17">
         <v>3</v>
       </c>
-      <c r="G33" s="19" t="s">
+      <c r="G33" s="17" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="18">
+      <c r="A34" s="16">
         <v>352</v>
       </c>
-      <c r="B34" s="18" t="s">
+      <c r="B34" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="C34" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18">
-        <v>210</v>
-      </c>
-      <c r="F34" s="18">
+      <c r="C34" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16">
+        <v>210</v>
+      </c>
+      <c r="F34" s="16">
         <v>1</v>
       </c>
-      <c r="G34" s="18" t="s">
+      <c r="G34" s="16" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="19">
+      <c r="A35" s="17">
         <v>391</v>
       </c>
-      <c r="B35" s="19" t="s">
+      <c r="B35" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="C35" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="D35" s="19"/>
-      <c r="E35" s="19">
-        <v>210</v>
-      </c>
-      <c r="F35" s="19">
+      <c r="C35" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17">
+        <v>210</v>
+      </c>
+      <c r="F35" s="17">
         <v>6</v>
       </c>
-      <c r="G35" s="19" t="s">
+      <c r="G35" s="17" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="18">
+      <c r="A36" s="16">
         <v>96</v>
       </c>
-      <c r="B36" s="18" t="s">
+      <c r="B36" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="C36" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18">
-        <v>210</v>
-      </c>
-      <c r="F36" s="18">
+      <c r="C36" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16">
+        <v>210</v>
+      </c>
+      <c r="F36" s="16">
         <v>-4</v>
       </c>
-      <c r="G36" s="18" t="s">
+      <c r="G36" s="16" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="19">
+      <c r="A37" s="17">
         <v>123</v>
       </c>
-      <c r="B37" s="19" t="s">
+      <c r="B37" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="C37" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="D37" s="19"/>
-      <c r="E37" s="19">
-        <v>210</v>
-      </c>
-      <c r="F37" s="19">
+      <c r="C37" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17">
+        <v>210</v>
+      </c>
+      <c r="F37" s="17">
         <v>6</v>
       </c>
-      <c r="G37" s="19" t="s">
+      <c r="G37" s="17" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="18">
-        <v>97</v>
-      </c>
-      <c r="B38" s="18" t="s">
+      <c r="A38" s="16">
+        <v>97</v>
+      </c>
+      <c r="B38" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="C38" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="D38" s="18"/>
-      <c r="E38" s="18">
+      <c r="C38" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16">
         <v>200</v>
       </c>
-      <c r="F38" s="18">
+      <c r="F38" s="16">
         <v>48</v>
       </c>
-      <c r="G38" s="18" t="s">
+      <c r="G38" s="16" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="19">
+      <c r="A39" s="17">
         <v>100</v>
       </c>
-      <c r="B39" s="19" t="s">
+      <c r="B39" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="C39" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="D39" s="19"/>
-      <c r="E39" s="19">
-        <v>210</v>
-      </c>
-      <c r="F39" s="19">
+      <c r="C39" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17">
+        <v>210</v>
+      </c>
+      <c r="F39" s="17">
         <v>6</v>
       </c>
-      <c r="G39" s="19" t="s">
+      <c r="G39" s="17" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="18">
+      <c r="A40" s="16">
         <v>129</v>
       </c>
-      <c r="B40" s="18" t="s">
+      <c r="B40" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="C40" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="D40" s="18"/>
-      <c r="E40" s="18">
+      <c r="C40" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D40" s="16"/>
+      <c r="E40" s="16">
         <v>203</v>
       </c>
-      <c r="F40" s="18">
+      <c r="F40" s="16">
         <v>96</v>
       </c>
-      <c r="G40" s="18" t="s">
+      <c r="G40" s="16" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="19">
+      <c r="A41" s="17">
         <v>101</v>
       </c>
-      <c r="B41" s="19" t="s">
+      <c r="B41" s="17" t="s">
         <v>167</v>
       </c>
-      <c r="C41" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="D41" s="19"/>
-      <c r="E41" s="19">
+      <c r="C41" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17">
         <v>205</v>
       </c>
-      <c r="F41" s="19">
+      <c r="F41" s="17">
         <v>2</v>
       </c>
-      <c r="G41" s="19" t="s">
+      <c r="G41" s="17" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="18">
+      <c r="A42" s="16">
         <v>108</v>
       </c>
-      <c r="B42" s="18" t="s">
+      <c r="B42" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="C42" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="D42" s="18"/>
-      <c r="E42" s="18">
-        <v>210</v>
-      </c>
-      <c r="F42" s="18">
+      <c r="C42" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D42" s="16"/>
+      <c r="E42" s="16">
+        <v>210</v>
+      </c>
+      <c r="F42" s="16">
         <v>6</v>
       </c>
-      <c r="G42" s="18" t="s">
+      <c r="G42" s="16" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="19">
+      <c r="A43" s="17">
         <v>131</v>
       </c>
-      <c r="B43" s="19" t="s">
+      <c r="B43" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="C43" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="D43" s="19"/>
-      <c r="E43" s="19">
-        <v>210</v>
-      </c>
-      <c r="F43" s="19">
+      <c r="C43" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17">
+        <v>210</v>
+      </c>
+      <c r="F43" s="17">
         <v>12</v>
       </c>
-      <c r="G43" s="19" t="s">
+      <c r="G43" s="17" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="18">
+      <c r="A44" s="16">
         <v>153</v>
       </c>
-      <c r="B44" s="18" t="s">
+      <c r="B44" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="C44" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="D44" s="18"/>
-      <c r="E44" s="18">
-        <v>210</v>
-      </c>
-      <c r="F44" s="18">
+      <c r="C44" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D44" s="16"/>
+      <c r="E44" s="16">
+        <v>210</v>
+      </c>
+      <c r="F44" s="16">
         <v>3</v>
       </c>
-      <c r="G44" s="18" t="s">
+      <c r="G44" s="16" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="19">
+      <c r="A45" s="17">
         <v>551</v>
       </c>
-      <c r="B45" s="19" t="s">
+      <c r="B45" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="C45" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="D45" s="19"/>
-      <c r="E45" s="19">
+      <c r="C45" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="D45" s="17"/>
+      <c r="E45" s="17">
         <v>215</v>
       </c>
-      <c r="F45" s="19">
+      <c r="F45" s="17">
         <v>12</v>
       </c>
-      <c r="G45" s="19" t="s">
+      <c r="G45" s="17" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="18">
+      <c r="A46" s="16">
         <v>527</v>
       </c>
-      <c r="B46" s="18" t="s">
+      <c r="B46" s="16" t="s">
         <v>175</v>
       </c>
-      <c r="C46" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="D46" s="18"/>
-      <c r="E46" s="18">
+      <c r="C46" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D46" s="16"/>
+      <c r="E46" s="16">
         <v>215</v>
       </c>
-      <c r="F46" s="18">
+      <c r="F46" s="16">
         <v>3</v>
       </c>
-      <c r="G46" s="18" t="s">
+      <c r="G46" s="16" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="19">
+      <c r="A47" s="17">
         <v>157</v>
       </c>
-      <c r="B47" s="19" t="s">
+      <c r="B47" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="C47" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="D47" s="19"/>
-      <c r="E47" s="19">
-        <v>210</v>
-      </c>
-      <c r="F47" s="19">
+      <c r="C47" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="D47" s="17"/>
+      <c r="E47" s="17">
+        <v>210</v>
+      </c>
+      <c r="F47" s="17">
         <v>2</v>
       </c>
-      <c r="G47" s="19" t="s">
+      <c r="G47" s="17" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="18">
+      <c r="A48" s="16">
         <v>161</v>
       </c>
-      <c r="B48" s="18" t="s">
+      <c r="B48" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="C48" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="D48" s="18"/>
-      <c r="E48" s="18">
-        <v>210</v>
-      </c>
-      <c r="F48" s="18">
+      <c r="C48" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D48" s="16"/>
+      <c r="E48" s="16">
+        <v>210</v>
+      </c>
+      <c r="F48" s="16">
         <v>6</v>
       </c>
-      <c r="G48" s="18" t="s">
+      <c r="G48" s="16" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="19">
+      <c r="A49" s="17">
         <v>534</v>
       </c>
-      <c r="B49" s="19" t="s">
+      <c r="B49" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="C49" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="D49" s="19"/>
-      <c r="E49" s="19">
-        <v>210</v>
-      </c>
-      <c r="F49" s="19">
+      <c r="C49" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="D49" s="17"/>
+      <c r="E49" s="17">
+        <v>210</v>
+      </c>
+      <c r="F49" s="17">
         <v>12</v>
       </c>
-      <c r="G49" s="19" t="s">
+      <c r="G49" s="17" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="18">
+      <c r="A50" s="16">
         <v>167</v>
       </c>
-      <c r="B50" s="18" t="s">
+      <c r="B50" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="C50" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="D50" s="18"/>
-      <c r="E50" s="18">
-        <v>210</v>
-      </c>
-      <c r="F50" s="18">
+      <c r="C50" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D50" s="16"/>
+      <c r="E50" s="16">
+        <v>210</v>
+      </c>
+      <c r="F50" s="16">
         <v>3</v>
       </c>
-      <c r="G50" s="18" t="s">
+      <c r="G50" s="16" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="19">
+      <c r="A51" s="17">
         <v>171</v>
       </c>
-      <c r="B51" s="19" t="s">
+      <c r="B51" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="C51" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="D51" s="19"/>
-      <c r="E51" s="19">
-        <v>210</v>
-      </c>
-      <c r="F51" s="19">
+      <c r="C51" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="D51" s="17"/>
+      <c r="E51" s="17">
+        <v>210</v>
+      </c>
+      <c r="F51" s="17">
         <v>6</v>
       </c>
-      <c r="G51" s="19" t="s">
+      <c r="G51" s="17" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="18">
+      <c r="A52" s="16">
         <v>172</v>
       </c>
-      <c r="B52" s="18" t="s">
+      <c r="B52" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="C52" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="D52" s="18"/>
-      <c r="E52" s="18">
-        <v>210</v>
-      </c>
-      <c r="F52" s="18">
+      <c r="C52" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D52" s="16"/>
+      <c r="E52" s="16">
+        <v>210</v>
+      </c>
+      <c r="F52" s="16">
         <v>2</v>
       </c>
-      <c r="G52" s="18" t="s">
+      <c r="G52" s="16" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="19">
+      <c r="A53" s="17">
         <v>356</v>
       </c>
-      <c r="B53" s="19" t="s">
+      <c r="B53" s="17" t="s">
         <v>186</v>
       </c>
-      <c r="C53" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="D53" s="19"/>
-      <c r="E53" s="19">
-        <v>210</v>
-      </c>
-      <c r="F53" s="19">
+      <c r="C53" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="D53" s="17"/>
+      <c r="E53" s="17">
+        <v>210</v>
+      </c>
+      <c r="F53" s="17">
         <v>1</v>
       </c>
-      <c r="G53" s="19" t="s">
+      <c r="G53" s="17" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="18">
+      <c r="A54" s="16">
         <v>174</v>
       </c>
-      <c r="B54" s="18" t="s">
+      <c r="B54" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="C54" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="D54" s="18"/>
-      <c r="E54" s="18">
-        <v>210</v>
-      </c>
-      <c r="F54" s="18">
+      <c r="C54" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D54" s="16"/>
+      <c r="E54" s="16">
+        <v>210</v>
+      </c>
+      <c r="F54" s="16">
         <v>2</v>
       </c>
-      <c r="G54" s="18" t="s">
+      <c r="G54" s="16" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="19">
+      <c r="A55" s="17">
         <v>521</v>
       </c>
-      <c r="B55" s="19" t="s">
+      <c r="B55" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="C55" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="D55" s="19"/>
-      <c r="E55" s="19">
+      <c r="C55" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="D55" s="17"/>
+      <c r="E55" s="17">
         <v>215</v>
       </c>
-      <c r="F55" s="19">
+      <c r="F55" s="17">
         <v>6</v>
       </c>
-      <c r="G55" s="19" t="s">
+      <c r="G55" s="17" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="18">
+      <c r="A56" s="16">
         <v>528</v>
       </c>
-      <c r="B56" s="18" t="s">
+      <c r="B56" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="C56" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="D56" s="18"/>
-      <c r="E56" s="18">
+      <c r="C56" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D56" s="16"/>
+      <c r="E56" s="16">
         <v>215</v>
       </c>
-      <c r="F56" s="18">
+      <c r="F56" s="16">
         <v>6</v>
       </c>
-      <c r="G56" s="18" t="s">
+      <c r="G56" s="16" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="19">
+      <c r="A57" s="17">
         <v>178</v>
       </c>
-      <c r="B57" s="19" t="s">
+      <c r="B57" s="17" t="s">
         <v>192</v>
       </c>
-      <c r="C57" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="D57" s="19"/>
-      <c r="E57" s="19">
-        <v>210</v>
-      </c>
-      <c r="F57" s="19">
+      <c r="C57" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="D57" s="17"/>
+      <c r="E57" s="17">
+        <v>210</v>
+      </c>
+      <c r="F57" s="17">
         <v>6</v>
       </c>
-      <c r="G57" s="19" t="s">
+      <c r="G57" s="17" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="18">
+      <c r="A58" s="16">
         <v>179</v>
       </c>
-      <c r="B58" s="18" t="s">
+      <c r="B58" s="16" t="s">
         <v>194</v>
       </c>
-      <c r="C58" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="D58" s="18"/>
-      <c r="E58" s="18">
-        <v>210</v>
-      </c>
-      <c r="F58" s="18">
+      <c r="C58" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D58" s="16"/>
+      <c r="E58" s="16">
+        <v>210</v>
+      </c>
+      <c r="F58" s="16">
         <v>1</v>
       </c>
-      <c r="G58" s="18" t="s">
+      <c r="G58" s="16" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="19">
+      <c r="A59" s="17">
         <v>332</v>
       </c>
-      <c r="B59" s="19" t="s">
+      <c r="B59" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="C59" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="D59" s="19"/>
-      <c r="E59" s="19">
-        <v>210</v>
-      </c>
-      <c r="F59" s="19">
+      <c r="C59" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="D59" s="17"/>
+      <c r="E59" s="17">
+        <v>210</v>
+      </c>
+      <c r="F59" s="17">
         <v>12</v>
       </c>
-      <c r="G59" s="19" t="s">
+      <c r="G59" s="17" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="18">
+      <c r="A60" s="16">
         <v>180</v>
       </c>
-      <c r="B60" s="18" t="s">
+      <c r="B60" s="16" t="s">
         <v>197</v>
       </c>
-      <c r="C60" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="D60" s="18"/>
-      <c r="E60" s="18">
-        <v>210</v>
-      </c>
-      <c r="F60" s="18">
+      <c r="C60" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D60" s="16"/>
+      <c r="E60" s="16">
+        <v>210</v>
+      </c>
+      <c r="F60" s="16">
         <v>2</v>
       </c>
-      <c r="G60" s="18" t="s">
+      <c r="G60" s="16" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="19">
+      <c r="A61" s="17">
         <v>333</v>
       </c>
-      <c r="B61" s="19" t="s">
+      <c r="B61" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="C61" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="D61" s="19"/>
-      <c r="E61" s="19">
+      <c r="C61" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="D61" s="17"/>
+      <c r="E61" s="17">
         <v>215</v>
       </c>
-      <c r="F61" s="19">
+      <c r="F61" s="17">
         <v>3</v>
       </c>
-      <c r="G61" s="19" t="s">
+      <c r="G61" s="17" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="18">
+      <c r="A62" s="16">
         <v>381</v>
       </c>
-      <c r="B62" s="18" t="s">
+      <c r="B62" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="C62" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="D62" s="18"/>
-      <c r="E62" s="18">
-        <v>210</v>
-      </c>
-      <c r="F62" s="18">
+      <c r="C62" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D62" s="16"/>
+      <c r="E62" s="16">
+        <v>210</v>
+      </c>
+      <c r="F62" s="16">
         <v>6</v>
       </c>
-      <c r="G62" s="18" t="s">
+      <c r="G62" s="16" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="19">
+      <c r="A63" s="17">
         <v>411</v>
       </c>
-      <c r="B63" s="19" t="s">
+      <c r="B63" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="C63" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="D63" s="19"/>
-      <c r="E63" s="19">
+      <c r="C63" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="D63" s="17"/>
+      <c r="E63" s="17">
         <v>205</v>
       </c>
-      <c r="F63" s="19">
+      <c r="F63" s="17">
         <v>216</v>
       </c>
-      <c r="G63" s="19" t="s">
+      <c r="G63" s="17" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="18">
+      <c r="A64" s="16">
         <v>465</v>
       </c>
-      <c r="B64" s="18" t="s">
+      <c r="B64" s="16" t="s">
         <v>203</v>
       </c>
-      <c r="C64" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="D64" s="18"/>
-      <c r="E64" s="18">
+      <c r="C64" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D64" s="16"/>
+      <c r="E64" s="16">
         <v>215</v>
       </c>
-      <c r="F64" s="18">
+      <c r="F64" s="16">
         <v>6</v>
       </c>
-      <c r="G64" s="18" t="s">
+      <c r="G64" s="16" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="19">
+      <c r="A65" s="17">
         <v>193</v>
       </c>
-      <c r="B65" s="19" t="s">
+      <c r="B65" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="C65" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="D65" s="19"/>
-      <c r="E65" s="19">
-        <v>210</v>
-      </c>
-      <c r="F65" s="19">
+      <c r="C65" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="D65" s="17"/>
+      <c r="E65" s="17">
+        <v>210</v>
+      </c>
+      <c r="F65" s="17">
         <v>3</v>
       </c>
-      <c r="G65" s="19" t="s">
+      <c r="G65" s="17" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="18">
+      <c r="A66" s="16">
         <v>196</v>
       </c>
-      <c r="B66" s="18" t="s">
+      <c r="B66" s="16" t="s">
         <v>206</v>
       </c>
-      <c r="C66" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="D66" s="18"/>
-      <c r="E66" s="18">
-        <v>210</v>
-      </c>
-      <c r="F66" s="18">
+      <c r="C66" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D66" s="16"/>
+      <c r="E66" s="16">
+        <v>210</v>
+      </c>
+      <c r="F66" s="16">
         <v>2</v>
       </c>
-      <c r="G66" s="18" t="s">
+      <c r="G66" s="16" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="19">
+      <c r="A67" s="17">
         <v>197</v>
       </c>
-      <c r="B67" s="19" t="s">
+      <c r="B67" s="17" t="s">
         <v>208</v>
       </c>
-      <c r="C67" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="D67" s="19"/>
-      <c r="E67" s="19">
-        <v>210</v>
-      </c>
-      <c r="F67" s="19">
+      <c r="C67" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="D67" s="17"/>
+      <c r="E67" s="17">
+        <v>210</v>
+      </c>
+      <c r="F67" s="17">
         <v>6</v>
       </c>
-      <c r="G67" s="19" t="s">
+      <c r="G67" s="17" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="18">
+      <c r="A68" s="16">
         <v>201</v>
       </c>
-      <c r="B68" s="18" t="s">
+      <c r="B68" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="C68" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="D68" s="18"/>
-      <c r="E68" s="18">
+      <c r="C68" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D68" s="16"/>
+      <c r="E68" s="16">
         <v>203</v>
       </c>
-      <c r="F68" s="18">
+      <c r="F68" s="16">
         <v>96</v>
       </c>
-      <c r="G68" s="18" t="s">
+      <c r="G68" s="16" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="19">
+      <c r="A69" s="17">
         <v>203</v>
       </c>
-      <c r="B69" s="19" t="s">
+      <c r="B69" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="C69" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="D69" s="19"/>
-      <c r="E69" s="19">
-        <v>210</v>
-      </c>
-      <c r="F69" s="19">
+      <c r="C69" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="D69" s="17"/>
+      <c r="E69" s="17">
+        <v>210</v>
+      </c>
+      <c r="F69" s="17">
         <v>2</v>
       </c>
-      <c r="G69" s="19" t="s">
+      <c r="G69" s="17" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="18">
+      <c r="A70" s="16">
         <v>208</v>
       </c>
-      <c r="B70" s="18" t="s">
+      <c r="B70" s="16" t="s">
         <v>203</v>
       </c>
-      <c r="C70" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="D70" s="18"/>
-      <c r="E70" s="18">
-        <v>210</v>
-      </c>
-      <c r="F70" s="18">
+      <c r="C70" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D70" s="16"/>
+      <c r="E70" s="16">
+        <v>210</v>
+      </c>
+      <c r="F70" s="16">
         <v>6</v>
       </c>
-      <c r="G70" s="18" t="s">
+      <c r="G70" s="16" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="19">
+      <c r="A71" s="17">
         <v>423</v>
       </c>
-      <c r="B71" s="19" t="s">
+      <c r="B71" s="17" t="s">
         <v>213</v>
       </c>
-      <c r="C71" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="D71" s="19"/>
-      <c r="E71" s="19">
+      <c r="C71" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="D71" s="17"/>
+      <c r="E71" s="17">
         <v>215</v>
       </c>
-      <c r="F71" s="19">
+      <c r="F71" s="17">
         <v>6</v>
       </c>
-      <c r="G71" s="19" t="s">
+      <c r="G71" s="17" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="18">
+      <c r="A72" s="16">
         <v>485</v>
       </c>
-      <c r="B72" s="18" t="s">
+      <c r="B72" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="C72" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="D72" s="18"/>
-      <c r="E72" s="18">
+      <c r="C72" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D72" s="16"/>
+      <c r="E72" s="16">
         <v>215</v>
       </c>
-      <c r="F72" s="18">
+      <c r="F72" s="16">
         <v>6</v>
       </c>
-      <c r="G72" s="18" t="s">
+      <c r="G72" s="16" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="19">
+      <c r="A73" s="17">
         <v>535</v>
       </c>
-      <c r="B73" s="19" t="s">
+      <c r="B73" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="C73" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="D73" s="19"/>
-      <c r="E73" s="19">
-        <v>210</v>
-      </c>
-      <c r="F73" s="19">
+      <c r="C73" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="D73" s="17"/>
+      <c r="E73" s="17">
+        <v>210</v>
+      </c>
+      <c r="F73" s="17">
         <v>9</v>
       </c>
-      <c r="G73" s="19" t="s">
+      <c r="G73" s="17" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="18">
+      <c r="A74" s="16">
         <v>211</v>
       </c>
-      <c r="B74" s="18" t="s">
+      <c r="B74" s="16" t="s">
         <v>217</v>
       </c>
-      <c r="C74" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="D74" s="18"/>
-      <c r="E74" s="18">
-        <v>210</v>
-      </c>
-      <c r="F74" s="18">
+      <c r="C74" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D74" s="16"/>
+      <c r="E74" s="16">
+        <v>210</v>
+      </c>
+      <c r="F74" s="16">
         <v>6</v>
       </c>
-      <c r="G74" s="18" t="s">
+      <c r="G74" s="16" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="19">
+      <c r="A75" s="17">
         <v>213</v>
       </c>
-      <c r="B75" s="19" t="s">
+      <c r="B75" s="17" t="s">
         <v>219</v>
       </c>
-      <c r="C75" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="D75" s="19"/>
-      <c r="E75" s="19">
-        <v>210</v>
-      </c>
-      <c r="F75" s="19">
+      <c r="C75" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="D75" s="17"/>
+      <c r="E75" s="17">
+        <v>210</v>
+      </c>
+      <c r="F75" s="17">
         <v>12</v>
       </c>
-      <c r="G75" s="19" t="s">
+      <c r="G75" s="17" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="18">
+      <c r="A76" s="16">
         <v>214</v>
       </c>
-      <c r="B76" s="18" t="s">
+      <c r="B76" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="C76" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="D76" s="18"/>
-      <c r="E76" s="18">
-        <v>210</v>
-      </c>
-      <c r="F76" s="18">
+      <c r="C76" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D76" s="16"/>
+      <c r="E76" s="16">
+        <v>210</v>
+      </c>
+      <c r="F76" s="16">
         <v>3</v>
       </c>
-      <c r="G76" s="18" t="s">
+      <c r="G76" s="16" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="19">
+      <c r="A77" s="17">
         <v>216</v>
       </c>
-      <c r="B77" s="19" t="s">
+      <c r="B77" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="C77" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="D77" s="19"/>
-      <c r="E77" s="19">
-        <v>210</v>
-      </c>
-      <c r="F77" s="19">
+      <c r="C77" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="D77" s="17"/>
+      <c r="E77" s="17">
+        <v>210</v>
+      </c>
+      <c r="F77" s="17">
         <v>2</v>
       </c>
-      <c r="G77" s="19" t="s">
+      <c r="G77" s="17" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="18">
+      <c r="A78" s="16">
         <v>220</v>
       </c>
-      <c r="B78" s="18" t="s">
+      <c r="B78" s="16" t="s">
         <v>167</v>
       </c>
-      <c r="C78" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="D78" s="18"/>
-      <c r="E78" s="18">
-        <v>210</v>
-      </c>
-      <c r="F78" s="18">
+      <c r="C78" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D78" s="16"/>
+      <c r="E78" s="16">
+        <v>210</v>
+      </c>
+      <c r="F78" s="16">
         <v>2</v>
       </c>
-      <c r="G78" s="18" t="s">
+      <c r="G78" s="16" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="19">
+      <c r="A79" s="17">
         <v>221</v>
       </c>
-      <c r="B79" s="19" t="s">
+      <c r="B79" s="17" t="s">
         <v>224</v>
       </c>
-      <c r="C79" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="D79" s="19"/>
-      <c r="E79" s="19">
-        <v>210</v>
-      </c>
-      <c r="F79" s="19">
+      <c r="C79" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="D79" s="17"/>
+      <c r="E79" s="17">
+        <v>210</v>
+      </c>
+      <c r="F79" s="17">
         <v>1</v>
       </c>
-      <c r="G79" s="19" t="s">
+      <c r="G79" s="17" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="18">
+      <c r="A80" s="16">
         <v>225</v>
       </c>
-      <c r="B80" s="18" t="s">
+      <c r="B80" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="C80" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="D80" s="18"/>
-      <c r="E80" s="18">
-        <v>210</v>
-      </c>
-      <c r="F80" s="18">
+      <c r="C80" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D80" s="16"/>
+      <c r="E80" s="16">
+        <v>210</v>
+      </c>
+      <c r="F80" s="16">
         <v>12</v>
       </c>
-      <c r="G80" s="18" t="s">
+      <c r="G80" s="16" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="19">
+      <c r="A81" s="17">
         <v>226</v>
       </c>
-      <c r="B81" s="19" t="s">
+      <c r="B81" s="17" t="s">
         <v>227</v>
       </c>
-      <c r="C81" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="D81" s="19"/>
-      <c r="E81" s="19">
-        <v>210</v>
-      </c>
-      <c r="F81" s="19">
+      <c r="C81" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="D81" s="17"/>
+      <c r="E81" s="17">
+        <v>210</v>
+      </c>
+      <c r="F81" s="17">
         <v>12</v>
       </c>
-      <c r="G81" s="19" t="s">
+      <c r="G81" s="17" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="18">
+      <c r="A82" s="16">
         <v>229</v>
       </c>
-      <c r="B82" s="18" t="s">
+      <c r="B82" s="16" t="s">
         <v>229</v>
       </c>
-      <c r="C82" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="D82" s="18"/>
-      <c r="E82" s="18">
-        <v>210</v>
-      </c>
-      <c r="F82" s="18">
+      <c r="C82" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D82" s="16"/>
+      <c r="E82" s="16">
+        <v>210</v>
+      </c>
+      <c r="F82" s="16">
         <v>24</v>
       </c>
-      <c r="G82" s="18" t="s">
+      <c r="G82" s="16" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="19">
+      <c r="A83" s="17">
         <v>230</v>
       </c>
-      <c r="B83" s="19" t="s">
+      <c r="B83" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="C83" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="D83" s="19"/>
-      <c r="E83" s="19">
-        <v>210</v>
-      </c>
-      <c r="F83" s="19">
+      <c r="C83" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="D83" s="17"/>
+      <c r="E83" s="17">
+        <v>210</v>
+      </c>
+      <c r="F83" s="17">
         <v>6</v>
       </c>
-      <c r="G83" s="19" t="s">
+      <c r="G83" s="17" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="18">
+      <c r="A84" s="16">
         <v>559</v>
       </c>
-      <c r="B84" s="18" t="s">
+      <c r="B84" s="16" t="s">
         <v>232</v>
       </c>
-      <c r="C84" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="D84" s="18"/>
-      <c r="E84" s="18">
+      <c r="C84" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D84" s="16"/>
+      <c r="E84" s="16">
         <v>205</v>
       </c>
-      <c r="F84" s="18">
+      <c r="F84" s="16">
         <v>12</v>
       </c>
-      <c r="G84" s="18" t="s">
+      <c r="G84" s="16" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="19">
+      <c r="A85" s="17">
         <v>562</v>
       </c>
-      <c r="B85" s="19" t="s">
+      <c r="B85" s="17" t="s">
         <v>184</v>
       </c>
-      <c r="C85" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="D85" s="19"/>
-      <c r="E85" s="19">
+      <c r="C85" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="D85" s="17"/>
+      <c r="E85" s="17">
         <v>215</v>
       </c>
-      <c r="F85" s="19">
+      <c r="F85" s="17">
         <v>2</v>
       </c>
-      <c r="G85" s="19" t="s">
+      <c r="G85" s="17" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="18">
+      <c r="A86" s="16">
         <v>406</v>
       </c>
-      <c r="B86" s="18" t="s">
+      <c r="B86" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="C86" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="D86" s="18"/>
-      <c r="E86" s="18">
-        <v>210</v>
-      </c>
-      <c r="F86" s="18">
+      <c r="C86" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D86" s="16"/>
+      <c r="E86" s="16">
+        <v>210</v>
+      </c>
+      <c r="F86" s="16">
         <v>3</v>
       </c>
-      <c r="G86" s="18" t="s">
+      <c r="G86" s="16" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="19">
+      <c r="A87" s="17">
         <v>509</v>
       </c>
-      <c r="B87" s="19" t="s">
+      <c r="B87" s="17" t="s">
         <v>236</v>
       </c>
-      <c r="C87" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="D87" s="19"/>
-      <c r="E87" s="19">
+      <c r="C87" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="D87" s="17"/>
+      <c r="E87" s="17">
         <v>212</v>
       </c>
-      <c r="F87" s="19">
+      <c r="F87" s="17">
         <v>12</v>
       </c>
-      <c r="G87" s="19" t="s">
+      <c r="G87" s="17" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="18">
+      <c r="A88" s="16">
         <v>425</v>
       </c>
-      <c r="B88" s="18" t="s">
+      <c r="B88" s="16" t="s">
         <v>238</v>
       </c>
-      <c r="C88" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="D88" s="18"/>
-      <c r="E88" s="18">
-        <v>210</v>
-      </c>
-      <c r="F88" s="18">
+      <c r="C88" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D88" s="16"/>
+      <c r="E88" s="16">
+        <v>210</v>
+      </c>
+      <c r="F88" s="16">
         <v>1</v>
       </c>
-      <c r="G88" s="18" t="s">
+      <c r="G88" s="16" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="19">
+      <c r="A89" s="17">
         <v>236</v>
       </c>
-      <c r="B89" s="19" t="s">
+      <c r="B89" s="17" t="s">
         <v>240</v>
       </c>
-      <c r="C89" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="D89" s="19"/>
-      <c r="E89" s="19">
-        <v>210</v>
-      </c>
-      <c r="F89" s="19">
+      <c r="C89" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="D89" s="17"/>
+      <c r="E89" s="17">
+        <v>210</v>
+      </c>
+      <c r="F89" s="17">
         <v>6</v>
       </c>
-      <c r="G89" s="19" t="s">
+      <c r="G89" s="17" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="18">
+      <c r="A90" s="16">
         <v>241</v>
       </c>
-      <c r="B90" s="18" t="s">
+      <c r="B90" s="16" t="s">
         <v>213</v>
       </c>
-      <c r="C90" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="D90" s="18"/>
-      <c r="E90" s="18">
-        <v>210</v>
-      </c>
-      <c r="F90" s="18">
+      <c r="C90" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D90" s="16"/>
+      <c r="E90" s="16">
+        <v>210</v>
+      </c>
+      <c r="F90" s="16">
         <v>3</v>
       </c>
-      <c r="G90" s="18" t="s">
+      <c r="G90" s="16" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="19">
+      <c r="A91" s="17">
         <v>240</v>
       </c>
-      <c r="B91" s="19" t="s">
+      <c r="B91" s="17" t="s">
         <v>243</v>
       </c>
-      <c r="C91" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="D91" s="19"/>
-      <c r="E91" s="19">
-        <v>210</v>
-      </c>
-      <c r="F91" s="19">
+      <c r="C91" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="D91" s="17"/>
+      <c r="E91" s="17">
+        <v>210</v>
+      </c>
+      <c r="F91" s="17">
         <v>2</v>
       </c>
-      <c r="G91" s="19" t="s">
+      <c r="G91" s="17" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="18">
+      <c r="A92" s="16">
         <v>244</v>
       </c>
-      <c r="B92" s="18" t="s">
+      <c r="B92" s="16" t="s">
         <v>159</v>
       </c>
-      <c r="C92" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="D92" s="18"/>
-      <c r="E92" s="18">
-        <v>210</v>
-      </c>
-      <c r="F92" s="18">
+      <c r="C92" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D92" s="16"/>
+      <c r="E92" s="16">
+        <v>210</v>
+      </c>
+      <c r="F92" s="16">
         <v>6</v>
       </c>
-      <c r="G92" s="18" t="s">
+      <c r="G92" s="16" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="19">
+      <c r="A93" s="17">
         <v>414</v>
       </c>
-      <c r="B93" s="19" t="s">
+      <c r="B93" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="C93" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="D93" s="19"/>
-      <c r="E93" s="19">
-        <v>210</v>
-      </c>
-      <c r="F93" s="19">
+      <c r="C93" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="D93" s="17"/>
+      <c r="E93" s="17">
+        <v>210</v>
+      </c>
+      <c r="F93" s="17">
         <v>2</v>
       </c>
-      <c r="G93" s="19" t="s">
+      <c r="G93" s="17" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="18">
+      <c r="A94" s="16">
         <v>467</v>
       </c>
-      <c r="B94" s="18" t="s">
+      <c r="B94" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="C94" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="D94" s="18"/>
-      <c r="E94" s="18">
-        <v>210</v>
-      </c>
-      <c r="F94" s="18">
+      <c r="C94" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D94" s="16"/>
+      <c r="E94" s="16">
+        <v>210</v>
+      </c>
+      <c r="F94" s="16">
         <v>6</v>
       </c>
-      <c r="G94" s="18" t="s">
+      <c r="G94" s="16" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="95" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="19">
+      <c r="A95" s="17">
         <v>475</v>
       </c>
-      <c r="B95" s="19" t="s">
+      <c r="B95" s="17" t="s">
         <v>197</v>
       </c>
-      <c r="C95" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="D95" s="19"/>
-      <c r="E95" s="19">
+      <c r="C95" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="D95" s="17"/>
+      <c r="E95" s="17">
         <v>215</v>
       </c>
-      <c r="F95" s="19">
+      <c r="F95" s="17">
         <v>1</v>
       </c>
-      <c r="G95" s="19" t="s">
+      <c r="G95" s="17" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="18">
+      <c r="A96" s="16">
         <v>281</v>
       </c>
-      <c r="B96" s="18" t="s">
+      <c r="B96" s="16" t="s">
         <v>250</v>
       </c>
-      <c r="C96" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="D96" s="18"/>
-      <c r="E96" s="18">
-        <v>210</v>
-      </c>
-      <c r="F96" s="18">
+      <c r="C96" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D96" s="16"/>
+      <c r="E96" s="16">
+        <v>210</v>
+      </c>
+      <c r="F96" s="16">
         <v>1</v>
       </c>
-      <c r="G96" s="18" t="s">
+      <c r="G96" s="16" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="19">
+      <c r="A97" s="17">
         <v>283</v>
       </c>
-      <c r="B97" s="19" t="s">
+      <c r="B97" s="17" t="s">
         <v>252</v>
       </c>
-      <c r="C97" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="D97" s="19"/>
-      <c r="E97" s="19">
-        <v>210</v>
-      </c>
-      <c r="F97" s="19">
+      <c r="C97" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="D97" s="17"/>
+      <c r="E97" s="17">
+        <v>210</v>
+      </c>
+      <c r="F97" s="17">
         <v>2</v>
       </c>
-      <c r="G97" s="19" t="s">
+      <c r="G97" s="17" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="18">
+      <c r="A98" s="16">
         <v>284</v>
       </c>
-      <c r="B98" s="18" t="s">
+      <c r="B98" s="16" t="s">
         <v>254</v>
       </c>
-      <c r="C98" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="D98" s="18"/>
-      <c r="E98" s="18">
-        <v>210</v>
-      </c>
-      <c r="F98" s="18">
+      <c r="C98" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D98" s="16"/>
+      <c r="E98" s="16">
+        <v>210</v>
+      </c>
+      <c r="F98" s="16">
         <v>6</v>
       </c>
-      <c r="G98" s="18" t="s">
+      <c r="G98" s="16" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="19">
+      <c r="A99" s="17">
         <v>285</v>
       </c>
-      <c r="B99" s="19" t="s">
+      <c r="B99" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="C99" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="D99" s="19"/>
-      <c r="E99" s="19">
-        <v>210</v>
-      </c>
-      <c r="F99" s="19">
+      <c r="C99" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="D99" s="17"/>
+      <c r="E99" s="17">
+        <v>210</v>
+      </c>
+      <c r="F99" s="17">
         <v>3</v>
       </c>
-      <c r="G99" s="19" t="s">
+      <c r="G99" s="17" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="100" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="18">
+      <c r="A100" s="16">
         <v>518</v>
       </c>
-      <c r="B100" s="18" t="s">
+      <c r="B100" s="16" t="s">
         <v>257</v>
       </c>
-      <c r="C100" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="D100" s="18"/>
-      <c r="E100" s="18">
+      <c r="C100" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D100" s="16"/>
+      <c r="E100" s="16">
         <v>215</v>
       </c>
-      <c r="F100" s="18">
+      <c r="F100" s="16">
         <v>3</v>
       </c>
-      <c r="G100" s="18" t="s">
+      <c r="G100" s="16" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="101" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="19">
+      <c r="A101" s="17">
         <v>498</v>
       </c>
-      <c r="B101" s="19" t="s">
+      <c r="B101" s="17" t="s">
         <v>259</v>
       </c>
-      <c r="C101" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="D101" s="19"/>
-      <c r="E101" s="19">
+      <c r="C101" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="D101" s="17"/>
+      <c r="E101" s="17">
         <v>215</v>
       </c>
-      <c r="F101" s="19">
+      <c r="F101" s="17">
         <v>2</v>
       </c>
-      <c r="G101" s="19" t="s">
+      <c r="G101" s="17" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="18">
+      <c r="A102" s="16">
         <v>531</v>
       </c>
-      <c r="B102" s="18" t="s">
+      <c r="B102" s="16" t="s">
         <v>261</v>
       </c>
-      <c r="C102" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="D102" s="18"/>
-      <c r="E102" s="18">
+      <c r="C102" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D102" s="16"/>
+      <c r="E102" s="16">
         <v>205</v>
       </c>
-      <c r="F102" s="18">
+      <c r="F102" s="16">
         <v>288</v>
       </c>
-      <c r="G102" s="18" t="s">
+      <c r="G102" s="16" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="103" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="19">
+      <c r="A103" s="17">
         <v>291</v>
       </c>
-      <c r="B103" s="19" t="s">
+      <c r="B103" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="C103" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="D103" s="19"/>
-      <c r="E103" s="19">
-        <v>210</v>
-      </c>
-      <c r="F103" s="19">
+      <c r="C103" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="D103" s="17"/>
+      <c r="E103" s="17">
+        <v>210</v>
+      </c>
+      <c r="F103" s="17">
         <v>1</v>
       </c>
-      <c r="G103" s="19" t="s">
+      <c r="G103" s="17" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="104" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="18">
+      <c r="A104" s="16">
         <v>318</v>
       </c>
-      <c r="B104" s="18" t="s">
+      <c r="B104" s="16" t="s">
         <v>163</v>
       </c>
-      <c r="C104" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="D104" s="18"/>
-      <c r="E104" s="18">
-        <v>210</v>
-      </c>
-      <c r="F104" s="18">
+      <c r="C104" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D104" s="16"/>
+      <c r="E104" s="16">
+        <v>210</v>
+      </c>
+      <c r="F104" s="16">
         <v>6</v>
       </c>
-      <c r="G104" s="18" t="s">
+      <c r="G104" s="16" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="105" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="19">
+      <c r="A105" s="17">
         <v>346</v>
       </c>
-      <c r="B105" s="19" t="s">
+      <c r="B105" s="17" t="s">
         <v>265</v>
       </c>
-      <c r="C105" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="D105" s="19"/>
-      <c r="E105" s="19">
+      <c r="C105" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="D105" s="17"/>
+      <c r="E105" s="17">
         <v>215</v>
       </c>
-      <c r="F105" s="19">
+      <c r="F105" s="17">
         <v>3</v>
       </c>
-      <c r="G105" s="19" t="s">
+      <c r="G105" s="17" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="106" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="18">
+      <c r="A106" s="16">
         <v>337</v>
       </c>
-      <c r="B106" s="18" t="s">
+      <c r="B106" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="C106" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="D106" s="18"/>
-      <c r="E106" s="18">
+      <c r="C106" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D106" s="16"/>
+      <c r="E106" s="16">
         <v>215</v>
       </c>
-      <c r="F106" s="18">
+      <c r="F106" s="16">
         <v>3</v>
       </c>
-      <c r="G106" s="18" t="s">
+      <c r="G106" s="16" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="107" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="19">
+      <c r="A107" s="17">
         <v>319</v>
       </c>
-      <c r="B107" s="19" t="s">
+      <c r="B107" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="C107" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="D107" s="19"/>
-      <c r="E107" s="19">
-        <v>210</v>
-      </c>
-      <c r="F107" s="19">
+      <c r="C107" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="D107" s="17"/>
+      <c r="E107" s="17">
+        <v>210</v>
+      </c>
+      <c r="F107" s="17">
         <v>4</v>
       </c>
-      <c r="G107" s="19" t="s">
+      <c r="G107" s="17" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="108" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="18">
+      <c r="A108" s="16">
         <v>296</v>
       </c>
-      <c r="B108" s="18" t="s">
+      <c r="B108" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="C108" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="D108" s="18"/>
-      <c r="E108" s="18">
+      <c r="C108" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D108" s="16"/>
+      <c r="E108" s="16">
         <v>205</v>
       </c>
-      <c r="F108" s="18">
+      <c r="F108" s="16">
         <v>24</v>
       </c>
-      <c r="G108" s="18" t="s">
+      <c r="G108" s="16" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="109" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="19">
+      <c r="A109" s="17">
         <v>311</v>
       </c>
-      <c r="B109" s="19" t="s">
+      <c r="B109" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="C109" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="D109" s="19"/>
-      <c r="E109" s="19">
-        <v>210</v>
-      </c>
-      <c r="F109" s="19">
+      <c r="C109" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="D109" s="17"/>
+      <c r="E109" s="17">
+        <v>210</v>
+      </c>
+      <c r="F109" s="17">
         <v>6</v>
       </c>
-      <c r="G109" s="19" t="s">
+      <c r="G109" s="17" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="110" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="18">
+      <c r="A110" s="16">
         <v>338</v>
       </c>
-      <c r="B110" s="18" t="s">
+      <c r="B110" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="C110" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="D110" s="18"/>
-      <c r="E110" s="18">
+      <c r="C110" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D110" s="16"/>
+      <c r="E110" s="16">
         <v>215</v>
       </c>
-      <c r="F110" s="18">
+      <c r="F110" s="16">
         <v>3</v>
       </c>
-      <c r="G110" s="18" t="s">
+      <c r="G110" s="16" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="111" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="19">
+      <c r="A111" s="17">
         <v>325</v>
       </c>
-      <c r="B111" s="19" t="s">
+      <c r="B111" s="17" t="s">
         <v>192</v>
       </c>
-      <c r="C111" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="D111" s="19"/>
-      <c r="E111" s="19">
-        <v>210</v>
-      </c>
-      <c r="F111" s="19">
+      <c r="C111" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="D111" s="17"/>
+      <c r="E111" s="17">
+        <v>210</v>
+      </c>
+      <c r="F111" s="17">
         <v>3</v>
       </c>
-      <c r="G111" s="19" t="s">
+      <c r="G111" s="17" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="112" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="18">
+      <c r="A112" s="16">
         <v>347</v>
       </c>
-      <c r="B112" s="18" t="s">
+      <c r="B112" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="C112" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="D112" s="18"/>
-      <c r="E112" s="18">
-        <v>210</v>
-      </c>
-      <c r="F112" s="18">
+      <c r="C112" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D112" s="16"/>
+      <c r="E112" s="16">
+        <v>210</v>
+      </c>
+      <c r="F112" s="16">
         <v>12</v>
       </c>
-      <c r="G112" s="18" t="s">
+      <c r="G112" s="16" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="113" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="19">
+      <c r="A113" s="17">
         <v>373</v>
       </c>
-      <c r="B113" s="19" t="s">
+      <c r="B113" s="17" t="s">
         <v>274</v>
       </c>
-      <c r="C113" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="D113" s="19"/>
-      <c r="E113" s="19">
+      <c r="C113" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="D113" s="17"/>
+      <c r="E113" s="17">
         <v>215</v>
       </c>
-      <c r="F113" s="19">
+      <c r="F113" s="17">
         <v>2</v>
       </c>
-      <c r="G113" s="19" t="s">
+      <c r="G113" s="17" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="114" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="18">
+      <c r="A114" s="16">
         <v>386</v>
       </c>
-      <c r="B114" s="18" t="s">
+      <c r="B114" s="16" t="s">
         <v>276</v>
       </c>
-      <c r="C114" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="D114" s="18"/>
-      <c r="E114" s="18">
-        <v>210</v>
-      </c>
-      <c r="F114" s="18">
+      <c r="C114" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D114" s="16"/>
+      <c r="E114" s="16">
+        <v>210</v>
+      </c>
+      <c r="F114" s="16">
         <v>6</v>
       </c>
-      <c r="G114" s="18" t="s">
+      <c r="G114" s="16" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="115" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="19">
+      <c r="A115" s="17">
         <v>397</v>
       </c>
-      <c r="B115" s="19" t="s">
+      <c r="B115" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="C115" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="D115" s="19"/>
-      <c r="E115" s="19">
-        <v>210</v>
-      </c>
-      <c r="F115" s="19">
+      <c r="C115" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="D115" s="17"/>
+      <c r="E115" s="17">
+        <v>210</v>
+      </c>
+      <c r="F115" s="17">
         <v>6</v>
       </c>
-      <c r="G115" s="19" t="s">
+      <c r="G115" s="17" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="116" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="18">
+      <c r="A116" s="16">
         <v>408</v>
       </c>
-      <c r="B116" s="18" t="s">
+      <c r="B116" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="C116" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="D116" s="18"/>
-      <c r="E116" s="18">
+      <c r="C116" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D116" s="16"/>
+      <c r="E116" s="16">
         <v>205</v>
       </c>
-      <c r="F116" s="18">
+      <c r="F116" s="16">
         <v>24</v>
       </c>
-      <c r="G116" s="18" t="s">
+      <c r="G116" s="16" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="117" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="19">
+      <c r="A117" s="17">
         <v>361</v>
       </c>
-      <c r="B117" s="19" t="s">
+      <c r="B117" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="C117" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="D117" s="19"/>
-      <c r="E117" s="19">
-        <v>210</v>
-      </c>
-      <c r="F117" s="19">
+      <c r="C117" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="D117" s="17"/>
+      <c r="E117" s="17">
+        <v>210</v>
+      </c>
+      <c r="F117" s="17">
         <v>24</v>
       </c>
-      <c r="G117" s="19" t="s">
+      <c r="G117" s="17" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="118" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="18">
+      <c r="A118" s="16">
         <v>428</v>
       </c>
-      <c r="B118" s="18" t="s">
+      <c r="B118" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="C118" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="D118" s="18"/>
-      <c r="E118" s="18">
-        <v>210</v>
-      </c>
-      <c r="F118" s="18">
+      <c r="C118" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D118" s="16"/>
+      <c r="E118" s="16">
+        <v>210</v>
+      </c>
+      <c r="F118" s="16">
         <v>6</v>
       </c>
-      <c r="G118" s="18" t="s">
+      <c r="G118" s="16" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="119" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="19">
+      <c r="A119" s="17">
         <v>362</v>
       </c>
-      <c r="B119" s="19" t="s">
+      <c r="B119" s="17" t="s">
         <v>229</v>
       </c>
-      <c r="C119" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="D119" s="19"/>
-      <c r="E119" s="19">
-        <v>210</v>
-      </c>
-      <c r="F119" s="19">
+      <c r="C119" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="D119" s="17"/>
+      <c r="E119" s="17">
+        <v>210</v>
+      </c>
+      <c r="F119" s="17">
         <v>24</v>
       </c>
-      <c r="G119" s="19" t="s">
+      <c r="G119" s="17" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="120" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="18">
+      <c r="A120" s="16">
         <v>491</v>
       </c>
-      <c r="B120" s="18" t="s">
+      <c r="B120" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="C120" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="D120" s="18"/>
-      <c r="E120" s="18">
-        <v>210</v>
-      </c>
-      <c r="F120" s="18">
+      <c r="C120" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D120" s="16"/>
+      <c r="E120" s="16">
+        <v>210</v>
+      </c>
+      <c r="F120" s="16">
         <v>6</v>
       </c>
-      <c r="G120" s="18" t="s">
+      <c r="G120" s="16" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="121" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="19">
+      <c r="A121" s="17">
         <v>349</v>
       </c>
-      <c r="B121" s="19" t="s">
+      <c r="B121" s="17" t="s">
         <v>197</v>
       </c>
-      <c r="C121" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="D121" s="19"/>
-      <c r="E121" s="19">
+      <c r="C121" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="D121" s="17"/>
+      <c r="E121" s="17">
         <v>215</v>
       </c>
-      <c r="F121" s="19">
+      <c r="F121" s="17">
         <v>2</v>
       </c>
-      <c r="G121" s="19" t="s">
+      <c r="G121" s="17" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="122" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="18">
+      <c r="A122" s="16">
         <v>293</v>
       </c>
-      <c r="B122" s="18" t="s">
+      <c r="B122" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="C122" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="D122" s="18"/>
-      <c r="E122" s="18">
+      <c r="C122" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D122" s="16"/>
+      <c r="E122" s="16">
         <v>215</v>
       </c>
-      <c r="F122" s="18">
+      <c r="F122" s="16">
         <v>2</v>
       </c>
-      <c r="G122" s="18" t="s">
+      <c r="G122" s="16" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="123" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="19">
+      <c r="A123" s="17">
         <v>298</v>
       </c>
-      <c r="B123" s="19" t="s">
+      <c r="B123" s="17" t="s">
         <v>286</v>
       </c>
-      <c r="C123" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="D123" s="19"/>
-      <c r="E123" s="19">
-        <v>210</v>
-      </c>
-      <c r="F123" s="19">
+      <c r="C123" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="D123" s="17"/>
+      <c r="E123" s="17">
+        <v>210</v>
+      </c>
+      <c r="F123" s="17">
         <v>24</v>
       </c>
-      <c r="G123" s="19" t="s">
+      <c r="G123" s="17" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="124" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="18">
+      <c r="A124" s="16">
         <v>363</v>
       </c>
-      <c r="B124" s="18" t="s">
+      <c r="B124" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="C124" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="D124" s="18"/>
-      <c r="E124" s="18">
-        <v>210</v>
-      </c>
-      <c r="F124" s="18">
+      <c r="C124" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D124" s="16"/>
+      <c r="E124" s="16">
+        <v>210</v>
+      </c>
+      <c r="F124" s="16">
         <v>6</v>
       </c>
-      <c r="G124" s="18" t="s">
+      <c r="G124" s="16" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="125" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="19">
+      <c r="A125" s="17">
         <v>375</v>
       </c>
-      <c r="B125" s="19" t="s">
+      <c r="B125" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="C125" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="D125" s="19"/>
-      <c r="E125" s="19">
-        <v>210</v>
-      </c>
-      <c r="F125" s="19">
+      <c r="C125" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="D125" s="17"/>
+      <c r="E125" s="17">
+        <v>210</v>
+      </c>
+      <c r="F125" s="17">
         <v>3</v>
       </c>
-      <c r="G125" s="19" t="s">
+      <c r="G125" s="17" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="126" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="18">
+      <c r="A126" s="16">
         <v>480</v>
       </c>
-      <c r="B126" s="18" t="s">
+      <c r="B126" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="C126" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="D126" s="18"/>
-      <c r="E126" s="18">
-        <v>210</v>
-      </c>
-      <c r="F126" s="18">
+      <c r="C126" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D126" s="16"/>
+      <c r="E126" s="16">
+        <v>210</v>
+      </c>
+      <c r="F126" s="16">
         <v>3</v>
       </c>
-      <c r="G126" s="18" t="s">
+      <c r="G126" s="16" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="127" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="19">
+      <c r="A127" s="17">
         <v>289</v>
       </c>
-      <c r="B127" s="19" t="s">
+      <c r="B127" s="17" t="s">
         <v>175</v>
       </c>
-      <c r="C127" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="D127" s="19"/>
-      <c r="E127" s="19">
-        <v>210</v>
-      </c>
-      <c r="F127" s="19">
+      <c r="C127" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="D127" s="17"/>
+      <c r="E127" s="17">
+        <v>210</v>
+      </c>
+      <c r="F127" s="17">
         <v>6</v>
       </c>
-      <c r="G127" s="19" t="s">
+      <c r="G127" s="17" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="128" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="18">
+      <c r="A128" s="16">
         <v>470</v>
       </c>
-      <c r="B128" s="18" t="s">
+      <c r="B128" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="C128" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="D128" s="18"/>
-      <c r="E128" s="18">
-        <v>210</v>
-      </c>
-      <c r="F128" s="18">
+      <c r="C128" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D128" s="16"/>
+      <c r="E128" s="16">
+        <v>210</v>
+      </c>
+      <c r="F128" s="16">
         <v>6</v>
       </c>
-      <c r="G128" s="18" t="s">
+      <c r="G128" s="16" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="129" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="19">
+      <c r="A129" s="17">
         <v>409</v>
       </c>
-      <c r="B129" s="19" t="s">
+      <c r="B129" s="17" t="s">
         <v>229</v>
       </c>
-      <c r="C129" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="D129" s="19"/>
-      <c r="E129" s="19">
-        <v>210</v>
-      </c>
-      <c r="F129" s="19">
+      <c r="C129" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="D129" s="17"/>
+      <c r="E129" s="17">
+        <v>210</v>
+      </c>
+      <c r="F129" s="17">
         <v>24</v>
       </c>
-      <c r="G129" s="19" t="s">
+      <c r="G129" s="17" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="130" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="18">
+      <c r="A130" s="16">
         <v>563</v>
       </c>
-      <c r="B130" s="18" t="s">
+      <c r="B130" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="C130" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="D130" s="18"/>
-      <c r="E130" s="18">
+      <c r="C130" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D130" s="16"/>
+      <c r="E130" s="16">
         <v>215</v>
       </c>
-      <c r="F130" s="18">
+      <c r="F130" s="16">
         <v>6</v>
       </c>
-      <c r="G130" s="18" t="s">
+      <c r="G130" s="16" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="131" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="19">
+      <c r="A131" s="17">
         <v>290</v>
       </c>
-      <c r="B131" s="19" t="s">
+      <c r="B131" s="17" t="s">
         <v>295</v>
       </c>
-      <c r="C131" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="D131" s="19"/>
-      <c r="E131" s="19">
-        <v>210</v>
-      </c>
-      <c r="F131" s="19">
+      <c r="C131" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="D131" s="17"/>
+      <c r="E131" s="17">
+        <v>210</v>
+      </c>
+      <c r="F131" s="17">
         <v>2</v>
       </c>
-      <c r="G131" s="19" t="s">
+      <c r="G131" s="17" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="132" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="18">
+      <c r="A132" s="16">
         <v>327</v>
       </c>
-      <c r="B132" s="18" t="s">
+      <c r="B132" s="16" t="s">
         <v>297</v>
       </c>
-      <c r="C132" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="D132" s="18"/>
-      <c r="E132" s="18">
+      <c r="C132" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D132" s="16"/>
+      <c r="E132" s="16">
         <v>205</v>
       </c>
-      <c r="F132" s="18">
+      <c r="F132" s="16">
         <v>1</v>
       </c>
-      <c r="G132" s="18" t="s">
+      <c r="G132" s="16" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="133" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="19">
+      <c r="A133" s="17">
         <v>339</v>
       </c>
-      <c r="B133" s="19" t="s">
+      <c r="B133" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="C133" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="D133" s="19"/>
-      <c r="E133" s="19">
+      <c r="C133" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="D133" s="17"/>
+      <c r="E133" s="17">
         <v>215</v>
       </c>
-      <c r="F133" s="19">
+      <c r="F133" s="17">
         <v>6</v>
       </c>
-      <c r="G133" s="19" t="s">
+      <c r="G133" s="17" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="134" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="18">
+      <c r="A134" s="16">
         <v>294</v>
       </c>
-      <c r="B134" s="18" t="s">
+      <c r="B134" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="C134" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="D134" s="18"/>
-      <c r="E134" s="18">
-        <v>210</v>
-      </c>
-      <c r="F134" s="18">
+      <c r="C134" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D134" s="16"/>
+      <c r="E134" s="16">
+        <v>210</v>
+      </c>
+      <c r="F134" s="16">
         <v>2</v>
       </c>
-      <c r="G134" s="18" t="s">
+      <c r="G134" s="16" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="135" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="19">
+      <c r="A135" s="17">
         <v>300</v>
       </c>
-      <c r="B135" s="19" t="s">
+      <c r="B135" s="17" t="s">
         <v>265</v>
       </c>
-      <c r="C135" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="D135" s="19"/>
-      <c r="E135" s="19">
-        <v>210</v>
-      </c>
-      <c r="F135" s="19">
+      <c r="C135" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="D135" s="17"/>
+      <c r="E135" s="17">
+        <v>210</v>
+      </c>
+      <c r="F135" s="17">
         <v>3</v>
       </c>
-      <c r="G135" s="19" t="s">
+      <c r="G135" s="17" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="136" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="18">
+      <c r="A136" s="16">
         <v>321</v>
       </c>
-      <c r="B136" s="18" t="s">
+      <c r="B136" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="C136" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="D136" s="18"/>
-      <c r="E136" s="18">
-        <v>210</v>
-      </c>
-      <c r="F136" s="18">
+      <c r="C136" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D136" s="16"/>
+      <c r="E136" s="16">
+        <v>210</v>
+      </c>
+      <c r="F136" s="16">
         <v>6</v>
       </c>
-      <c r="G136" s="18" t="s">
+      <c r="G136" s="16" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="137" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="19">
+      <c r="A137" s="17">
         <v>364</v>
       </c>
-      <c r="B137" s="19" t="s">
+      <c r="B137" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="C137" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="D137" s="19"/>
-      <c r="E137" s="19">
-        <v>210</v>
-      </c>
-      <c r="F137" s="19">
+      <c r="C137" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="D137" s="17"/>
+      <c r="E137" s="17">
+        <v>210</v>
+      </c>
+      <c r="F137" s="17">
         <v>6</v>
       </c>
-      <c r="G137" s="19" t="s">
+      <c r="G137" s="17" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="138" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="18">
+      <c r="A138" s="16">
         <v>421</v>
       </c>
-      <c r="B138" s="18" t="s">
+      <c r="B138" s="16" t="s">
         <v>304</v>
       </c>
-      <c r="C138" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="D138" s="18"/>
-      <c r="E138" s="18">
+      <c r="C138" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D138" s="16"/>
+      <c r="E138" s="16">
         <v>215</v>
       </c>
-      <c r="F138" s="18">
+      <c r="F138" s="16">
         <v>2</v>
       </c>
-      <c r="G138" s="18" t="s">
+      <c r="G138" s="16" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="139" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="19">
+      <c r="A139" s="17">
         <v>471</v>
       </c>
-      <c r="B139" s="19" t="s">
+      <c r="B139" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="C139" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="D139" s="19"/>
-      <c r="E139" s="19">
+      <c r="C139" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="D139" s="17"/>
+      <c r="E139" s="17">
         <v>200</v>
       </c>
-      <c r="F139" s="19">
+      <c r="F139" s="17">
         <v>24</v>
       </c>
-      <c r="G139" s="19" t="s">
+      <c r="G139" s="17" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="140" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="18">
+      <c r="A140" s="16">
         <v>526</v>
       </c>
-      <c r="B140" s="18" t="s">
+      <c r="B140" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="C140" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="D140" s="18"/>
-      <c r="E140" s="18">
+      <c r="C140" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D140" s="16"/>
+      <c r="E140" s="16">
         <v>215</v>
       </c>
-      <c r="F140" s="18">
+      <c r="F140" s="16">
         <v>3</v>
       </c>
-      <c r="G140" s="18" t="s">
+      <c r="G140" s="16" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="141" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="19">
+      <c r="A141" s="17">
         <v>422</v>
       </c>
-      <c r="B141" s="19" t="s">
+      <c r="B141" s="17" t="s">
         <v>243</v>
       </c>
-      <c r="C141" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="D141" s="19"/>
-      <c r="E141" s="19">
+      <c r="C141" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="D141" s="17"/>
+      <c r="E141" s="17">
         <v>215</v>
       </c>
-      <c r="F141" s="19">
+      <c r="F141" s="17">
         <v>3</v>
       </c>
-      <c r="G141" s="19" t="s">
+      <c r="G141" s="17" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="142" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="18">
+      <c r="A142" s="16">
         <v>472</v>
       </c>
-      <c r="B142" s="18" t="s">
+      <c r="B142" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="C142" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="D142" s="18"/>
-      <c r="E142" s="18">
+      <c r="C142" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D142" s="16"/>
+      <c r="E142" s="16">
         <v>215</v>
       </c>
-      <c r="F142" s="18">
+      <c r="F142" s="16">
         <v>3</v>
       </c>
-      <c r="G142" s="18" t="s">
+      <c r="G142" s="16" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="143" spans="1:7" ht="35.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="19">
+      <c r="A143" s="17">
         <v>377</v>
       </c>
-      <c r="B143" s="19" t="s">
+      <c r="B143" s="17" t="s">
         <v>310</v>
       </c>
-      <c r="C143" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="D143" s="19"/>
-      <c r="E143" s="19">
+      <c r="C143" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="D143" s="17"/>
+      <c r="E143" s="17">
         <v>215</v>
       </c>
-      <c r="F143" s="19">
+      <c r="F143" s="17">
         <v>6</v>
       </c>
-      <c r="G143" s="19" t="s">
+      <c r="G143" s="17" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="144" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="18">
+      <c r="A144" s="16">
         <v>495</v>
       </c>
-      <c r="B144" s="18" t="s">
+      <c r="B144" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="C144" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="D144" s="18"/>
-      <c r="E144" s="18">
-        <v>210</v>
-      </c>
-      <c r="F144" s="18">
+      <c r="C144" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D144" s="16"/>
+      <c r="E144" s="16">
+        <v>210</v>
+      </c>
+      <c r="F144" s="16">
         <v>3</v>
       </c>
-      <c r="G144" s="18" t="s">
+      <c r="G144" s="16" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="145" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="19">
+      <c r="A145" s="17">
         <v>573</v>
       </c>
-      <c r="B145" s="19" t="s">
+      <c r="B145" s="17" t="s">
         <v>213</v>
       </c>
-      <c r="C145" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="D145" s="19"/>
-      <c r="E145" s="19">
+      <c r="C145" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="D145" s="17"/>
+      <c r="E145" s="17">
         <v>215</v>
       </c>
-      <c r="F145" s="19">
+      <c r="F145" s="17">
         <v>6</v>
       </c>
-      <c r="G145" s="19" t="s">
+      <c r="G145" s="17" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="146" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="18">
+      <c r="A146" s="16">
         <v>568</v>
       </c>
-      <c r="B146" s="18" t="s">
+      <c r="B146" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="C146" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="D146" s="18"/>
-      <c r="E146" s="18">
+      <c r="C146" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D146" s="16"/>
+      <c r="E146" s="16">
         <v>200</v>
       </c>
-      <c r="F146" s="18">
+      <c r="F146" s="16">
         <v>36</v>
       </c>
-      <c r="G146" s="18" t="s">
+      <c r="G146" s="16" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="147" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="19">
+      <c r="A147" s="17">
         <v>578</v>
       </c>
-      <c r="B147" s="19" t="s">
+      <c r="B147" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="C147" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="D147" s="19"/>
-      <c r="E147" s="19">
+      <c r="C147" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="D147" s="17"/>
+      <c r="E147" s="17">
         <v>215</v>
       </c>
-      <c r="F147" s="19">
+      <c r="F147" s="17">
         <v>6</v>
       </c>
-      <c r="G147" s="19" t="s">
+      <c r="G147" s="17" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="148" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="18">
+      <c r="A148" s="16">
         <v>580</v>
       </c>
-      <c r="B148" s="18" t="s">
+      <c r="B148" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="C148" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="D148" s="18"/>
-      <c r="E148" s="18">
+      <c r="C148" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D148" s="16"/>
+      <c r="E148" s="16">
         <v>215</v>
       </c>
-      <c r="F148" s="18">
+      <c r="F148" s="16">
         <v>6</v>
       </c>
-      <c r="G148" s="18" t="s">
+      <c r="G148" s="16" t="s">
         <v>316</v>
       </c>
     </row>

--- a/formuleas.xlsx
+++ b/formuleas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D drive\frelance project\react js\react-curd-postgresql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40F352C5-FAF5-410B-BABD-1467CA876ED3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FD2A7C4-02E9-4BDC-9856-415F64F4DC0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{9867F987-13C8-4BD1-BBB1-24D1B3791B55}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="323">
   <si>
     <t>average price</t>
   </si>
@@ -1007,6 +1007,9 @@
   </si>
   <si>
     <t>Name Added in sale Return</t>
+  </si>
+  <si>
+    <t>Delivery 13</t>
   </si>
 </sst>
 </file>
@@ -1060,7 +1063,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1088,6 +1091,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC2C0C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1204,7 +1213,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -1243,6 +1252,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1372,8 +1382,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E14C37FE-A3D1-4F67-A34E-587A11BB2DEB}" name="Table1" displayName="Table1" ref="A1:F38" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4" totalsRowBorderDxfId="3">
-  <autoFilter ref="A1:F38" xr:uid="{E14C37FE-A3D1-4F67-A34E-587A11BB2DEB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E14C37FE-A3D1-4F67-A34E-587A11BB2DEB}" name="Table1" displayName="Table1" ref="A1:F39" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4" totalsRowBorderDxfId="3">
+  <autoFilter ref="A1:F39" xr:uid="{E14C37FE-A3D1-4F67-A34E-587A11BB2DEB}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{5C468D6D-8BDA-4422-9612-CDAD337F2673}" name="No." dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{A5486217-26D0-4141-A067-CA955B9FA5E3}" name="Description" dataDxfId="1"/>
@@ -1942,10 +1952,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6A7823F-41BD-4553-A91B-44623AB5ADBB}">
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C33" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2617,11 +2627,19 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="6"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
+      <c r="A39" s="5">
+        <v>36</v>
+      </c>
+      <c r="B39" t="s">
+        <v>317</v>
+      </c>
+      <c r="C39" s="9"/>
+      <c r="D39" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>67</v>
+      </c>
       <c r="F39" s="10"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -2668,7 +2686,7 @@
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
+      <c r="B49" s="20" t="s">
         <v>78</v>
       </c>
     </row>
@@ -2684,11 +2702,6 @@
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
         <v>318</v>
       </c>
     </row>

--- a/formuleas.xlsx
+++ b/formuleas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D drive\frelance project\react js\react-curd-postgresql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FD2A7C4-02E9-4BDC-9856-415F64F4DC0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D6B08E6-7AF1-48B3-AD94-DAE6C8EDF629}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{9867F987-13C8-4BD1-BBB1-24D1B3791B55}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9867F987-13C8-4BD1-BBB1-24D1B3791B55}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1246,13 +1246,13 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1693,10 +1693,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0008933-41AC-43AC-A4B4-E8E0896F895C}">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13:L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1705,33 +1705,33 @@
     <col min="10" max="10" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="H1" s="18" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="H1" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="H2" s="18" t="s">
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="H2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C3">
         <f>SUM(C5:C6)/2</f>
         <v>10.5</v>
@@ -1741,7 +1741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1761,7 +1761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>100</v>
       </c>
@@ -1786,7 +1786,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>110</v>
       </c>
@@ -1812,7 +1812,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>100</v>
       </c>
@@ -1836,6 +1836,24 @@
       <c r="J7">
         <f>(H5+H6+H7)/(I5+I6+I7)</f>
         <v>10.333333333333334</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L13">
+        <f>(300+350+400)/3</f>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L14">
+        <f>((300*1)+(350*5)+(400*10))/(1+5+10)</f>
+        <v>378.125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L15">
+        <f>((300*10)+(350*5)+(400*1))/(1+5+10)</f>
+        <v>321.875</v>
       </c>
     </row>
   </sheetData>
@@ -1954,7 +1972,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6A7823F-41BD-4553-A91B-44623AB5ADBB}">
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
@@ -2686,7 +2704,7 @@
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B49" s="20" t="s">
+      <c r="B49" s="18" t="s">
         <v>78</v>
       </c>
     </row>
@@ -2734,11 +2752,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11"/>
@@ -2894,11 +2912,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F2">

--- a/formuleas.xlsx
+++ b/formuleas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D drive\frelance project\react js\react-curd-postgresql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D6B08E6-7AF1-48B3-AD94-DAE6C8EDF629}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA9319A8-2C11-4143-A2B9-443BC158F44A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9867F987-13C8-4BD1-BBB1-24D1B3791B55}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="324">
   <si>
     <t>average price</t>
   </si>
@@ -1010,6 +1010,9 @@
   </si>
   <si>
     <t>Delivery 13</t>
+  </si>
+  <si>
+    <t>(average cost * available quantiy)/(available+quantity)</t>
   </si>
 </sst>
 </file>
@@ -1693,19 +1696,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0008933-41AC-43AC-A4B4-E8E0896F895C}">
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13:L15"/>
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="50.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
         <v>6</v>
       </c>
@@ -1718,7 +1722,7 @@
       <c r="I1" s="19"/>
       <c r="J1" s="19"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>4</v>
       </c>
@@ -1731,7 +1735,7 @@
       <c r="I2" s="19"/>
       <c r="J2" s="19"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C3">
         <f>SUM(C5:C6)/2</f>
         <v>10.5</v>
@@ -1741,7 +1745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1760,8 +1764,11 @@
       <c r="J4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>100</v>
       </c>
@@ -1786,7 +1793,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>110</v>
       </c>
@@ -1812,7 +1819,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>100</v>
       </c>
@@ -1838,19 +1845,27 @@
         <v>10.333333333333334</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="L13">
         <f>(300+350+400)/3</f>
         <v>350</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="L14">
         <f>((300*1)+(350*5)+(400*10))/(1+5+10)</f>
         <v>378.125</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M14">
+        <f>((26*200)+(120*260))/(26+120)</f>
+        <v>249.31506849315068</v>
+      </c>
+      <c r="N14">
+        <f>(200+260)/2</f>
+        <v>230</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="L15">
         <f>((300*10)+(350*5)+(400*1))/(1+5+10)</f>
         <v>321.875</v>

--- a/formuleas.xlsx
+++ b/formuleas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D drive\frelance project\react js\react-curd-postgresql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA9319A8-2C11-4143-A2B9-443BC158F44A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49B22279-0622-487B-95FA-3F4F498BF81A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9867F987-13C8-4BD1-BBB1-24D1B3791B55}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{9867F987-13C8-4BD1-BBB1-24D1B3791B55}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="329">
   <si>
     <t>average price</t>
   </si>
@@ -274,12 +274,6 @@
     <t>Only GUI</t>
   </si>
   <si>
-    <t>check item name is not getting updated</t>
-  </si>
-  <si>
-    <t>show customer last price when selecting the item</t>
-  </si>
-  <si>
     <t>Sale / Purchase history in stock report</t>
   </si>
   <si>
@@ -289,12 +283,6 @@
     <t>show profit in the sale invoice detail</t>
   </si>
   <si>
-    <t>add summary like stock report on sale report</t>
-  </si>
-  <si>
-    <t>print purchase invoice</t>
-  </si>
-  <si>
     <t>Delivery 9</t>
   </si>
   <si>
@@ -997,9 +985,6 @@
     <t>Sale Invoice summary should show all the items in the given date i.e. if 10 invoice is 1 item each then summary should show 1 entry of 10 items</t>
   </si>
   <si>
-    <t>product optimization limit</t>
-  </si>
-  <si>
     <t>Edit Sale &amp; Edit purchase is update for the stock update bug</t>
   </si>
   <si>
@@ -1013,6 +998,36 @@
   </si>
   <si>
     <t>(average cost * available quantiy)/(available+quantity)</t>
+  </si>
+  <si>
+    <t>add search on account payable / receivable.</t>
+  </si>
+  <si>
+    <t>add export on account payable / receivable.</t>
+  </si>
+  <si>
+    <t>add summary on balance sheet.</t>
+  </si>
+  <si>
+    <t>Change cost to average cost and show the last cost price in purchase invoice screen.</t>
+  </si>
+  <si>
+    <t>total in the sale invoice should be rounded to 3 digits</t>
+  </si>
+  <si>
+    <t>user search added in the purchase report</t>
+  </si>
+  <si>
+    <t>add cost to the sale invoice screen.</t>
+  </si>
+  <si>
+    <t>lower and upper limit edit option in the add/edit screen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">product optimization limit reports </t>
+  </si>
+  <si>
+    <t>waiting for nabeels feedback</t>
   </si>
 </sst>
 </file>
@@ -1066,7 +1081,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1094,12 +1109,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC2C0C0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1249,13 +1258,13 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1385,8 +1394,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E14C37FE-A3D1-4F67-A34E-587A11BB2DEB}" name="Table1" displayName="Table1" ref="A1:F39" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4" totalsRowBorderDxfId="3">
-  <autoFilter ref="A1:F39" xr:uid="{E14C37FE-A3D1-4F67-A34E-587A11BB2DEB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E14C37FE-A3D1-4F67-A34E-587A11BB2DEB}" name="Table1" displayName="Table1" ref="A1:F47" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4" totalsRowBorderDxfId="3">
+  <autoFilter ref="A1:F47" xr:uid="{E14C37FE-A3D1-4F67-A34E-587A11BB2DEB}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{5C468D6D-8BDA-4422-9612-CDAD337F2673}" name="No." dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{A5486217-26D0-4141-A067-CA955B9FA5E3}" name="Description" dataDxfId="1"/>
@@ -1698,7 +1707,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0008933-41AC-43AC-A4B4-E8E0896F895C}">
   <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
@@ -1710,30 +1719,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="H1" s="19" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="H1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="H2" s="19" t="s">
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="H2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C3">
@@ -1765,7 +1774,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -1985,17 +1994,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6A7823F-41BD-4553-A91B-44623AB5ADBB}">
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:F58"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="130.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
@@ -2562,11 +2571,11 @@
         <v>30</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C33" s="9"/>
       <c r="D33" s="6" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E33" s="6" t="s">
         <v>67</v>
@@ -2580,11 +2589,11 @@
         <v>31</v>
       </c>
       <c r="B34" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C34" s="9"/>
       <c r="D34" s="6" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E34" s="6"/>
       <c r="F34" s="10">
@@ -2596,11 +2605,11 @@
         <v>32</v>
       </c>
       <c r="B35" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C35" s="9"/>
       <c r="D35" s="6" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E35" s="6"/>
       <c r="F35" s="10">
@@ -2612,11 +2621,11 @@
         <v>33</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C36" s="9"/>
       <c r="D36" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E36" s="6"/>
       <c r="F36" s="10">
@@ -2628,11 +2637,11 @@
         <v>34</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C37" s="9"/>
       <c r="D37" s="6" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="E37" s="6" t="s">
         <v>67</v>
@@ -2646,11 +2655,11 @@
         <v>35</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="C38" s="9"/>
       <c r="D38" s="6" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="E38" s="6" t="s">
         <v>67</v>
@@ -2664,11 +2673,11 @@
         <v>36</v>
       </c>
       <c r="B39" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C39" s="9"/>
       <c r="D39" s="6" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="E39" s="6" t="s">
         <v>67</v>
@@ -2676,73 +2685,167 @@
       <c r="F39" s="10"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="6"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
+      <c r="A40" s="5">
+        <v>37</v>
+      </c>
+      <c r="B40" s="20" t="s">
+        <v>319</v>
+      </c>
+      <c r="C40" s="9"/>
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
       <c r="F40" s="10"/>
     </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="5">
+        <v>38</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="C41" s="9"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="10"/>
+    </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
+      <c r="A42" s="5">
+        <v>39</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="C42" s="9"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="10"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="5">
+        <v>40</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="C43" s="9"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="10"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="5">
+        <v>41</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="C44" s="9"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="10"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="5">
+        <v>42</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="C45" s="9"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="10"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="5">
+        <v>43</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="C46" s="9"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="10"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="5">
+        <v>44</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="C47" s="9"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="10"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="6"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="10"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="6"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="10"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="6"/>
+      <c r="B50" s="6"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="10"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B49" s="18" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
-        <v>318</v>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>327</v>
+      </c>
+      <c r="C58" t="s">
+        <v>328</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -2767,36 +2870,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
+      <c r="A1" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11"/>
     </row>
     <row r="3" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="E3" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="F3" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="G3" s="12" t="s">
         <v>91</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -2804,10 +2907,10 @@
         <v>80</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D4" s="13">
         <v>279</v>
@@ -2819,7 +2922,7 @@
         <v>720</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -2827,10 +2930,10 @@
         <v>15</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D5" s="14">
         <v>58</v>
@@ -2842,7 +2945,7 @@
         <v>479</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -2850,10 +2953,10 @@
         <v>70</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D6" s="13">
         <v>217</v>
@@ -2865,7 +2968,7 @@
         <v>240</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -2873,10 +2976,10 @@
         <v>101</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D7" s="14">
         <v>365</v>
@@ -2888,7 +2991,7 @@
         <v>480</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -2927,11 +3030,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
+      <c r="A1" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F2">
@@ -2941,25 +3044,25 @@
     </row>
     <row r="3" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C3" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="G3" s="15" t="s">
         <v>91</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="G3" s="15" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2967,10 +3070,10 @@
         <v>10</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D4" s="16"/>
       <c r="E4" s="16">
@@ -2980,7 +3083,7 @@
         <v>24</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2988,10 +3091,10 @@
         <v>7</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D5" s="17"/>
       <c r="E5" s="17">
@@ -3001,7 +3104,7 @@
         <v>6</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3009,10 +3112,10 @@
         <v>17</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="16">
@@ -3022,7 +3125,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3030,10 +3133,10 @@
         <v>17</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D7" s="17"/>
       <c r="E7" s="17">
@@ -3043,7 +3146,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3051,10 +3154,10 @@
         <v>22</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D8" s="16"/>
       <c r="E8" s="16">
@@ -3064,7 +3167,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3072,10 +3175,10 @@
         <v>23</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="17">
@@ -3085,7 +3188,7 @@
         <v>24</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3093,10 +3196,10 @@
         <v>134</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D10" s="16"/>
       <c r="E10" s="16">
@@ -3106,7 +3209,7 @@
         <v>6</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3114,10 +3217,10 @@
         <v>28</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D11" s="17"/>
       <c r="E11" s="17">
@@ -3127,7 +3230,7 @@
         <v>12</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3135,10 +3238,10 @@
         <v>29</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D12" s="16"/>
       <c r="E12" s="16">
@@ -3148,7 +3251,7 @@
         <v>6</v>
       </c>
       <c r="G12" s="16" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3156,10 +3259,10 @@
         <v>34</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D13" s="17"/>
       <c r="E13" s="17">
@@ -3169,7 +3272,7 @@
         <v>6</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3177,10 +3280,10 @@
         <v>122</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D14" s="16"/>
       <c r="E14" s="16">
@@ -3190,7 +3293,7 @@
         <v>2</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3198,10 +3301,10 @@
         <v>112</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D15" s="17"/>
       <c r="E15" s="17">
@@ -3211,7 +3314,7 @@
         <v>6</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3219,10 +3322,10 @@
         <v>38</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D16" s="16"/>
       <c r="E16" s="16">
@@ -3232,7 +3335,7 @@
         <v>3</v>
       </c>
       <c r="G16" s="16" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3240,10 +3343,10 @@
         <v>40</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D17" s="17"/>
       <c r="E17" s="17">
@@ -3253,7 +3356,7 @@
         <v>6</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3261,10 +3364,10 @@
         <v>41</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D18" s="16"/>
       <c r="E18" s="16">
@@ -3274,7 +3377,7 @@
         <v>6</v>
       </c>
       <c r="G18" s="16" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3282,10 +3385,10 @@
         <v>52</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D19" s="17"/>
       <c r="E19" s="17">
@@ -3295,7 +3398,7 @@
         <v>3</v>
       </c>
       <c r="G19" s="17" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3303,10 +3406,10 @@
         <v>53</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D20" s="16"/>
       <c r="E20" s="16">
@@ -3316,7 +3419,7 @@
         <v>2</v>
       </c>
       <c r="G20" s="16" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3324,10 +3427,10 @@
         <v>58</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D21" s="17"/>
       <c r="E21" s="17">
@@ -3337,7 +3440,7 @@
         <v>1</v>
       </c>
       <c r="G21" s="17" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3345,10 +3448,10 @@
         <v>60</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D22" s="16"/>
       <c r="E22" s="16">
@@ -3358,7 +3461,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="16" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3366,10 +3469,10 @@
         <v>106</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D23" s="17"/>
       <c r="E23" s="17">
@@ -3379,7 +3482,7 @@
         <v>12</v>
       </c>
       <c r="G23" s="17" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3387,10 +3490,10 @@
         <v>402</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D24" s="16"/>
       <c r="E24" s="16">
@@ -3400,7 +3503,7 @@
         <v>3</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3408,10 +3511,10 @@
         <v>94</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D25" s="17"/>
       <c r="E25" s="17">
@@ -3421,7 +3524,7 @@
         <v>2</v>
       </c>
       <c r="G25" s="17" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3429,10 +3532,10 @@
         <v>141</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D26" s="16"/>
       <c r="E26" s="16">
@@ -3442,7 +3545,7 @@
         <v>6</v>
       </c>
       <c r="G26" s="16" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3450,10 +3553,10 @@
         <v>69</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D27" s="17"/>
       <c r="E27" s="17">
@@ -3463,7 +3566,7 @@
         <v>6</v>
       </c>
       <c r="G27" s="17" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3471,10 +3574,10 @@
         <v>77</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D28" s="16"/>
       <c r="E28" s="16">
@@ -3484,7 +3587,7 @@
         <v>3</v>
       </c>
       <c r="G28" s="16" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3492,10 +3595,10 @@
         <v>116</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D29" s="17"/>
       <c r="E29" s="17">
@@ -3505,7 +3608,7 @@
         <v>2</v>
       </c>
       <c r="G29" s="17" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3513,10 +3616,10 @@
         <v>127</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D30" s="16"/>
       <c r="E30" s="16">
@@ -3526,7 +3629,7 @@
         <v>6</v>
       </c>
       <c r="G30" s="16" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3534,10 +3637,10 @@
         <v>133</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D31" s="17"/>
       <c r="E31" s="17">
@@ -3547,7 +3650,7 @@
         <v>24</v>
       </c>
       <c r="G31" s="17" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3555,10 +3658,10 @@
         <v>149</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D32" s="16"/>
       <c r="E32" s="16">
@@ -3568,7 +3671,7 @@
         <v>2</v>
       </c>
       <c r="G32" s="16" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3576,10 +3679,10 @@
         <v>341</v>
       </c>
       <c r="B33" s="17" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D33" s="17"/>
       <c r="E33" s="17">
@@ -3589,7 +3692,7 @@
         <v>3</v>
       </c>
       <c r="G33" s="17" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3597,10 +3700,10 @@
         <v>352</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D34" s="16"/>
       <c r="E34" s="16">
@@ -3610,7 +3713,7 @@
         <v>1</v>
       </c>
       <c r="G34" s="16" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3618,10 +3721,10 @@
         <v>391</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D35" s="17"/>
       <c r="E35" s="17">
@@ -3631,7 +3734,7 @@
         <v>6</v>
       </c>
       <c r="G35" s="17" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3639,10 +3742,10 @@
         <v>96</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D36" s="16"/>
       <c r="E36" s="16">
@@ -3652,7 +3755,7 @@
         <v>-4</v>
       </c>
       <c r="G36" s="16" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3660,10 +3763,10 @@
         <v>123</v>
       </c>
       <c r="B37" s="17" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D37" s="17"/>
       <c r="E37" s="17">
@@ -3673,7 +3776,7 @@
         <v>6</v>
       </c>
       <c r="G37" s="17" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3681,10 +3784,10 @@
         <v>97</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D38" s="16"/>
       <c r="E38" s="16">
@@ -3694,7 +3797,7 @@
         <v>48</v>
       </c>
       <c r="G38" s="16" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3702,10 +3805,10 @@
         <v>100</v>
       </c>
       <c r="B39" s="17" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C39" s="17" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D39" s="17"/>
       <c r="E39" s="17">
@@ -3715,7 +3818,7 @@
         <v>6</v>
       </c>
       <c r="G39" s="17" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3723,10 +3826,10 @@
         <v>129</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D40" s="16"/>
       <c r="E40" s="16">
@@ -3736,7 +3839,7 @@
         <v>96</v>
       </c>
       <c r="G40" s="16" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3744,10 +3847,10 @@
         <v>101</v>
       </c>
       <c r="B41" s="17" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C41" s="17" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D41" s="17"/>
       <c r="E41" s="17">
@@ -3757,7 +3860,7 @@
         <v>2</v>
       </c>
       <c r="G41" s="17" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3765,10 +3868,10 @@
         <v>108</v>
       </c>
       <c r="B42" s="16" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D42" s="16"/>
       <c r="E42" s="16">
@@ -3778,7 +3881,7 @@
         <v>6</v>
       </c>
       <c r="G42" s="16" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3786,10 +3889,10 @@
         <v>131</v>
       </c>
       <c r="B43" s="17" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C43" s="17" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D43" s="17"/>
       <c r="E43" s="17">
@@ -3799,7 +3902,7 @@
         <v>12</v>
       </c>
       <c r="G43" s="17" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3807,10 +3910,10 @@
         <v>153</v>
       </c>
       <c r="B44" s="16" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D44" s="16"/>
       <c r="E44" s="16">
@@ -3820,7 +3923,7 @@
         <v>3</v>
       </c>
       <c r="G44" s="16" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3828,10 +3931,10 @@
         <v>551</v>
       </c>
       <c r="B45" s="17" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C45" s="17" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D45" s="17"/>
       <c r="E45" s="17">
@@ -3841,7 +3944,7 @@
         <v>12</v>
       </c>
       <c r="G45" s="17" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3849,10 +3952,10 @@
         <v>527</v>
       </c>
       <c r="B46" s="16" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D46" s="16"/>
       <c r="E46" s="16">
@@ -3862,7 +3965,7 @@
         <v>3</v>
       </c>
       <c r="G46" s="16" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3870,10 +3973,10 @@
         <v>157</v>
       </c>
       <c r="B47" s="17" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C47" s="17" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D47" s="17"/>
       <c r="E47" s="17">
@@ -3883,7 +3986,7 @@
         <v>2</v>
       </c>
       <c r="G47" s="17" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3891,10 +3994,10 @@
         <v>161</v>
       </c>
       <c r="B48" s="16" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D48" s="16"/>
       <c r="E48" s="16">
@@ -3904,7 +4007,7 @@
         <v>6</v>
       </c>
       <c r="G48" s="16" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3912,10 +4015,10 @@
         <v>534</v>
       </c>
       <c r="B49" s="17" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C49" s="17" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D49" s="17"/>
       <c r="E49" s="17">
@@ -3925,7 +4028,7 @@
         <v>12</v>
       </c>
       <c r="G49" s="17" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3933,10 +4036,10 @@
         <v>167</v>
       </c>
       <c r="B50" s="16" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D50" s="16"/>
       <c r="E50" s="16">
@@ -3946,7 +4049,7 @@
         <v>3</v>
       </c>
       <c r="G50" s="16" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3954,10 +4057,10 @@
         <v>171</v>
       </c>
       <c r="B51" s="17" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C51" s="17" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D51" s="17"/>
       <c r="E51" s="17">
@@ -3967,7 +4070,7 @@
         <v>6</v>
       </c>
       <c r="G51" s="17" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3975,10 +4078,10 @@
         <v>172</v>
       </c>
       <c r="B52" s="16" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D52" s="16"/>
       <c r="E52" s="16">
@@ -3988,7 +4091,7 @@
         <v>2</v>
       </c>
       <c r="G52" s="16" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3996,10 +4099,10 @@
         <v>356</v>
       </c>
       <c r="B53" s="17" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C53" s="17" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D53" s="17"/>
       <c r="E53" s="17">
@@ -4009,7 +4112,7 @@
         <v>1</v>
       </c>
       <c r="G53" s="17" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4017,10 +4120,10 @@
         <v>174</v>
       </c>
       <c r="B54" s="16" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D54" s="16"/>
       <c r="E54" s="16">
@@ -4030,7 +4133,7 @@
         <v>2</v>
       </c>
       <c r="G54" s="16" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4038,10 +4141,10 @@
         <v>521</v>
       </c>
       <c r="B55" s="17" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C55" s="17" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D55" s="17"/>
       <c r="E55" s="17">
@@ -4051,7 +4154,7 @@
         <v>6</v>
       </c>
       <c r="G55" s="17" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4059,10 +4162,10 @@
         <v>528</v>
       </c>
       <c r="B56" s="16" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D56" s="16"/>
       <c r="E56" s="16">
@@ -4072,7 +4175,7 @@
         <v>6</v>
       </c>
       <c r="G56" s="16" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4080,10 +4183,10 @@
         <v>178</v>
       </c>
       <c r="B57" s="17" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C57" s="17" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D57" s="17"/>
       <c r="E57" s="17">
@@ -4093,7 +4196,7 @@
         <v>6</v>
       </c>
       <c r="G57" s="17" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4101,10 +4204,10 @@
         <v>179</v>
       </c>
       <c r="B58" s="16" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D58" s="16"/>
       <c r="E58" s="16">
@@ -4114,7 +4217,7 @@
         <v>1</v>
       </c>
       <c r="G58" s="16" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4122,10 +4225,10 @@
         <v>332</v>
       </c>
       <c r="B59" s="17" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C59" s="17" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D59" s="17"/>
       <c r="E59" s="17">
@@ -4135,7 +4238,7 @@
         <v>12</v>
       </c>
       <c r="G59" s="17" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4143,10 +4246,10 @@
         <v>180</v>
       </c>
       <c r="B60" s="16" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D60" s="16"/>
       <c r="E60" s="16">
@@ -4156,7 +4259,7 @@
         <v>2</v>
       </c>
       <c r="G60" s="16" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4164,10 +4267,10 @@
         <v>333</v>
       </c>
       <c r="B61" s="17" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C61" s="17" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D61" s="17"/>
       <c r="E61" s="17">
@@ -4177,7 +4280,7 @@
         <v>3</v>
       </c>
       <c r="G61" s="17" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4185,10 +4288,10 @@
         <v>381</v>
       </c>
       <c r="B62" s="16" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D62" s="16"/>
       <c r="E62" s="16">
@@ -4198,7 +4301,7 @@
         <v>6</v>
       </c>
       <c r="G62" s="16" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4206,10 +4309,10 @@
         <v>411</v>
       </c>
       <c r="B63" s="17" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C63" s="17" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D63" s="17"/>
       <c r="E63" s="17">
@@ -4219,7 +4322,7 @@
         <v>216</v>
       </c>
       <c r="G63" s="17" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4227,10 +4330,10 @@
         <v>465</v>
       </c>
       <c r="B64" s="16" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D64" s="16"/>
       <c r="E64" s="16">
@@ -4240,7 +4343,7 @@
         <v>6</v>
       </c>
       <c r="G64" s="16" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4248,10 +4351,10 @@
         <v>193</v>
       </c>
       <c r="B65" s="17" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C65" s="17" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D65" s="17"/>
       <c r="E65" s="17">
@@ -4261,7 +4364,7 @@
         <v>3</v>
       </c>
       <c r="G65" s="17" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4269,10 +4372,10 @@
         <v>196</v>
       </c>
       <c r="B66" s="16" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D66" s="16"/>
       <c r="E66" s="16">
@@ -4282,7 +4385,7 @@
         <v>2</v>
       </c>
       <c r="G66" s="16" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4290,10 +4393,10 @@
         <v>197</v>
       </c>
       <c r="B67" s="17" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C67" s="17" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D67" s="17"/>
       <c r="E67" s="17">
@@ -4303,7 +4406,7 @@
         <v>6</v>
       </c>
       <c r="G67" s="17" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4311,10 +4414,10 @@
         <v>201</v>
       </c>
       <c r="B68" s="16" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D68" s="16"/>
       <c r="E68" s="16">
@@ -4324,7 +4427,7 @@
         <v>96</v>
       </c>
       <c r="G68" s="16" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4332,10 +4435,10 @@
         <v>203</v>
       </c>
       <c r="B69" s="17" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C69" s="17" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D69" s="17"/>
       <c r="E69" s="17">
@@ -4345,7 +4448,7 @@
         <v>2</v>
       </c>
       <c r="G69" s="17" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4353,10 +4456,10 @@
         <v>208</v>
       </c>
       <c r="B70" s="16" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D70" s="16"/>
       <c r="E70" s="16">
@@ -4366,7 +4469,7 @@
         <v>6</v>
       </c>
       <c r="G70" s="16" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4374,10 +4477,10 @@
         <v>423</v>
       </c>
       <c r="B71" s="17" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C71" s="17" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D71" s="17"/>
       <c r="E71" s="17">
@@ -4387,7 +4490,7 @@
         <v>6</v>
       </c>
       <c r="G71" s="17" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4395,10 +4498,10 @@
         <v>485</v>
       </c>
       <c r="B72" s="16" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D72" s="16"/>
       <c r="E72" s="16">
@@ -4408,7 +4511,7 @@
         <v>6</v>
       </c>
       <c r="G72" s="16" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4416,10 +4519,10 @@
         <v>535</v>
       </c>
       <c r="B73" s="17" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C73" s="17" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D73" s="17"/>
       <c r="E73" s="17">
@@ -4429,7 +4532,7 @@
         <v>9</v>
       </c>
       <c r="G73" s="17" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4437,10 +4540,10 @@
         <v>211</v>
       </c>
       <c r="B74" s="16" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D74" s="16"/>
       <c r="E74" s="16">
@@ -4450,7 +4553,7 @@
         <v>6</v>
       </c>
       <c r="G74" s="16" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4458,10 +4561,10 @@
         <v>213</v>
       </c>
       <c r="B75" s="17" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C75" s="17" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D75" s="17"/>
       <c r="E75" s="17">
@@ -4471,7 +4574,7 @@
         <v>12</v>
       </c>
       <c r="G75" s="17" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4479,10 +4582,10 @@
         <v>214</v>
       </c>
       <c r="B76" s="16" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D76" s="16"/>
       <c r="E76" s="16">
@@ -4492,7 +4595,7 @@
         <v>3</v>
       </c>
       <c r="G76" s="16" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4500,10 +4603,10 @@
         <v>216</v>
       </c>
       <c r="B77" s="17" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C77" s="17" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D77" s="17"/>
       <c r="E77" s="17">
@@ -4513,7 +4616,7 @@
         <v>2</v>
       </c>
       <c r="G77" s="17" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4521,10 +4624,10 @@
         <v>220</v>
       </c>
       <c r="B78" s="16" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D78" s="16"/>
       <c r="E78" s="16">
@@ -4534,7 +4637,7 @@
         <v>2</v>
       </c>
       <c r="G78" s="16" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4542,10 +4645,10 @@
         <v>221</v>
       </c>
       <c r="B79" s="17" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C79" s="17" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D79" s="17"/>
       <c r="E79" s="17">
@@ -4555,7 +4658,7 @@
         <v>1</v>
       </c>
       <c r="G79" s="17" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4563,10 +4666,10 @@
         <v>225</v>
       </c>
       <c r="B80" s="16" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D80" s="16"/>
       <c r="E80" s="16">
@@ -4576,7 +4679,7 @@
         <v>12</v>
       </c>
       <c r="G80" s="16" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4584,10 +4687,10 @@
         <v>226</v>
       </c>
       <c r="B81" s="17" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C81" s="17" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D81" s="17"/>
       <c r="E81" s="17">
@@ -4597,7 +4700,7 @@
         <v>12</v>
       </c>
       <c r="G81" s="17" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4605,10 +4708,10 @@
         <v>229</v>
       </c>
       <c r="B82" s="16" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D82" s="16"/>
       <c r="E82" s="16">
@@ -4618,7 +4721,7 @@
         <v>24</v>
       </c>
       <c r="G82" s="16" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4626,10 +4729,10 @@
         <v>230</v>
       </c>
       <c r="B83" s="17" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C83" s="17" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D83" s="17"/>
       <c r="E83" s="17">
@@ -4639,7 +4742,7 @@
         <v>6</v>
       </c>
       <c r="G83" s="17" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4647,10 +4750,10 @@
         <v>559</v>
       </c>
       <c r="B84" s="16" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D84" s="16"/>
       <c r="E84" s="16">
@@ -4660,7 +4763,7 @@
         <v>12</v>
       </c>
       <c r="G84" s="16" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4668,10 +4771,10 @@
         <v>562</v>
       </c>
       <c r="B85" s="17" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C85" s="17" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D85" s="17"/>
       <c r="E85" s="17">
@@ -4681,7 +4784,7 @@
         <v>2</v>
       </c>
       <c r="G85" s="17" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4689,10 +4792,10 @@
         <v>406</v>
       </c>
       <c r="B86" s="16" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D86" s="16"/>
       <c r="E86" s="16">
@@ -4702,7 +4805,7 @@
         <v>3</v>
       </c>
       <c r="G86" s="16" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4710,10 +4813,10 @@
         <v>509</v>
       </c>
       <c r="B87" s="17" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C87" s="17" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D87" s="17"/>
       <c r="E87" s="17">
@@ -4723,7 +4826,7 @@
         <v>12</v>
       </c>
       <c r="G87" s="17" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4731,10 +4834,10 @@
         <v>425</v>
       </c>
       <c r="B88" s="16" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D88" s="16"/>
       <c r="E88" s="16">
@@ -4744,7 +4847,7 @@
         <v>1</v>
       </c>
       <c r="G88" s="16" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4752,10 +4855,10 @@
         <v>236</v>
       </c>
       <c r="B89" s="17" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C89" s="17" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D89" s="17"/>
       <c r="E89" s="17">
@@ -4765,7 +4868,7 @@
         <v>6</v>
       </c>
       <c r="G89" s="17" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4773,10 +4876,10 @@
         <v>241</v>
       </c>
       <c r="B90" s="16" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D90" s="16"/>
       <c r="E90" s="16">
@@ -4786,7 +4889,7 @@
         <v>3</v>
       </c>
       <c r="G90" s="16" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4794,10 +4897,10 @@
         <v>240</v>
       </c>
       <c r="B91" s="17" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C91" s="17" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D91" s="17"/>
       <c r="E91" s="17">
@@ -4807,7 +4910,7 @@
         <v>2</v>
       </c>
       <c r="G91" s="17" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4815,10 +4918,10 @@
         <v>244</v>
       </c>
       <c r="B92" s="16" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D92" s="16"/>
       <c r="E92" s="16">
@@ -4828,7 +4931,7 @@
         <v>6</v>
       </c>
       <c r="G92" s="16" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4836,10 +4939,10 @@
         <v>414</v>
       </c>
       <c r="B93" s="17" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C93" s="17" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D93" s="17"/>
       <c r="E93" s="17">
@@ -4849,7 +4952,7 @@
         <v>2</v>
       </c>
       <c r="G93" s="17" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4857,10 +4960,10 @@
         <v>467</v>
       </c>
       <c r="B94" s="16" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D94" s="16"/>
       <c r="E94" s="16">
@@ -4870,7 +4973,7 @@
         <v>6</v>
       </c>
       <c r="G94" s="16" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="95" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4878,10 +4981,10 @@
         <v>475</v>
       </c>
       <c r="B95" s="17" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C95" s="17" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D95" s="17"/>
       <c r="E95" s="17">
@@ -4891,7 +4994,7 @@
         <v>1</v>
       </c>
       <c r="G95" s="17" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4899,10 +5002,10 @@
         <v>281</v>
       </c>
       <c r="B96" s="16" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D96" s="16"/>
       <c r="E96" s="16">
@@ -4912,7 +5015,7 @@
         <v>1</v>
       </c>
       <c r="G96" s="16" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4920,10 +5023,10 @@
         <v>283</v>
       </c>
       <c r="B97" s="17" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C97" s="17" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D97" s="17"/>
       <c r="E97" s="17">
@@ -4933,7 +5036,7 @@
         <v>2</v>
       </c>
       <c r="G97" s="17" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4941,10 +5044,10 @@
         <v>284</v>
       </c>
       <c r="B98" s="16" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D98" s="16"/>
       <c r="E98" s="16">
@@ -4954,7 +5057,7 @@
         <v>6</v>
       </c>
       <c r="G98" s="16" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4962,10 +5065,10 @@
         <v>285</v>
       </c>
       <c r="B99" s="17" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C99" s="17" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D99" s="17"/>
       <c r="E99" s="17">
@@ -4975,7 +5078,7 @@
         <v>3</v>
       </c>
       <c r="G99" s="17" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="100" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4983,10 +5086,10 @@
         <v>518</v>
       </c>
       <c r="B100" s="16" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D100" s="16"/>
       <c r="E100" s="16">
@@ -4996,7 +5099,7 @@
         <v>3</v>
       </c>
       <c r="G100" s="16" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="101" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5004,10 +5107,10 @@
         <v>498</v>
       </c>
       <c r="B101" s="17" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C101" s="17" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D101" s="17"/>
       <c r="E101" s="17">
@@ -5017,7 +5120,7 @@
         <v>2</v>
       </c>
       <c r="G101" s="17" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5025,10 +5128,10 @@
         <v>531</v>
       </c>
       <c r="B102" s="16" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D102" s="16"/>
       <c r="E102" s="16">
@@ -5038,7 +5141,7 @@
         <v>288</v>
       </c>
       <c r="G102" s="16" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="103" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5046,10 +5149,10 @@
         <v>291</v>
       </c>
       <c r="B103" s="17" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C103" s="17" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D103" s="17"/>
       <c r="E103" s="17">
@@ -5059,7 +5162,7 @@
         <v>1</v>
       </c>
       <c r="G103" s="17" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="104" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5067,10 +5170,10 @@
         <v>318</v>
       </c>
       <c r="B104" s="16" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D104" s="16"/>
       <c r="E104" s="16">
@@ -5080,7 +5183,7 @@
         <v>6</v>
       </c>
       <c r="G104" s="16" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="105" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5088,10 +5191,10 @@
         <v>346</v>
       </c>
       <c r="B105" s="17" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C105" s="17" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D105" s="17"/>
       <c r="E105" s="17">
@@ -5101,7 +5204,7 @@
         <v>3</v>
       </c>
       <c r="G105" s="17" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="106" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5109,10 +5212,10 @@
         <v>337</v>
       </c>
       <c r="B106" s="16" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D106" s="16"/>
       <c r="E106" s="16">
@@ -5122,7 +5225,7 @@
         <v>3</v>
       </c>
       <c r="G106" s="16" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="107" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5130,10 +5233,10 @@
         <v>319</v>
       </c>
       <c r="B107" s="17" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C107" s="17" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D107" s="17"/>
       <c r="E107" s="17">
@@ -5143,7 +5246,7 @@
         <v>4</v>
       </c>
       <c r="G107" s="17" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="108" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5151,10 +5254,10 @@
         <v>296</v>
       </c>
       <c r="B108" s="16" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D108" s="16"/>
       <c r="E108" s="16">
@@ -5164,7 +5267,7 @@
         <v>24</v>
       </c>
       <c r="G108" s="16" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="109" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5172,10 +5275,10 @@
         <v>311</v>
       </c>
       <c r="B109" s="17" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C109" s="17" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D109" s="17"/>
       <c r="E109" s="17">
@@ -5185,7 +5288,7 @@
         <v>6</v>
       </c>
       <c r="G109" s="17" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="110" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5193,10 +5296,10 @@
         <v>338</v>
       </c>
       <c r="B110" s="16" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D110" s="16"/>
       <c r="E110" s="16">
@@ -5206,7 +5309,7 @@
         <v>3</v>
       </c>
       <c r="G110" s="16" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="111" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5214,10 +5317,10 @@
         <v>325</v>
       </c>
       <c r="B111" s="17" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C111" s="17" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D111" s="17"/>
       <c r="E111" s="17">
@@ -5227,7 +5330,7 @@
         <v>3</v>
       </c>
       <c r="G111" s="17" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="112" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5235,10 +5338,10 @@
         <v>347</v>
       </c>
       <c r="B112" s="16" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D112" s="16"/>
       <c r="E112" s="16">
@@ -5248,7 +5351,7 @@
         <v>12</v>
       </c>
       <c r="G112" s="16" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="113" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5256,10 +5359,10 @@
         <v>373</v>
       </c>
       <c r="B113" s="17" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C113" s="17" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D113" s="17"/>
       <c r="E113" s="17">
@@ -5269,7 +5372,7 @@
         <v>2</v>
       </c>
       <c r="G113" s="17" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="114" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5277,10 +5380,10 @@
         <v>386</v>
       </c>
       <c r="B114" s="16" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D114" s="16"/>
       <c r="E114" s="16">
@@ -5290,7 +5393,7 @@
         <v>6</v>
       </c>
       <c r="G114" s="16" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="115" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5298,10 +5401,10 @@
         <v>397</v>
       </c>
       <c r="B115" s="17" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C115" s="17" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D115" s="17"/>
       <c r="E115" s="17">
@@ -5311,7 +5414,7 @@
         <v>6</v>
       </c>
       <c r="G115" s="17" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="116" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5319,10 +5422,10 @@
         <v>408</v>
       </c>
       <c r="B116" s="16" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D116" s="16"/>
       <c r="E116" s="16">
@@ -5332,7 +5435,7 @@
         <v>24</v>
       </c>
       <c r="G116" s="16" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="117" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5340,10 +5443,10 @@
         <v>361</v>
       </c>
       <c r="B117" s="17" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C117" s="17" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D117" s="17"/>
       <c r="E117" s="17">
@@ -5353,7 +5456,7 @@
         <v>24</v>
       </c>
       <c r="G117" s="17" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="118" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5361,10 +5464,10 @@
         <v>428</v>
       </c>
       <c r="B118" s="16" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D118" s="16"/>
       <c r="E118" s="16">
@@ -5374,7 +5477,7 @@
         <v>6</v>
       </c>
       <c r="G118" s="16" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="119" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5382,10 +5485,10 @@
         <v>362</v>
       </c>
       <c r="B119" s="17" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C119" s="17" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D119" s="17"/>
       <c r="E119" s="17">
@@ -5395,7 +5498,7 @@
         <v>24</v>
       </c>
       <c r="G119" s="17" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="120" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5403,10 +5506,10 @@
         <v>491</v>
       </c>
       <c r="B120" s="16" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D120" s="16"/>
       <c r="E120" s="16">
@@ -5416,7 +5519,7 @@
         <v>6</v>
       </c>
       <c r="G120" s="16" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="121" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5424,10 +5527,10 @@
         <v>349</v>
       </c>
       <c r="B121" s="17" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C121" s="17" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D121" s="17"/>
       <c r="E121" s="17">
@@ -5437,7 +5540,7 @@
         <v>2</v>
       </c>
       <c r="G121" s="17" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="122" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5445,10 +5548,10 @@
         <v>293</v>
       </c>
       <c r="B122" s="16" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D122" s="16"/>
       <c r="E122" s="16">
@@ -5458,7 +5561,7 @@
         <v>2</v>
       </c>
       <c r="G122" s="16" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="123" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5466,10 +5569,10 @@
         <v>298</v>
       </c>
       <c r="B123" s="17" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C123" s="17" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D123" s="17"/>
       <c r="E123" s="17">
@@ -5479,7 +5582,7 @@
         <v>24</v>
       </c>
       <c r="G123" s="17" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="124" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5487,10 +5590,10 @@
         <v>363</v>
       </c>
       <c r="B124" s="16" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D124" s="16"/>
       <c r="E124" s="16">
@@ -5500,7 +5603,7 @@
         <v>6</v>
       </c>
       <c r="G124" s="16" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="125" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5508,10 +5611,10 @@
         <v>375</v>
       </c>
       <c r="B125" s="17" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C125" s="17" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D125" s="17"/>
       <c r="E125" s="17">
@@ -5521,7 +5624,7 @@
         <v>3</v>
       </c>
       <c r="G125" s="17" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="126" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5529,10 +5632,10 @@
         <v>480</v>
       </c>
       <c r="B126" s="16" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C126" s="16" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D126" s="16"/>
       <c r="E126" s="16">
@@ -5542,7 +5645,7 @@
         <v>3</v>
       </c>
       <c r="G126" s="16" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="127" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5550,10 +5653,10 @@
         <v>289</v>
       </c>
       <c r="B127" s="17" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C127" s="17" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D127" s="17"/>
       <c r="E127" s="17">
@@ -5563,7 +5666,7 @@
         <v>6</v>
       </c>
       <c r="G127" s="17" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="128" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5571,10 +5674,10 @@
         <v>470</v>
       </c>
       <c r="B128" s="16" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D128" s="16"/>
       <c r="E128" s="16">
@@ -5584,7 +5687,7 @@
         <v>6</v>
       </c>
       <c r="G128" s="16" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="129" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5592,10 +5695,10 @@
         <v>409</v>
       </c>
       <c r="B129" s="17" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C129" s="17" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D129" s="17"/>
       <c r="E129" s="17">
@@ -5605,7 +5708,7 @@
         <v>24</v>
       </c>
       <c r="G129" s="17" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="130" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5613,10 +5716,10 @@
         <v>563</v>
       </c>
       <c r="B130" s="16" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C130" s="16" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D130" s="16"/>
       <c r="E130" s="16">
@@ -5626,7 +5729,7 @@
         <v>6</v>
       </c>
       <c r="G130" s="16" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="131" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5634,10 +5737,10 @@
         <v>290</v>
       </c>
       <c r="B131" s="17" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C131" s="17" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D131" s="17"/>
       <c r="E131" s="17">
@@ -5647,7 +5750,7 @@
         <v>2</v>
       </c>
       <c r="G131" s="17" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="132" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5655,10 +5758,10 @@
         <v>327</v>
       </c>
       <c r="B132" s="16" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C132" s="16" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D132" s="16"/>
       <c r="E132" s="16">
@@ -5668,7 +5771,7 @@
         <v>1</v>
       </c>
       <c r="G132" s="16" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="133" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5676,10 +5779,10 @@
         <v>339</v>
       </c>
       <c r="B133" s="17" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C133" s="17" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D133" s="17"/>
       <c r="E133" s="17">
@@ -5689,7 +5792,7 @@
         <v>6</v>
       </c>
       <c r="G133" s="17" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="134" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5697,10 +5800,10 @@
         <v>294</v>
       </c>
       <c r="B134" s="16" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C134" s="16" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D134" s="16"/>
       <c r="E134" s="16">
@@ -5710,7 +5813,7 @@
         <v>2</v>
       </c>
       <c r="G134" s="16" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="135" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5718,10 +5821,10 @@
         <v>300</v>
       </c>
       <c r="B135" s="17" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C135" s="17" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D135" s="17"/>
       <c r="E135" s="17">
@@ -5731,7 +5834,7 @@
         <v>3</v>
       </c>
       <c r="G135" s="17" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="136" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5739,10 +5842,10 @@
         <v>321</v>
       </c>
       <c r="B136" s="16" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C136" s="16" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D136" s="16"/>
       <c r="E136" s="16">
@@ -5752,7 +5855,7 @@
         <v>6</v>
       </c>
       <c r="G136" s="16" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="137" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5760,10 +5863,10 @@
         <v>364</v>
       </c>
       <c r="B137" s="17" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C137" s="17" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D137" s="17"/>
       <c r="E137" s="17">
@@ -5773,7 +5876,7 @@
         <v>6</v>
       </c>
       <c r="G137" s="17" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="138" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5781,10 +5884,10 @@
         <v>421</v>
       </c>
       <c r="B138" s="16" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C138" s="16" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D138" s="16"/>
       <c r="E138" s="16">
@@ -5794,7 +5897,7 @@
         <v>2</v>
       </c>
       <c r="G138" s="16" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="139" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5802,10 +5905,10 @@
         <v>471</v>
       </c>
       <c r="B139" s="17" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C139" s="17" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D139" s="17"/>
       <c r="E139" s="17">
@@ -5815,7 +5918,7 @@
         <v>24</v>
       </c>
       <c r="G139" s="17" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="140" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5823,10 +5926,10 @@
         <v>526</v>
       </c>
       <c r="B140" s="16" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C140" s="16" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D140" s="16"/>
       <c r="E140" s="16">
@@ -5836,7 +5939,7 @@
         <v>3</v>
       </c>
       <c r="G140" s="16" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="141" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5844,10 +5947,10 @@
         <v>422</v>
       </c>
       <c r="B141" s="17" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C141" s="17" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D141" s="17"/>
       <c r="E141" s="17">
@@ -5857,7 +5960,7 @@
         <v>3</v>
       </c>
       <c r="G141" s="17" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="142" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5865,10 +5968,10 @@
         <v>472</v>
       </c>
       <c r="B142" s="16" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C142" s="16" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D142" s="16"/>
       <c r="E142" s="16">
@@ -5878,7 +5981,7 @@
         <v>3</v>
       </c>
       <c r="G142" s="16" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="143" spans="1:7" ht="35.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5886,10 +5989,10 @@
         <v>377</v>
       </c>
       <c r="B143" s="17" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C143" s="17" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D143" s="17"/>
       <c r="E143" s="17">
@@ -5899,7 +6002,7 @@
         <v>6</v>
       </c>
       <c r="G143" s="17" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="144" spans="1:7" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5907,10 +6010,10 @@
         <v>495</v>
       </c>
       <c r="B144" s="16" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C144" s="16" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D144" s="16"/>
       <c r="E144" s="16">
@@ -5920,7 +6023,7 @@
         <v>3</v>
       </c>
       <c r="G144" s="16" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="145" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -5928,10 +6031,10 @@
         <v>573</v>
       </c>
       <c r="B145" s="17" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C145" s="17" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D145" s="17"/>
       <c r="E145" s="17">
@@ -5941,7 +6044,7 @@
         <v>6</v>
       </c>
       <c r="G145" s="17" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="146" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -5949,10 +6052,10 @@
         <v>568</v>
       </c>
       <c r="B146" s="16" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C146" s="16" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D146" s="16"/>
       <c r="E146" s="16">
@@ -5962,7 +6065,7 @@
         <v>36</v>
       </c>
       <c r="G146" s="16" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="147" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -5970,10 +6073,10 @@
         <v>578</v>
       </c>
       <c r="B147" s="17" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C147" s="17" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D147" s="17"/>
       <c r="E147" s="17">
@@ -5983,7 +6086,7 @@
         <v>6</v>
       </c>
       <c r="G147" s="17" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="148" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -5991,10 +6094,10 @@
         <v>580</v>
       </c>
       <c r="B148" s="16" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C148" s="16" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D148" s="16"/>
       <c r="E148" s="16">
@@ -6004,7 +6107,7 @@
         <v>6</v>
       </c>
       <c r="G148" s="16" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="149" spans="1:7" hidden="1" x14ac:dyDescent="0.25">

--- a/formuleas.xlsx
+++ b/formuleas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D drive\frelance project\react js\react-curd-postgresql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49B22279-0622-487B-95FA-3F4F498BF81A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77B59ECF-554F-41F0-8AA3-D5534AAC754C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{9867F987-13C8-4BD1-BBB1-24D1B3791B55}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="334">
   <si>
     <t>average price</t>
   </si>
@@ -1024,10 +1024,25 @@
     <t>lower and upper limit edit option in the add/edit screen.</t>
   </si>
   <si>
-    <t xml:space="preserve">product optimization limit reports </t>
-  </si>
-  <si>
-    <t>waiting for nabeels feedback</t>
+    <t xml:space="preserve">summary of purchase report  </t>
+  </si>
+  <si>
+    <t>AR screen will have agent name and filter to search with agent name.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">summary of purchase history / Sale History / return history in Stock view.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A/R add Summary for the selected filter </t>
+  </si>
+  <si>
+    <t>Item Trend report</t>
+  </si>
+  <si>
+    <t>Item Limit report</t>
+  </si>
+  <si>
+    <t>A/R add Summary for the selected filter</t>
   </si>
 </sst>
 </file>
@@ -1113,7 +1128,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1221,11 +1236,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -1258,13 +1299,15 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1394,8 +1437,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E14C37FE-A3D1-4F67-A34E-587A11BB2DEB}" name="Table1" displayName="Table1" ref="A1:F47" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4" totalsRowBorderDxfId="3">
-  <autoFilter ref="A1:F47" xr:uid="{E14C37FE-A3D1-4F67-A34E-587A11BB2DEB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E14C37FE-A3D1-4F67-A34E-587A11BB2DEB}" name="Table1" displayName="Table1" ref="A1:F54" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4" totalsRowBorderDxfId="3">
+  <autoFilter ref="A1:F54" xr:uid="{E14C37FE-A3D1-4F67-A34E-587A11BB2DEB}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{5C468D6D-8BDA-4422-9612-CDAD337F2673}" name="No." dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{A5486217-26D0-4141-A067-CA955B9FA5E3}" name="Description" dataDxfId="1"/>
@@ -1719,30 +1762,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="H1" s="18" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="H1" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="H2" s="18" t="s">
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="H2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C3">
@@ -1994,10 +2037,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6A7823F-41BD-4553-A91B-44623AB5ADBB}">
-  <dimension ref="A1:F58"/>
+  <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C59" sqref="C59"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2688,7 +2731,7 @@
       <c r="A40" s="5">
         <v>37</v>
       </c>
-      <c r="B40" s="20" t="s">
+      <c r="B40" s="18" t="s">
         <v>319</v>
       </c>
       <c r="C40" s="9"/>
@@ -2781,63 +2824,173 @@
       <c r="F47" s="10"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="6"/>
-      <c r="C48" s="6"/>
+      <c r="A48" s="21">
+        <v>45</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="C48" s="22"/>
       <c r="D48" s="6"/>
       <c r="E48" s="6"/>
       <c r="F48" s="10"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="6"/>
-      <c r="C49" s="6"/>
+      <c r="A49" s="21">
+        <v>46</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="C49" s="22"/>
       <c r="D49" s="6"/>
       <c r="E49" s="6"/>
       <c r="F49" s="10"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="6"/>
-      <c r="B50" s="6"/>
-      <c r="C50" s="6"/>
+      <c r="A50" s="21">
+        <v>47</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="C50" s="22"/>
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
       <c r="F50" s="10"/>
     </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="21">
+        <v>48</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="C51" s="22"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="10"/>
+    </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
+      <c r="A52" s="21">
+        <v>49</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="C52" s="22"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="10"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="21">
+        <v>50</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="C53" s="22"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="10"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="5">
+        <v>51</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="C54" s="9"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="10"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="6"/>
+      <c r="B55" s="6"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="10"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="6"/>
+      <c r="B56" s="6"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="10"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="6"/>
+      <c r="B57" s="6"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="10"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="6"/>
+      <c r="B58" s="6"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="10"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="6"/>
+      <c r="B59" s="6"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="10"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="6"/>
+      <c r="B60" s="6"/>
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="10"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="6"/>
+      <c r="B61" s="6"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="10"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B55" t="s">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B56" t="s">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B57" t="s">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
         <v>72</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B58" t="s">
-        <v>327</v>
-      </c>
-      <c r="C58" t="s">
-        <v>328</v>
       </c>
     </row>
   </sheetData>
@@ -2870,11 +3023,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11"/>
@@ -3030,11 +3183,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F2">
